--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9985E18-78C7-4D82-88E4-ACCB3B61AE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6691289F-0C81-4CFA-B4A7-2EAF038D242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>ID No.</t>
   </si>
@@ -65,7 +65,10 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>-</t>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
     <t>REFRIGERATOR</t>
@@ -74,199 +77,136 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>INCUBATOR</t>
-  </si>
-  <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>HAEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>ZENITHLAB</t>
-  </si>
-  <si>
-    <t>HC-12C</t>
-  </si>
-  <si>
-    <t>LAB-BRD-004</t>
-  </si>
-  <si>
-    <t>CF25062737</t>
-  </si>
-  <si>
-    <t>SHUKE</t>
-  </si>
-  <si>
-    <t>TD-4Z</t>
-  </si>
-  <si>
-    <t>LAB-BRD-005</t>
-  </si>
-  <si>
-    <t>CF25062738</t>
+    <t>HAIER</t>
   </si>
   <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>GEMMY</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
-  </si>
-  <si>
-    <t>LAB-BRD-006</t>
-  </si>
-  <si>
-    <t>CF25062739</t>
-  </si>
-  <si>
-    <t>MEDICOOL</t>
-  </si>
-  <si>
-    <t>MDC330</t>
-  </si>
-  <si>
-    <t>MDC-DIX-0123-043</t>
-  </si>
-  <si>
-    <t>LAB-BRD-010</t>
-  </si>
-  <si>
-    <t>CH25062740</t>
-  </si>
-  <si>
-    <t>MDC245</t>
-  </si>
-  <si>
-    <t>MDC245-202303002</t>
-  </si>
-  <si>
-    <t>LAB-BRD-011</t>
-  </si>
-  <si>
-    <t>CH25062741</t>
-  </si>
-  <si>
-    <t>MDC-DIX-0123-041</t>
-  </si>
-  <si>
-    <t>LAB-BRD-012</t>
-  </si>
-  <si>
-    <t>CH25062742</t>
-  </si>
-  <si>
-    <t>MDC-REF-BB330</t>
-  </si>
-  <si>
-    <t>MDC-DIX-XW60-0123-001</t>
-  </si>
-  <si>
-    <t>LAB-BRD-013</t>
-  </si>
-  <si>
-    <t>CH25062743</t>
-  </si>
-  <si>
-    <t>MDC245-202303003</t>
-  </si>
-  <si>
-    <t>LAB-BRD-014</t>
-  </si>
-  <si>
-    <t>CH25062744</t>
-  </si>
-  <si>
-    <t>157139</t>
-  </si>
-  <si>
-    <t>LAB-BRD-015</t>
-  </si>
-  <si>
-    <t>CF25062745</t>
-  </si>
-  <si>
-    <t>157190</t>
-  </si>
-  <si>
-    <t>LAB-BRD-016</t>
-  </si>
-  <si>
-    <t>CF25062746</t>
-  </si>
-  <si>
-    <t>HS-12</t>
-  </si>
-  <si>
-    <t>156764</t>
-  </si>
-  <si>
-    <t>LAB-BRD-017</t>
-  </si>
-  <si>
-    <t>CF25062747</t>
-  </si>
-  <si>
-    <t>SH SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>SH-CH-150G</t>
-  </si>
-  <si>
-    <t>230414ch-150G-2</t>
-  </si>
-  <si>
-    <t>LAB-BRD-037</t>
-  </si>
-  <si>
-    <t>CH25062748</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>MEMERT</t>
-  </si>
-  <si>
-    <t>WNB-22</t>
-  </si>
-  <si>
-    <t>L523-0217</t>
-  </si>
-  <si>
-    <t>LAB-BRD-039</t>
-  </si>
-  <si>
-    <t>WB25062749</t>
-  </si>
-  <si>
-    <t>SLIDE WARMER</t>
-  </si>
-  <si>
-    <t>PREMIERE</t>
-  </si>
-  <si>
-    <t>XH-2001</t>
-  </si>
-  <si>
-    <t>LAB-BRD-040</t>
-  </si>
-  <si>
-    <t>DB25062750</t>
-  </si>
-  <si>
-    <t>MDC-DIX-0123-042</t>
-  </si>
-  <si>
-    <t>LAB-BRD-043</t>
-  </si>
-  <si>
-    <t>CH25062751</t>
+    <t>HXC-158</t>
+  </si>
+  <si>
+    <t>BE06L8E1T00B2D560005</t>
+  </si>
+  <si>
+    <t>KBNH00369</t>
+  </si>
+  <si>
+    <t>CH25062727</t>
+  </si>
+  <si>
+    <t>BD-151C</t>
+  </si>
+  <si>
+    <t>B30KE6E1X00BKM9F0069</t>
+  </si>
+  <si>
+    <t>KBNH00370</t>
+  </si>
+  <si>
+    <t>CH25062728</t>
+  </si>
+  <si>
+    <t>WISEBATH</t>
+  </si>
+  <si>
+    <t>WB-22</t>
+  </si>
+  <si>
+    <t>0400702137M019</t>
+  </si>
+  <si>
+    <t>KBNH00371</t>
+  </si>
+  <si>
+    <t>WB25062729</t>
+  </si>
+  <si>
+    <t>EBA 21</t>
+  </si>
+  <si>
+    <t>0000146-01-00</t>
+  </si>
+  <si>
+    <t>KBNH00372</t>
+  </si>
+  <si>
+    <t>CF25062730</t>
+  </si>
+  <si>
+    <t>EBA 20</t>
+  </si>
+  <si>
+    <t>0120977-07</t>
+  </si>
+  <si>
+    <t>KBNH00384</t>
+  </si>
+  <si>
+    <t>CF25062731</t>
+  </si>
+  <si>
+    <t>0120976-07</t>
+  </si>
+  <si>
+    <t>KBNH00388</t>
+  </si>
+  <si>
+    <t>CF25062732</t>
+  </si>
+  <si>
+    <t>0120978-07</t>
+  </si>
+  <si>
+    <t>KBNH00389</t>
+  </si>
+  <si>
+    <t>CF25062733</t>
+  </si>
+  <si>
+    <t>HAEMATOKRIT 210</t>
+  </si>
+  <si>
+    <t>0013200-03-00</t>
+  </si>
+  <si>
+    <t>KBNH00390</t>
+  </si>
+  <si>
+    <t>CF25062734</t>
+  </si>
+  <si>
+    <t>Z-COOL</t>
+  </si>
+  <si>
+    <t>ZCO-2DQ38</t>
+  </si>
+  <si>
+    <t>ZM-2DGB-56049</t>
+  </si>
+  <si>
+    <t>KBNH00392</t>
+  </si>
+  <si>
+    <t>CH25062735</t>
+  </si>
+  <si>
+    <t>WISESHAKE</t>
+  </si>
+  <si>
+    <t>SHO-1D</t>
+  </si>
+  <si>
+    <t>00988981349002</t>
+  </si>
+  <si>
+    <t>KBNH00396</t>
+  </si>
+  <si>
+    <t>CF25062736</t>
   </si>
 </sst>
 </file>
@@ -729,7 +669,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -773,16 +713,16 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>211227002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -797,16 +737,16 @@
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1">
-        <v>22091721</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -821,16 +761,16 @@
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2206656</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -845,290 +785,220 @@
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="13">
         <v>45812</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="13">
         <v>45812</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="13">
         <v>45812</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="13">
         <v>45812</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="13">
         <v>45812</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>45812</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" s="13">
         <v>45812</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6691289F-0C81-4CFA-B4A7-2EAF038D242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716F493-A6D8-46B5-973D-A746A4105107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ID No.</t>
   </si>
@@ -65,148 +65,82 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>HXC-158</t>
-  </si>
-  <si>
-    <t>BE06L8E1T00B2D560005</t>
-  </si>
-  <si>
-    <t>KBNH00369</t>
-  </si>
-  <si>
-    <t>CH25062727</t>
-  </si>
-  <si>
-    <t>BD-151C</t>
-  </si>
-  <si>
-    <t>B30KE6E1X00BKM9F0069</t>
-  </si>
-  <si>
-    <t>KBNH00370</t>
-  </si>
-  <si>
-    <t>CH25062728</t>
-  </si>
-  <si>
-    <t>WISEBATH</t>
-  </si>
-  <si>
-    <t>WB-22</t>
-  </si>
-  <si>
-    <t>0400702137M019</t>
-  </si>
-  <si>
-    <t>KBNH00371</t>
-  </si>
-  <si>
-    <t>WB25062729</t>
-  </si>
-  <si>
-    <t>EBA 21</t>
-  </si>
-  <si>
-    <t>0000146-01-00</t>
-  </si>
-  <si>
-    <t>KBNH00372</t>
-  </si>
-  <si>
-    <t>CF25062730</t>
-  </si>
-  <si>
-    <t>EBA 20</t>
-  </si>
-  <si>
-    <t>0120977-07</t>
-  </si>
-  <si>
-    <t>KBNH00384</t>
-  </si>
-  <si>
-    <t>CF25062731</t>
-  </si>
-  <si>
-    <t>0120976-07</t>
-  </si>
-  <si>
-    <t>KBNH00388</t>
-  </si>
-  <si>
-    <t>CF25062732</t>
-  </si>
-  <si>
-    <t>0120978-07</t>
-  </si>
-  <si>
-    <t>KBNH00389</t>
-  </si>
-  <si>
-    <t>CF25062733</t>
-  </si>
-  <si>
-    <t>HAEMATOKRIT 210</t>
-  </si>
-  <si>
-    <t>0013200-03-00</t>
-  </si>
-  <si>
-    <t>KBNH00390</t>
-  </si>
-  <si>
-    <t>CF25062734</t>
-  </si>
-  <si>
-    <t>Z-COOL</t>
-  </si>
-  <si>
-    <t>ZCO-2DQ38</t>
-  </si>
-  <si>
-    <t>ZM-2DGB-56049</t>
-  </si>
-  <si>
-    <t>KBNH00392</t>
-  </si>
-  <si>
-    <t>CH25062735</t>
-  </si>
-  <si>
-    <t>WISESHAKE</t>
-  </si>
-  <si>
-    <t>SHO-1D</t>
-  </si>
-  <si>
-    <t>00988981349002</t>
-  </si>
-  <si>
-    <t>KBNH00396</t>
-  </si>
-  <si>
-    <t>CF25062736</t>
+    <t>ELECTROLUX</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>YPM-165P</t>
+  </si>
+  <si>
+    <t>YPM165PS-160300320</t>
+  </si>
+  <si>
+    <t>LAB-001</t>
+  </si>
+  <si>
+    <t>CH25062842</t>
+  </si>
+  <si>
+    <t>OEM-1205I</t>
+  </si>
+  <si>
+    <t>OEM1205I-221001861</t>
+  </si>
+  <si>
+    <t>LAB-002</t>
+  </si>
+  <si>
+    <t>CH25062843</t>
+  </si>
+  <si>
+    <t>FRESHER</t>
+  </si>
+  <si>
+    <t>FF-182WD</t>
+  </si>
+  <si>
+    <t>FF182WD-210900016</t>
+  </si>
+  <si>
+    <t>LAB-003</t>
+  </si>
+  <si>
+    <t>CH25062844</t>
+  </si>
+  <si>
+    <t>LAB-004</t>
+  </si>
+  <si>
+    <t>CF25062845</t>
+  </si>
+  <si>
+    <t>LAB-005</t>
+  </si>
+  <si>
+    <t>CF25062846</t>
+  </si>
+  <si>
+    <t>EUM0930AD-TH</t>
+  </si>
+  <si>
+    <t>LAB-026</t>
+  </si>
+  <si>
+    <t>CH25062847</t>
   </si>
 </sst>
 </file>
@@ -669,7 +603,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -713,73 +647,73 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="13">
+        <v>45819</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="13">
+        <v>45819</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="13">
+        <v>45819</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -788,22 +722,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>147925</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45819</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -812,143 +746,87 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>150753</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41361175</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="13">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716F493-A6D8-46B5-973D-A746A4105107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281124E5-E30B-4971-BAB4-331589FCAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>ID No.</t>
   </si>
@@ -65,82 +65,238 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>ELECTROLUX</t>
-  </si>
-  <si>
-    <t>SANDEN INTERCOOL</t>
-  </si>
-  <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>YPM-165P</t>
-  </si>
-  <si>
-    <t>YPM165PS-160300320</t>
-  </si>
-  <si>
-    <t>LAB-001</t>
-  </si>
-  <si>
-    <t>CH25062842</t>
-  </si>
-  <si>
-    <t>OEM-1205I</t>
-  </si>
-  <si>
-    <t>OEM1205I-221001861</t>
-  </si>
-  <si>
-    <t>LAB-002</t>
-  </si>
-  <si>
-    <t>CH25062843</t>
-  </si>
-  <si>
-    <t>FRESHER</t>
-  </si>
-  <si>
-    <t>FF-182WD</t>
-  </si>
-  <si>
-    <t>FF182WD-210900016</t>
-  </si>
-  <si>
-    <t>LAB-003</t>
-  </si>
-  <si>
-    <t>CH25062844</t>
-  </si>
-  <si>
-    <t>LAB-004</t>
-  </si>
-  <si>
-    <t>CF25062845</t>
-  </si>
-  <si>
-    <t>LAB-005</t>
-  </si>
-  <si>
-    <t>CF25062846</t>
-  </si>
-  <si>
-    <t>EUM0930AD-TH</t>
-  </si>
-  <si>
-    <t>LAB-026</t>
-  </si>
-  <si>
-    <t>CH25062847</t>
+    <t>ELECTRONIC BALANCE</t>
+  </si>
+  <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>BINDER</t>
+  </si>
+  <si>
+    <t>HOT AIR OVEN</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>RF 53</t>
+  </si>
+  <si>
+    <t>RL15-07514</t>
+  </si>
+  <si>
+    <t>NHP-CT-013</t>
+  </si>
+  <si>
+    <t>CH25052997</t>
+  </si>
+  <si>
+    <t>ROTINA 46</t>
+  </si>
+  <si>
+    <t>0000240</t>
+  </si>
+  <si>
+    <t>NHP-C-CT-003</t>
+  </si>
+  <si>
+    <t>CF25052998</t>
+  </si>
+  <si>
+    <t>OHAUS</t>
+  </si>
+  <si>
+    <t>V22PWE3T</t>
+  </si>
+  <si>
+    <t>8338347025</t>
+  </si>
+  <si>
+    <t>NHP-HIS-006</t>
+  </si>
+  <si>
+    <t>EB25052999</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>8027090157</t>
+  </si>
+  <si>
+    <t>NHP-HIS-007</t>
+  </si>
+  <si>
+    <t>EB25053000</t>
+  </si>
+  <si>
+    <t>8337110661</t>
+  </si>
+  <si>
+    <t>NHP-HIS-008</t>
+  </si>
+  <si>
+    <t>EB25053001</t>
+  </si>
+  <si>
+    <t>BSA3202S-CW</t>
+  </si>
+  <si>
+    <t>26290320</t>
+  </si>
+  <si>
+    <t>NHP-HIS-009</t>
+  </si>
+  <si>
+    <t>EB25053002</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>UF30</t>
+  </si>
+  <si>
+    <t>B124.2173</t>
+  </si>
+  <si>
+    <t>NHP-HIS-015</t>
+  </si>
+  <si>
+    <t>CH25053003</t>
+  </si>
+  <si>
+    <t>UN30</t>
+  </si>
+  <si>
+    <t>B121.0649</t>
+  </si>
+  <si>
+    <t>NHP-HIS-016</t>
+  </si>
+  <si>
+    <t>CH25053004</t>
+  </si>
+  <si>
+    <t>ZEEDO</t>
+  </si>
+  <si>
+    <t>HS1125</t>
+  </si>
+  <si>
+    <t>CJHS2099-32HS1125</t>
+  </si>
+  <si>
+    <t>NHP-HIS-033</t>
+  </si>
+  <si>
+    <t>WB25053005</t>
+  </si>
+  <si>
+    <t>ELECTROTHERMAL</t>
+  </si>
+  <si>
+    <t>MH8517</t>
+  </si>
+  <si>
+    <t>M553340/07</t>
+  </si>
+  <si>
+    <t>NHP-HIS-034</t>
+  </si>
+  <si>
+    <t>WB25053006</t>
+  </si>
+  <si>
+    <t>M577610/08</t>
+  </si>
+  <si>
+    <t>NHP-HIS-035</t>
+  </si>
+  <si>
+    <t>WB25053007</t>
+  </si>
+  <si>
+    <t>LEICA</t>
+  </si>
+  <si>
+    <t>HI1210</t>
+  </si>
+  <si>
+    <t>16634</t>
+  </si>
+  <si>
+    <t>NHP-HIS-036</t>
+  </si>
+  <si>
+    <t>WB25053008</t>
+  </si>
+  <si>
+    <t>MDC145</t>
+  </si>
+  <si>
+    <t>MDC145-202311046</t>
+  </si>
+  <si>
+    <t>NHP-MOL-003</t>
+  </si>
+  <si>
+    <t>CH25053010</t>
+  </si>
+  <si>
+    <t>MDC115</t>
+  </si>
+  <si>
+    <t>MDC115-202311019</t>
+  </si>
+  <si>
+    <t>NHP-MOL-004</t>
+  </si>
+  <si>
+    <t>CH25053011</t>
+  </si>
+  <si>
+    <t>LABTRON</t>
+  </si>
+  <si>
+    <t>CF8</t>
+  </si>
+  <si>
+    <t>1110801241A006</t>
+  </si>
+  <si>
+    <t>NHP-MOL-006</t>
+  </si>
+  <si>
+    <t>CF25053012</t>
+  </si>
+  <si>
+    <t>UGAIYA</t>
+  </si>
+  <si>
+    <t>TXD3</t>
+  </si>
+  <si>
+    <t>W19800024030108</t>
+  </si>
+  <si>
+    <t>NHP-CT-0048</t>
+  </si>
+  <si>
+    <t>CF25053009</t>
   </si>
 </sst>
 </file>
@@ -600,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -647,246 +803,386 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="13">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="13">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="13">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>147925</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="13">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>150753</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="13">
-        <v>45819</v>
+        <v>45825</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45824</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45826</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45825</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45826</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45825</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45826</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45825</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45824</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41361175</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45819</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45824</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45826</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45824</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
@@ -966,7 +1262,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
@@ -1779,16 +2075,6 @@
       <c r="G106" s="2"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="6"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281124E5-E30B-4971-BAB4-331589FCAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDA020-EE90-42B1-85B7-1394C3C8DA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>ID No.</t>
   </si>
@@ -101,9 +101,6 @@
     <t>NHP-CT-013</t>
   </si>
   <si>
-    <t>CH25052997</t>
-  </si>
-  <si>
     <t>ROTINA 46</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>NHP-C-CT-003</t>
   </si>
   <si>
-    <t>CF25052998</t>
-  </si>
-  <si>
     <t>OHAUS</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>NHP-HIS-006</t>
   </si>
   <si>
-    <t>EB25052999</t>
-  </si>
-  <si>
     <t>FB3</t>
   </si>
   <si>
@@ -140,18 +131,12 @@
     <t>NHP-HIS-007</t>
   </si>
   <si>
-    <t>EB25053000</t>
-  </si>
-  <si>
     <t>8337110661</t>
   </si>
   <si>
     <t>NHP-HIS-008</t>
   </si>
   <si>
-    <t>EB25053001</t>
-  </si>
-  <si>
     <t>BSA3202S-CW</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
     <t>NHP-HIS-009</t>
   </si>
   <si>
-    <t>EB25053002</t>
-  </si>
-  <si>
     <t>MEMMERT</t>
   </si>
   <si>
@@ -176,9 +158,6 @@
     <t>NHP-HIS-015</t>
   </si>
   <si>
-    <t>CH25053003</t>
-  </si>
-  <si>
     <t>UN30</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>NHP-HIS-016</t>
   </si>
   <si>
-    <t>CH25053004</t>
-  </si>
-  <si>
     <t>ZEEDO</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>NHP-HIS-033</t>
   </si>
   <si>
-    <t>WB25053005</t>
-  </si>
-  <si>
     <t>ELECTROTHERMAL</t>
   </si>
   <si>
@@ -218,18 +191,12 @@
     <t>NHP-HIS-034</t>
   </si>
   <si>
-    <t>WB25053006</t>
-  </si>
-  <si>
     <t>M577610/08</t>
   </si>
   <si>
     <t>NHP-HIS-035</t>
   </si>
   <si>
-    <t>WB25053007</t>
-  </si>
-  <si>
     <t>LEICA</t>
   </si>
   <si>
@@ -242,9 +209,6 @@
     <t>NHP-HIS-036</t>
   </si>
   <si>
-    <t>WB25053008</t>
-  </si>
-  <si>
     <t>MDC145</t>
   </si>
   <si>
@@ -254,9 +218,6 @@
     <t>NHP-MOL-003</t>
   </si>
   <si>
-    <t>CH25053010</t>
-  </si>
-  <si>
     <t>MDC115</t>
   </si>
   <si>
@@ -266,9 +227,6 @@
     <t>NHP-MOL-004</t>
   </si>
   <si>
-    <t>CH25053011</t>
-  </si>
-  <si>
     <t>LABTRON</t>
   </si>
   <si>
@@ -281,9 +239,6 @@
     <t>NHP-MOL-006</t>
   </si>
   <si>
-    <t>CF25053012</t>
-  </si>
-  <si>
     <t>UGAIYA</t>
   </si>
   <si>
@@ -296,7 +251,55 @@
     <t>NHP-CT-0048</t>
   </si>
   <si>
-    <t>CF25053009</t>
+    <t>CH25062997</t>
+  </si>
+  <si>
+    <t>CF25062998</t>
+  </si>
+  <si>
+    <t>EB25062999</t>
+  </si>
+  <si>
+    <t>EB25063000</t>
+  </si>
+  <si>
+    <t>EB25063001</t>
+  </si>
+  <si>
+    <t>EB25063002</t>
+  </si>
+  <si>
+    <t>CH25063003</t>
+  </si>
+  <si>
+    <t>CH25063004</t>
+  </si>
+  <si>
+    <t>WB25063005</t>
+  </si>
+  <si>
+    <t>WB25063006</t>
+  </si>
+  <si>
+    <t>WB25063007</t>
+  </si>
+  <si>
+    <t>WB25063008</t>
+  </si>
+  <si>
+    <t>ยกเลิก(เครื่องเสีย)</t>
+  </si>
+  <si>
+    <t>CH25063010</t>
+  </si>
+  <si>
+    <t>CH25063011</t>
+  </si>
+  <si>
+    <t>CF25063012</t>
+  </si>
+  <si>
+    <t>CF25063009</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G2" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -821,7 +824,7 @@
         <v>45825</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -833,19 +836,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="13">
         <v>45824</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -854,22 +857,22 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="13">
         <v>45825</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -878,22 +881,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="13">
         <v>45824</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -902,22 +905,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13">
         <v>45825</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -929,19 +932,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="13">
         <v>45824</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -950,22 +953,22 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13">
         <v>45826</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -974,22 +977,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="13">
         <v>45825</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -998,22 +1001,22 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13">
         <v>45826</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1022,22 +1025,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>45825</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1046,22 +1049,22 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F12" s="13">
         <v>45826</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1070,22 +1073,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F13" s="13">
         <v>45825</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -1097,19 +1100,19 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F14" s="13">
         <v>45824</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1121,19 +1124,19 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F15" s="13">
         <v>45824</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -1142,22 +1145,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F16" s="13">
         <v>45826</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1166,16 +1169,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F17" s="13">
         <v>45824</v>
@@ -1192,7 +1195,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDA020-EE90-42B1-85B7-1394C3C8DA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F61E72-75EA-48F4-9CB3-5A144D148E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>ID No.</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>WB25063008</t>
-  </si>
-  <si>
-    <t>ยกเลิก(เครื่องเสีย)</t>
   </si>
   <si>
     <t>CH25063010</t>
@@ -759,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1195,9 +1192,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
@@ -1257,7 +1252,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
@@ -2070,16 +2065,6 @@
       <c r="G105" s="2"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="6"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F61E72-75EA-48F4-9CB3-5A144D148E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1271F-6654-428F-A722-6D8F7689CB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>ID No.</t>
   </si>
@@ -65,238 +65,367 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>ELECTRONIC BALANCE</t>
-  </si>
-  <si>
-    <t>SARTORIUS</t>
-  </si>
-  <si>
-    <t>BINDER</t>
-  </si>
-  <si>
     <t>HOT AIR OVEN</t>
   </si>
   <si>
-    <t>MEDICOOL</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>RF 53</t>
-  </si>
-  <si>
-    <t>RL15-07514</t>
-  </si>
-  <si>
-    <t>NHP-CT-013</t>
-  </si>
-  <si>
-    <t>ROTINA 46</t>
-  </si>
-  <si>
-    <t>0000240</t>
-  </si>
-  <si>
-    <t>NHP-C-CT-003</t>
-  </si>
-  <si>
-    <t>OHAUS</t>
-  </si>
-  <si>
-    <t>V22PWE3T</t>
-  </si>
-  <si>
-    <t>8338347025</t>
-  </si>
-  <si>
-    <t>NHP-HIS-006</t>
-  </si>
-  <si>
-    <t>FB3</t>
-  </si>
-  <si>
-    <t>8027090157</t>
-  </si>
-  <si>
-    <t>NHP-HIS-007</t>
-  </si>
-  <si>
-    <t>8337110661</t>
-  </si>
-  <si>
-    <t>NHP-HIS-008</t>
-  </si>
-  <si>
-    <t>BSA3202S-CW</t>
-  </si>
-  <si>
-    <t>26290320</t>
-  </si>
-  <si>
-    <t>NHP-HIS-009</t>
-  </si>
-  <si>
     <t>MEMMERT</t>
   </si>
   <si>
-    <t>UF30</t>
-  </si>
-  <si>
-    <t>B124.2173</t>
-  </si>
-  <si>
-    <t>NHP-HIS-015</t>
-  </si>
-  <si>
-    <t>UN30</t>
-  </si>
-  <si>
-    <t>B121.0649</t>
-  </si>
-  <si>
-    <t>NHP-HIS-016</t>
-  </si>
-  <si>
-    <t>ZEEDO</t>
-  </si>
-  <si>
-    <t>HS1125</t>
-  </si>
-  <si>
-    <t>CJHS2099-32HS1125</t>
-  </si>
-  <si>
-    <t>NHP-HIS-033</t>
-  </si>
-  <si>
-    <t>ELECTROTHERMAL</t>
-  </si>
-  <si>
-    <t>MH8517</t>
-  </si>
-  <si>
-    <t>M553340/07</t>
-  </si>
-  <si>
-    <t>NHP-HIS-034</t>
-  </si>
-  <si>
-    <t>M577610/08</t>
-  </si>
-  <si>
-    <t>NHP-HIS-035</t>
-  </si>
-  <si>
-    <t>LEICA</t>
-  </si>
-  <si>
-    <t>HI1210</t>
-  </si>
-  <si>
-    <t>16634</t>
-  </si>
-  <si>
-    <t>NHP-HIS-036</t>
-  </si>
-  <si>
-    <t>MDC145</t>
-  </si>
-  <si>
-    <t>MDC145-202311046</t>
-  </si>
-  <si>
-    <t>NHP-MOL-003</t>
-  </si>
-  <si>
-    <t>MDC115</t>
-  </si>
-  <si>
-    <t>MDC115-202311019</t>
-  </si>
-  <si>
-    <t>NHP-MOL-004</t>
-  </si>
-  <si>
-    <t>LABTRON</t>
-  </si>
-  <si>
-    <t>CF8</t>
-  </si>
-  <si>
-    <t>1110801241A006</t>
-  </si>
-  <si>
-    <t>NHP-MOL-006</t>
-  </si>
-  <si>
     <t>UGAIYA</t>
   </si>
   <si>
-    <t>TXD3</t>
-  </si>
-  <si>
-    <t>W19800024030108</t>
-  </si>
-  <si>
-    <t>NHP-CT-0048</t>
-  </si>
-  <si>
-    <t>CH25062997</t>
-  </si>
-  <si>
-    <t>CF25062998</t>
-  </si>
-  <si>
-    <t>EB25062999</t>
-  </si>
-  <si>
-    <t>EB25063000</t>
-  </si>
-  <si>
-    <t>EB25063001</t>
-  </si>
-  <si>
-    <t>EB25063002</t>
-  </si>
-  <si>
-    <t>CH25063003</t>
-  </si>
-  <si>
-    <t>CH25063004</t>
-  </si>
-  <si>
-    <t>WB25063005</t>
-  </si>
-  <si>
-    <t>WB25063006</t>
-  </si>
-  <si>
-    <t>WB25063007</t>
-  </si>
-  <si>
-    <t>WB25063008</t>
-  </si>
-  <si>
-    <t>CH25063010</t>
-  </si>
-  <si>
-    <t>CH25063011</t>
-  </si>
-  <si>
-    <t>CF25063012</t>
-  </si>
-  <si>
-    <t>CF25063009</t>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>TOMY</t>
+  </si>
+  <si>
+    <t>ES-315</t>
+  </si>
+  <si>
+    <t>PLP03381</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>CENTURION SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>CR2000</t>
+  </si>
+  <si>
+    <t>15919-10</t>
+  </si>
+  <si>
+    <t>PLP02253</t>
+  </si>
+  <si>
+    <t>CF25062701</t>
+  </si>
+  <si>
+    <t>CENCE</t>
+  </si>
+  <si>
+    <t>TG16-WS</t>
+  </si>
+  <si>
+    <t>15800017040190Z</t>
+  </si>
+  <si>
+    <t>PLP02266</t>
+  </si>
+  <si>
+    <t>CF25062702</t>
+  </si>
+  <si>
+    <t>L420</t>
+  </si>
+  <si>
+    <t>18600016070291</t>
+  </si>
+  <si>
+    <t>PLP02267</t>
+  </si>
+  <si>
+    <t>CF25062703</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>P-NLS-PLP-C01</t>
+  </si>
+  <si>
+    <t>CF25062704</t>
+  </si>
+  <si>
+    <t>ZENITH LAB</t>
+  </si>
+  <si>
+    <t>TDL-4A</t>
+  </si>
+  <si>
+    <t>P-NLS-PLP-C02</t>
+  </si>
+  <si>
+    <t>CF25062705</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>H1650-W</t>
+  </si>
+  <si>
+    <t>W16700023070162</t>
+  </si>
+  <si>
+    <t>P-CF-NLS-PLP-HM01</t>
+  </si>
+  <si>
+    <t>CF25062706</t>
+  </si>
+  <si>
+    <t>UNB 400</t>
+  </si>
+  <si>
+    <t>C412.0812</t>
+  </si>
+  <si>
+    <t>PLP02287</t>
+  </si>
+  <si>
+    <t>CH25062707</t>
+  </si>
+  <si>
+    <t>PLATELET  INCUBATOR</t>
+  </si>
+  <si>
+    <t>MITR</t>
+  </si>
+  <si>
+    <t>M-40PI</t>
+  </si>
+  <si>
+    <t>PI104000258</t>
+  </si>
+  <si>
+    <t>PLP02241</t>
+  </si>
+  <si>
+    <t>CH25062708</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC1000103A-0810-00936</t>
+  </si>
+  <si>
+    <t>PLP02234</t>
+  </si>
+  <si>
+    <t>CH25062709</t>
+  </si>
+  <si>
+    <t>Z-COOL</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1012-01555</t>
+  </si>
+  <si>
+    <t>PLP02280</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PLP02238</t>
+  </si>
+  <si>
+    <t>CH25062711</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>HXC-608</t>
+  </si>
+  <si>
+    <t>BE06P001T00B296L8SLH</t>
+  </si>
+  <si>
+    <t>PLP02240</t>
+  </si>
+  <si>
+    <t>CH25062712</t>
+  </si>
+  <si>
+    <t>ACCUPLUS</t>
+  </si>
+  <si>
+    <t>i250</t>
+  </si>
+  <si>
+    <t>0213-0006</t>
+  </si>
+  <si>
+    <t>PLP02237</t>
+  </si>
+  <si>
+    <t>CH25062713</t>
+  </si>
+  <si>
+    <t>DW-40L262</t>
+  </si>
+  <si>
+    <t>BE02Q4E1T00QEF720001</t>
+  </si>
+  <si>
+    <t>PLP02235</t>
+  </si>
+  <si>
+    <t>CH25062714</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>KRYOS MD 500 SV</t>
+  </si>
+  <si>
+    <t>LS06808</t>
+  </si>
+  <si>
+    <t>PLP02239</t>
+  </si>
+  <si>
+    <t>ZCO-3DQ56</t>
+  </si>
+  <si>
+    <t>P3DQ561711049</t>
+  </si>
+  <si>
+    <t>PLP02236</t>
+  </si>
+  <si>
+    <t>CH25062716</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR AND FREEZER</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MPR-414F-PB</t>
+  </si>
+  <si>
+    <t>PLP03352</t>
+  </si>
+  <si>
+    <t>SEVERIN</t>
+  </si>
+  <si>
+    <t>PLP03563</t>
+  </si>
+  <si>
+    <t>CH25062718</t>
+  </si>
+  <si>
+    <t>MDF-MU539</t>
+  </si>
+  <si>
+    <t>P-FZ-NLS-PLP-BB01</t>
+  </si>
+  <si>
+    <t>CH25062719</t>
+  </si>
+  <si>
+    <t>AUTO READER</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>PLP02297</t>
+  </si>
+  <si>
+    <t>SLIDE WARMER</t>
+  </si>
+  <si>
+    <t>Q.NIC</t>
+  </si>
+  <si>
+    <t>SW-4</t>
+  </si>
+  <si>
+    <t>PLP02244</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>DIGISYSTEM</t>
+  </si>
+  <si>
+    <t>DSR-2800P</t>
+  </si>
+  <si>
+    <t>PLP02252</t>
+  </si>
+  <si>
+    <t>CF25062722</t>
+  </si>
+  <si>
+    <t>BLOOD FLUID WARMER</t>
+  </si>
+  <si>
+    <t>TRANSMED</t>
+  </si>
+  <si>
+    <t>SAHARA III</t>
+  </si>
+  <si>
+    <t>PLP02245</t>
+  </si>
+  <si>
+    <t>DB25062723</t>
+  </si>
+  <si>
+    <t>DIAMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiaCent-12 </t>
+  </si>
+  <si>
+    <t>PLP02242</t>
+  </si>
+  <si>
+    <t>CF25062724</t>
+  </si>
+  <si>
+    <t>PLP03027</t>
+  </si>
+  <si>
+    <t>CF25062725</t>
+  </si>
+  <si>
+    <t>DRY BATH</t>
+  </si>
+  <si>
+    <t>DIGISTEM</t>
+  </si>
+  <si>
+    <t>DSD200E</t>
+  </si>
+  <si>
+    <t>0604006</t>
+  </si>
+  <si>
+    <t>PLP02309</t>
+  </si>
+  <si>
+    <t>DB25062726</t>
+  </si>
+  <si>
+    <t>CH25062717</t>
+  </si>
+  <si>
+    <t>CH25062700</t>
   </si>
 </sst>
 </file>
@@ -304,7 +433,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -423,13 +552,13 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -775,7 +904,7 @@
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="33.6" customHeight="1">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -803,25 +932,23 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>55135019</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="13">
-        <v>45825</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -830,28 +957,28 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45824</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -866,443 +993,603 @@
         <v>27</v>
       </c>
       <c r="F4" s="13">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="13">
-        <v>45824</v>
+        <v>45813</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>156624</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="13">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>220210005</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13">
-        <v>45824</v>
+        <v>45813</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F8" s="13">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F9" s="13">
-        <v>45825</v>
+        <v>45812</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F10" s="13">
-        <v>45826</v>
+        <v>45812</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F11" s="13">
-        <v>45825</v>
+        <v>45812</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="13">
-        <v>45826</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F13" s="13">
-        <v>45825</v>
+        <v>45812</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F14" s="13">
-        <v>45824</v>
+        <v>45813</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F15" s="13">
-        <v>45824</v>
+        <v>45812</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F16" s="13">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19040147</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19040147</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45357</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>220660038</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45814</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1">
+        <v>290</v>
+      </c>
+      <c r="D23" s="1">
+        <v>233537</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1">
+        <v>33041159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15100190</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45814</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1">
+        <v>99122843</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45812</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45824</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1000166</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2001382</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45814</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45813</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -2065,6 +2352,16 @@
       <c r="G105" s="2"/>
       <c r="H105" s="6"/>
     </row>
+    <row r="106" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="6"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1271F-6654-428F-A722-6D8F7689CB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE00C8-2945-45B1-ACBD-BCA0C684AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>ID No.</t>
   </si>
@@ -71,361 +71,229 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>HOT AIR OVEN</t>
-  </si>
-  <si>
     <t>MEMMERT</t>
   </si>
   <si>
-    <t>UGAIYA</t>
-  </si>
-  <si>
-    <t>AUTOCLAVE</t>
-  </si>
-  <si>
-    <t>TOMY</t>
-  </si>
-  <si>
-    <t>ES-315</t>
-  </si>
-  <si>
-    <t>PLP03381</t>
-  </si>
-  <si>
     <t>ยกเลิก</t>
   </si>
   <si>
-    <t>CENTURION SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>CR2000</t>
-  </si>
-  <si>
-    <t>15919-10</t>
-  </si>
-  <si>
-    <t>PLP02253</t>
-  </si>
-  <si>
-    <t>CF25062701</t>
-  </si>
-  <si>
-    <t>CENCE</t>
-  </si>
-  <si>
-    <t>TG16-WS</t>
-  </si>
-  <si>
-    <t>15800017040190Z</t>
-  </si>
-  <si>
-    <t>PLP02266</t>
-  </si>
-  <si>
-    <t>CF25062702</t>
-  </si>
-  <si>
-    <t>L420</t>
-  </si>
-  <si>
-    <t>18600016070291</t>
-  </si>
-  <si>
-    <t>PLP02267</t>
-  </si>
-  <si>
-    <t>CF25062703</t>
-  </si>
-  <si>
     <t>KOKUSAN</t>
   </si>
   <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>P-NLS-PLP-C01</t>
-  </si>
-  <si>
-    <t>CF25062704</t>
-  </si>
-  <si>
-    <t>ZENITH LAB</t>
-  </si>
-  <si>
-    <t>TDL-4A</t>
-  </si>
-  <si>
-    <t>P-NLS-PLP-C02</t>
-  </si>
-  <si>
-    <t>CF25062705</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>H1650-W</t>
-  </si>
-  <si>
-    <t>W16700023070162</t>
-  </si>
-  <si>
-    <t>P-CF-NLS-PLP-HM01</t>
-  </si>
-  <si>
-    <t>CF25062706</t>
-  </si>
-  <si>
-    <t>UNB 400</t>
-  </si>
-  <si>
-    <t>C412.0812</t>
-  </si>
-  <si>
-    <t>PLP02287</t>
-  </si>
-  <si>
-    <t>CH25062707</t>
-  </si>
-  <si>
-    <t>PLATELET  INCUBATOR</t>
-  </si>
-  <si>
-    <t>MITR</t>
-  </si>
-  <si>
-    <t>M-40PI</t>
-  </si>
-  <si>
-    <t>PI104000258</t>
-  </si>
-  <si>
-    <t>PLP02241</t>
-  </si>
-  <si>
-    <t>CH25062708</t>
-  </si>
-  <si>
     <t>SANDEN INTERCOOL</t>
   </si>
   <si>
-    <t>SDC-1000AY</t>
-  </si>
-  <si>
-    <t>SDC1000103A-0810-00936</t>
-  </si>
-  <si>
-    <t>PLP02234</t>
-  </si>
-  <si>
-    <t>CH25062709</t>
-  </si>
-  <si>
-    <t>Z-COOL</t>
-  </si>
-  <si>
-    <t>SDC1000103A-1012-01555</t>
-  </si>
-  <si>
-    <t>PLP02280</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>PLP02238</t>
-  </si>
-  <si>
-    <t>CH25062711</t>
-  </si>
-  <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>HXC-608</t>
-  </si>
-  <si>
-    <t>BE06P001T00B296L8SLH</t>
-  </si>
-  <si>
-    <t>PLP02240</t>
-  </si>
-  <si>
-    <t>CH25062712</t>
-  </si>
-  <si>
-    <t>ACCUPLUS</t>
-  </si>
-  <si>
-    <t>i250</t>
-  </si>
-  <si>
-    <t>0213-0006</t>
-  </si>
-  <si>
-    <t>PLP02237</t>
-  </si>
-  <si>
-    <t>CH25062713</t>
-  </si>
-  <si>
-    <t>DW-40L262</t>
-  </si>
-  <si>
-    <t>BE02Q4E1T00QEF720001</t>
-  </si>
-  <si>
-    <t>PLP02235</t>
-  </si>
-  <si>
-    <t>CH25062714</t>
-  </si>
-  <si>
-    <t>ALS</t>
-  </si>
-  <si>
-    <t>KRYOS MD 500 SV</t>
-  </si>
-  <si>
-    <t>LS06808</t>
-  </si>
-  <si>
-    <t>PLP02239</t>
-  </si>
-  <si>
-    <t>ZCO-3DQ56</t>
-  </si>
-  <si>
-    <t>P3DQ561711049</t>
-  </si>
-  <si>
-    <t>PLP02236</t>
-  </si>
-  <si>
-    <t>CH25062716</t>
-  </si>
-  <si>
     <t>REFRIGERATOR AND FREEZER</t>
   </si>
   <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
-    <t>MPR-414F-PB</t>
-  </si>
-  <si>
-    <t>PLP03352</t>
-  </si>
-  <si>
-    <t>SEVERIN</t>
-  </si>
-  <si>
-    <t>PLP03563</t>
-  </si>
-  <si>
-    <t>CH25062718</t>
-  </si>
-  <si>
-    <t>MDF-MU539</t>
-  </si>
-  <si>
-    <t>P-FZ-NLS-PLP-BB01</t>
-  </si>
-  <si>
-    <t>CH25062719</t>
-  </si>
-  <si>
-    <t>AUTO READER</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>PLP02297</t>
-  </si>
-  <si>
-    <t>SLIDE WARMER</t>
-  </si>
-  <si>
-    <t>Q.NIC</t>
-  </si>
-  <si>
-    <t>SW-4</t>
-  </si>
-  <si>
-    <t>PLP02244</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>DIGISYSTEM</t>
-  </si>
-  <si>
-    <t>DSR-2800P</t>
-  </si>
-  <si>
-    <t>PLP02252</t>
-  </si>
-  <si>
-    <t>CF25062722</t>
-  </si>
-  <si>
-    <t>BLOOD FLUID WARMER</t>
-  </si>
-  <si>
-    <t>TRANSMED</t>
-  </si>
-  <si>
-    <t>SAHARA III</t>
-  </si>
-  <si>
-    <t>PLP02245</t>
-  </si>
-  <si>
-    <t>DB25062723</t>
-  </si>
-  <si>
-    <t>DIAMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DiaCent-12 </t>
-  </si>
-  <si>
-    <t>PLP02242</t>
-  </si>
-  <si>
-    <t>CF25062724</t>
-  </si>
-  <si>
-    <t>PLP03027</t>
-  </si>
-  <si>
-    <t>CF25062725</t>
-  </si>
-  <si>
     <t>DRY BATH</t>
   </si>
   <si>
-    <t>DIGISTEM</t>
-  </si>
-  <si>
-    <t>DSD200E</t>
-  </si>
-  <si>
-    <t>0604006</t>
-  </si>
-  <si>
-    <t>PLP02309</t>
-  </si>
-  <si>
-    <t>DB25062726</t>
-  </si>
-  <si>
-    <t>CH25062717</t>
-  </si>
-  <si>
-    <t>CH25062700</t>
+    <t>LAB-BCR-001</t>
+  </si>
+  <si>
+    <t>H-19⍺</t>
+  </si>
+  <si>
+    <t>CF25063134</t>
+  </si>
+  <si>
+    <t>LAB-BCR-002</t>
+  </si>
+  <si>
+    <t>H-11NC</t>
+  </si>
+  <si>
+    <t>CF25063135</t>
+  </si>
+  <si>
+    <t>LAB-BCR-013</t>
+  </si>
+  <si>
+    <t>HERMLE</t>
+  </si>
+  <si>
+    <t>Z 216 M</t>
+  </si>
+  <si>
+    <t>CF25063136</t>
+  </si>
+  <si>
+    <t>LAB-BCR-060</t>
+  </si>
+  <si>
+    <t>HS-12</t>
+  </si>
+  <si>
+    <t>CF25063137</t>
+  </si>
+  <si>
+    <t>LAB-BCR-010</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PLR1006</t>
+  </si>
+  <si>
+    <t>1007M317020704</t>
+  </si>
+  <si>
+    <t>CH25063138</t>
+  </si>
+  <si>
+    <t>LAB-BCR-011</t>
+  </si>
+  <si>
+    <t>PLR386</t>
+  </si>
+  <si>
+    <t>3860M317020909</t>
+  </si>
+  <si>
+    <t>LAB-BCR-021</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MDF-U334-PE</t>
+  </si>
+  <si>
+    <t>CH25063140</t>
+  </si>
+  <si>
+    <t>LAB-BCR-022</t>
+  </si>
+  <si>
+    <t>MBR-305GR-PE</t>
+  </si>
+  <si>
+    <t>CH25063141</t>
+  </si>
+  <si>
+    <t>LAB-BCR-048</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MPR-214F</t>
+  </si>
+  <si>
+    <t>09100555</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>LAB-BCR-014</t>
+  </si>
+  <si>
+    <t>WNB14</t>
+  </si>
+  <si>
+    <t>L418.0436</t>
+  </si>
+  <si>
+    <t>WB25063143</t>
+  </si>
+  <si>
+    <t>LAB-BCR-020</t>
+  </si>
+  <si>
+    <t>ALLSHENG</t>
+  </si>
+  <si>
+    <t>MK2000-1</t>
+  </si>
+  <si>
+    <t>A101-01545</t>
+  </si>
+  <si>
+    <t>DB25063144</t>
+  </si>
+  <si>
+    <t>LAB-BCR-017</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>SK-O180-PRO</t>
+  </si>
+  <si>
+    <t>SA16CAA0000069</t>
+  </si>
+  <si>
+    <t>CF25063145</t>
+  </si>
+  <si>
+    <t>LAB-CNW-001</t>
+  </si>
+  <si>
+    <t>CF25063146</t>
+  </si>
+  <si>
+    <t>LAB-BCR-066</t>
+  </si>
+  <si>
+    <t>YDM-1005</t>
+  </si>
+  <si>
+    <t>YDM1005P-220400093</t>
+  </si>
+  <si>
+    <t>CH25063147</t>
+  </si>
+  <si>
+    <t>LAB-BCR-065</t>
+  </si>
+  <si>
+    <t>MEDITECH</t>
+  </si>
+  <si>
+    <t>HCF-228C</t>
+  </si>
+  <si>
+    <t>B30JFLE6A00BQM890020</t>
+  </si>
+  <si>
+    <t>CH25063148</t>
+  </si>
+  <si>
+    <t>LAB-BCR-076</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC330</t>
+  </si>
+  <si>
+    <t>MDC330-202409057</t>
+  </si>
+  <si>
+    <t>CH25063162</t>
+  </si>
+  <si>
+    <t>CH25063142</t>
+  </si>
+  <si>
+    <t>CH25063139</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
   </si>
 </sst>
 </file>
@@ -433,7 +301,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -552,13 +420,13 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +436,57 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -885,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -932,101 +850,111 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>55135019</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>151950</v>
+      </c>
+      <c r="F2" s="13">
+        <v>45828</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>150480</v>
       </c>
       <c r="F3" s="13">
-        <v>45813</v>
+        <v>45828</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>82170006</v>
       </c>
       <c r="F4" s="13">
-        <v>45813</v>
+        <v>45828</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E5" s="1">
+        <v>150173</v>
+      </c>
       <c r="F5" s="13">
-        <v>45813</v>
+        <v>45828</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -1034,50 +962,54 @@
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
-        <v>156624</v>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="13">
-        <v>45813</v>
+        <v>45827</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>220210005</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45813</v>
+        <v>40</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -1085,511 +1017,387 @@
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>17070087</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45827</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>18030008</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45827</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F10" s="13">
-        <v>45812</v>
+        <v>45827</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F11" s="13">
-        <v>45812</v>
+        <v>45827</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="13">
+        <v>45827</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45827</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F14" s="13">
-        <v>45813</v>
+        <v>45828</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>143586</v>
       </c>
       <c r="F15" s="13">
-        <v>45812</v>
+        <v>45828</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F16" s="13">
-        <v>45813</v>
+        <v>45828</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45827</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45827</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1">
-        <v>19040147</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19040147</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45357</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1">
-        <v>220660038</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="13">
-        <v>45814</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>290</v>
-      </c>
-      <c r="D23" s="1">
-        <v>233537</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="1">
-        <v>33041159</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="1">
-        <v>15100190</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="13">
-        <v>45814</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="1">
-        <v>99122843</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="13">
-        <v>45812</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1000166</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2001382</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="13">
-        <v>45814</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="13">
-        <v>45813</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -2362,8 +2170,24 @@
       <c r="G106" s="2"/>
       <c r="H106" s="6"/>
     </row>
+    <row r="107" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="6"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EE00C8-2945-45B1-ACBD-BCA0C684AF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A905F4E-3DCA-4F88-9D64-4875F5FC64DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +342,18 @@
       <color theme="0"/>
       <name val="Prompt"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Prompt"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Prompt"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -380,6 +396,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -387,7 +416,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +456,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +844,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -853,16 +891,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>151950</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1">
-        <v>151950</v>
       </c>
       <c r="F2" s="13">
         <v>45828</v>
@@ -879,16 +917,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150480</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>150480</v>
       </c>
       <c r="F3" s="13">
         <v>45828</v>
@@ -905,16 +943,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>82170006</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1">
-        <v>82170006</v>
       </c>
       <c r="F4" s="13">
         <v>45828</v>
@@ -931,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>150173</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>150173</v>
       </c>
       <c r="F5" s="13">
         <v>45828</v>
@@ -957,16 +995,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="13">
         <v>45827</v>
@@ -983,16 +1021,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>16</v>
@@ -1009,16 +1047,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17070087</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17070087</v>
       </c>
       <c r="F8" s="13">
         <v>45827</v>
@@ -1035,16 +1073,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18030008</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1">
-        <v>18030008</v>
       </c>
       <c r="F9" s="13">
         <v>45827</v>
@@ -1061,16 +1099,16 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F10" s="13">
         <v>45827</v>
@@ -1087,16 +1125,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="13">
         <v>45827</v>
@@ -1113,16 +1151,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="13">
         <v>45827</v>
@@ -1139,16 +1177,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="13">
         <v>45827</v>
@@ -1165,16 +1203,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="13">
         <v>45828</v>
@@ -1191,16 +1229,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>143586</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1">
-        <v>143586</v>
       </c>
       <c r="F15" s="13">
         <v>45828</v>
@@ -1217,16 +1255,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="13">
         <v>45828</v>
@@ -1243,16 +1281,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F17" s="13">
         <v>45827</v>
@@ -1269,16 +1307,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F18" s="13">
         <v>45827</v>
@@ -1295,7 +1333,6 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="6"/>
@@ -2181,10 +2218,10 @@
       <c r="H107" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1048576">
+  <conditionalFormatting sqref="A1:G1 A20:G1048576 F2:G19 A2:D19">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B20:B1048576 B1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F92572-969A-45E4-B68E-78A502C0D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF15B8E-F8DB-4AAF-8135-7A659FB7BC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="353">
   <si>
     <t>ID No.</t>
   </si>
@@ -71,9 +71,6 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>ยกเลิก</t>
-  </si>
-  <si>
     <t>KOKUSAN</t>
   </si>
   <si>
@@ -92,320 +89,1012 @@
     <t>THERMO SCIENTIFIC</t>
   </si>
   <si>
-    <t>SANYO</t>
-  </si>
-  <si>
-    <t>BOECO</t>
-  </si>
-  <si>
-    <t>C-28</t>
-  </si>
-  <si>
-    <t>0006185-02-00</t>
-  </si>
-  <si>
-    <t>6515-014-0001 012</t>
-  </si>
-  <si>
-    <t>CF25063254</t>
-  </si>
-  <si>
     <t>HETTICH</t>
   </si>
   <si>
     <t>EBA 280</t>
   </si>
   <si>
-    <t>0002663-05</t>
-  </si>
-  <si>
-    <t>6515-014-0003 018</t>
-  </si>
-  <si>
-    <t>CF25063255</t>
-  </si>
-  <si>
-    <t>CENTURION SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>C2004</t>
-  </si>
-  <si>
-    <t>15919-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6515-014-0001 016
-</t>
-  </si>
-  <si>
-    <t>CF25063256</t>
-  </si>
-  <si>
-    <t>NUVE</t>
-  </si>
-  <si>
-    <t>NF 800</t>
-  </si>
-  <si>
-    <t>03-1772</t>
-  </si>
-  <si>
-    <t>6515-014-0001 014</t>
-  </si>
-  <si>
-    <t>CF25063257</t>
-  </si>
-  <si>
-    <t>SURANAREE MEDICAL</t>
-  </si>
-  <si>
-    <t>SRD</t>
-  </si>
-  <si>
-    <t>6515-014-0003 017</t>
-  </si>
-  <si>
-    <t>CF25063258</t>
-  </si>
-  <si>
-    <t>6515-038-0001 002</t>
-  </si>
-  <si>
-    <t>MBR-304GR</t>
-  </si>
-  <si>
-    <t>6515-038-2301 003</t>
-  </si>
-  <si>
-    <t>CH25063260</t>
-  </si>
-  <si>
-    <t>6515-038-2301 004</t>
-  </si>
-  <si>
-    <t>CH25063261</t>
-  </si>
-  <si>
-    <t>ELECTROLUX</t>
-  </si>
-  <si>
-    <t>MRT 791</t>
-  </si>
-  <si>
-    <t>6515-038-3091 002</t>
-  </si>
-  <si>
-    <t>CH25063262</t>
-  </si>
-  <si>
     <t>PHCBI</t>
   </si>
   <si>
-    <t>MDF-U5412PB</t>
-  </si>
-  <si>
-    <t>6515-038-3091 019</t>
-  </si>
-  <si>
-    <t>CH25063263</t>
-  </si>
-  <si>
     <t>ELECTRONIC BALANCE</t>
   </si>
   <si>
-    <t>SARTORIUS</t>
-  </si>
-  <si>
-    <t>BS 4202 S</t>
-  </si>
-  <si>
-    <t>6530-008-0006 021</t>
-  </si>
-  <si>
-    <t>EB25063264</t>
-  </si>
-  <si>
     <t>INCUBATOR</t>
   </si>
   <si>
-    <t>BINDER</t>
-  </si>
-  <si>
-    <t>BD 400</t>
-  </si>
-  <si>
-    <t>07-13534</t>
-  </si>
-  <si>
-    <t>6515-096-0001 003</t>
-  </si>
-  <si>
-    <t>CH25063265</t>
-  </si>
-  <si>
-    <t>HOT AIR OVEN</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>ECOCELL 111</t>
-  </si>
-  <si>
-    <t>B 062544</t>
-  </si>
-  <si>
-    <t>6530-033-0001 003</t>
-  </si>
-  <si>
-    <t>CH25063266</t>
-  </si>
-  <si>
     <t>PLATELET INCUBATOR</t>
   </si>
   <si>
-    <t>SRC-680SRTM</t>
-  </si>
-  <si>
-    <t>SRC680203-0911-00003</t>
-  </si>
-  <si>
-    <t>INS-LAB-PLI-001</t>
-  </si>
-  <si>
-    <t>CH25063267</t>
-  </si>
-  <si>
     <t>AUTOCLAVE</t>
   </si>
   <si>
-    <t>DAIHAN SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>WAC-80</t>
-  </si>
-  <si>
-    <t>WAC80110909001V</t>
-  </si>
-  <si>
-    <t>6530-003-0001 012</t>
-  </si>
-  <si>
-    <t>AC25063268</t>
-  </si>
-  <si>
-    <t>ARCTIKO</t>
-  </si>
-  <si>
-    <t>BB1400</t>
-  </si>
-  <si>
-    <t>14.19.1090716</t>
-  </si>
-  <si>
-    <t>6515-038-2301 005</t>
-  </si>
-  <si>
-    <t>CH25063269</t>
-  </si>
-  <si>
-    <t>HERATHERM IGS180</t>
-  </si>
-  <si>
-    <t>6515-096-0001 004</t>
-  </si>
-  <si>
-    <t>CH25063270</t>
-  </si>
-  <si>
     <t>HAIER</t>
   </si>
   <si>
-    <t>SC2100</t>
-  </si>
-  <si>
-    <t>6515-038-3091 016</t>
-  </si>
-  <si>
-    <t>CH25063271</t>
-  </si>
-  <si>
-    <t>ANC</t>
-  </si>
-  <si>
-    <t>LD6</t>
-  </si>
-  <si>
-    <t>6515-038-3091 013</t>
-  </si>
-  <si>
-    <t>CH25063272</t>
-  </si>
-  <si>
-    <t>SCB-2DB</t>
-  </si>
-  <si>
-    <t>00300575</t>
-  </si>
-  <si>
-    <t>6515-038-3091 009</t>
-  </si>
-  <si>
-    <t>CH25063273</t>
-  </si>
-  <si>
     <t>KW</t>
   </si>
   <si>
-    <t xml:space="preserve"> WPFD3/6</t>
-  </si>
-  <si>
-    <t>6515-038-5002 002</t>
-  </si>
-  <si>
-    <t>DB25063274</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>6515-014-0003 019</t>
-  </si>
-  <si>
-    <t>CF25063275</t>
-  </si>
-  <si>
-    <t>SF-C1492 W</t>
-  </si>
-  <si>
-    <t>INS-LAB-FRZ-002</t>
-  </si>
-  <si>
-    <t>CH25063259</t>
-  </si>
-  <si>
-    <t>SBC-335K(GYN)</t>
-  </si>
-  <si>
-    <t>INS-LAB-RFG-001</t>
-  </si>
-  <si>
-    <t>CH25063374</t>
-  </si>
-  <si>
-    <t>HCF-108C</t>
-  </si>
-  <si>
-    <t>B30JKBE6A00BYL3Q0059</t>
-  </si>
-  <si>
-    <t>6515-038-3091 015</t>
-  </si>
-  <si>
-    <t>CH25063375</t>
-  </si>
-  <si>
-    <t>TAKUAPA HOSPITAL</t>
+    <t>H-36α</t>
+  </si>
+  <si>
+    <t>MCH01277</t>
+  </si>
+  <si>
+    <t>CF25062958</t>
+  </si>
+  <si>
+    <t>HAEMATOKRIT 200</t>
+  </si>
+  <si>
+    <t>0002945-03</t>
+  </si>
+  <si>
+    <t>MCH01279</t>
+  </si>
+  <si>
+    <t>CF25062923</t>
+  </si>
+  <si>
+    <t>POL-EKO-APARATURA</t>
+  </si>
+  <si>
+    <t>CHL 1200 BASIC</t>
+  </si>
+  <si>
+    <t>C12AF170645</t>
+  </si>
+  <si>
+    <t>MCH01285</t>
+  </si>
+  <si>
+    <t>CH25062924</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>MCH01287</t>
+  </si>
+  <si>
+    <t>CF25062925</t>
+  </si>
+  <si>
+    <t>FORMA 906 SERIES</t>
+  </si>
+  <si>
+    <t>MCH01289</t>
+  </si>
+  <si>
+    <t>CH25062926</t>
+  </si>
+  <si>
+    <t>C12AF 170649</t>
+  </si>
+  <si>
+    <t>MCH01290</t>
+  </si>
+  <si>
+    <t>CH25062927</t>
+  </si>
+  <si>
+    <t>SCF-0275</t>
+  </si>
+  <si>
+    <t>SCF0275-180100295</t>
+  </si>
+  <si>
+    <t>MCH01292</t>
+  </si>
+  <si>
+    <t>CH25062928</t>
+  </si>
+  <si>
+    <t>0001903-04</t>
+  </si>
+  <si>
+    <t>MCH01293</t>
+  </si>
+  <si>
+    <t>CF25062929</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>IF110</t>
+  </si>
+  <si>
+    <t>D419.0146</t>
+  </si>
+  <si>
+    <t>MCH01295</t>
+  </si>
+  <si>
+    <t>CH25062930</t>
+  </si>
+  <si>
+    <t>D419.0145</t>
+  </si>
+  <si>
+    <t>MCH01296</t>
+  </si>
+  <si>
+    <t>CH25062931</t>
+  </si>
+  <si>
+    <t>TOMY</t>
+  </si>
+  <si>
+    <t>SX-700</t>
+  </si>
+  <si>
+    <t>MCH01297</t>
+  </si>
+  <si>
+    <t>AC25063116</t>
+  </si>
+  <si>
+    <t>MCH01298</t>
+  </si>
+  <si>
+    <t>AC25063114</t>
+  </si>
+  <si>
+    <t>MCH01299</t>
+  </si>
+  <si>
+    <t>AC25063115</t>
+  </si>
+  <si>
+    <t>B MEDICAL</t>
+  </si>
+  <si>
+    <t>F381</t>
+  </si>
+  <si>
+    <t>MCH01300</t>
+  </si>
+  <si>
+    <t>CH25062932</t>
+  </si>
+  <si>
+    <t>BIOBASE</t>
+  </si>
+  <si>
+    <t>BJPX-P20</t>
+  </si>
+  <si>
+    <t>G1901000102BJPX-P20</t>
+  </si>
+  <si>
+    <t>MCH01301</t>
+  </si>
+  <si>
+    <t>CH25062933</t>
+  </si>
+  <si>
+    <t>B291</t>
+  </si>
+  <si>
+    <t>MCH01302</t>
+  </si>
+  <si>
+    <t>CH25062934</t>
+  </si>
+  <si>
+    <t>SORVALL LEGEND XTR</t>
+  </si>
+  <si>
+    <t>MCH01303</t>
+  </si>
+  <si>
+    <t>CF25062935</t>
+  </si>
+  <si>
+    <t>MCH01304</t>
+  </si>
+  <si>
+    <t>CF25062936</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>WNE22</t>
+  </si>
+  <si>
+    <t>L518.0330</t>
+  </si>
+  <si>
+    <t>MCH01305</t>
+  </si>
+  <si>
+    <t>DB25062937</t>
+  </si>
+  <si>
+    <t>GENIUS COUNT</t>
+  </si>
+  <si>
+    <t>G-12</t>
+  </si>
+  <si>
+    <t>G1262002</t>
+  </si>
+  <si>
+    <t>MCH01313</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>WEIGH SCALE</t>
+  </si>
+  <si>
+    <t>MCH01319</t>
+  </si>
+  <si>
+    <t>CAL/PM</t>
+  </si>
+  <si>
+    <t>ROTOFIX 32 A</t>
+  </si>
+  <si>
+    <t>0040303-04</t>
+  </si>
+  <si>
+    <t>MCH01352</t>
+  </si>
+  <si>
+    <t>CF25062939</t>
+  </si>
+  <si>
+    <t>WISD</t>
+  </si>
+  <si>
+    <t>HB-96D</t>
+  </si>
+  <si>
+    <t>0403699137F001</t>
+  </si>
+  <si>
+    <t>MCH01449</t>
+  </si>
+  <si>
+    <t>DB25062940</t>
+  </si>
+  <si>
+    <t>NJBONITALAB</t>
+  </si>
+  <si>
+    <t>DNC5002</t>
+  </si>
+  <si>
+    <t>MCH01467</t>
+  </si>
+  <si>
+    <t>EB25062941</t>
+  </si>
+  <si>
+    <t>MDF-U5412-PB</t>
+  </si>
+  <si>
+    <t>MCH01469</t>
+  </si>
+  <si>
+    <t>CH25062942</t>
+  </si>
+  <si>
+    <t>MBR-305GR-PE</t>
+  </si>
+  <si>
+    <t>MCH01470</t>
+  </si>
+  <si>
+    <t>CH25062943</t>
+  </si>
+  <si>
+    <t>WEIGHT SCALE BLOOD BAG</t>
+  </si>
+  <si>
+    <t>TERUMO</t>
+  </si>
+  <si>
+    <t>T-RAC II</t>
+  </si>
+  <si>
+    <t>MCH01472</t>
+  </si>
+  <si>
+    <t>UN 30</t>
+  </si>
+  <si>
+    <t>B121.0670</t>
+  </si>
+  <si>
+    <t>MCH02198</t>
+  </si>
+  <si>
+    <t>CH25062945</t>
+  </si>
+  <si>
+    <t>SHAKER</t>
+  </si>
+  <si>
+    <t>IKA</t>
+  </si>
+  <si>
+    <t>C-MAG HS 7</t>
+  </si>
+  <si>
+    <t>08.1279</t>
+  </si>
+  <si>
+    <t>MCH02200</t>
+  </si>
+  <si>
+    <t>MICROTOMES, ROTARY</t>
+  </si>
+  <si>
+    <t>LEICA</t>
+  </si>
+  <si>
+    <t>HISTOCORE BIOCUT</t>
+  </si>
+  <si>
+    <t>02199</t>
+  </si>
+  <si>
+    <t>MCH02201</t>
+  </si>
+  <si>
+    <t>MICROTOMES, CRYOSTAT</t>
+  </si>
+  <si>
+    <t>SAKURA</t>
+  </si>
+  <si>
+    <t>TISSUE-TEK POLAR</t>
+  </si>
+  <si>
+    <t>MCH02202</t>
+  </si>
+  <si>
+    <t>HISTO-TEK PINO</t>
+  </si>
+  <si>
+    <t>MCH02203</t>
+  </si>
+  <si>
+    <t>BIOAIR</t>
+  </si>
+  <si>
+    <t>S@FEGROW 188 PRO</t>
+  </si>
+  <si>
+    <t>V7300</t>
+  </si>
+  <si>
+    <t>MCH02295</t>
+  </si>
+  <si>
+    <t>CH25062947</t>
+  </si>
+  <si>
+    <t>EPREDIA</t>
+  </si>
+  <si>
+    <t>CYTOSPIN 4</t>
+  </si>
+  <si>
+    <t>CY304032107EP</t>
+  </si>
+  <si>
+    <t>MCH02323</t>
+  </si>
+  <si>
+    <t>CH25062948</t>
+  </si>
+  <si>
+    <t>REFRIGERATED CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>HERAEUS CRYOFUGE 16 CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>(21)42670703</t>
+  </si>
+  <si>
+    <t>MCH02335</t>
+  </si>
+  <si>
+    <t>CF25062949</t>
+  </si>
+  <si>
+    <t>OHAUS</t>
+  </si>
+  <si>
+    <t>R21PE3</t>
+  </si>
+  <si>
+    <t>MCH02336</t>
+  </si>
+  <si>
+    <t>EB25062950</t>
+  </si>
+  <si>
+    <t>DRY BATH INCUBATOR</t>
+  </si>
+  <si>
+    <t>WIGGENS</t>
+  </si>
+  <si>
+    <t>WD320</t>
+  </si>
+  <si>
+    <t>W070200219</t>
+  </si>
+  <si>
+    <t>MCH02362</t>
+  </si>
+  <si>
+    <t>DB25062951</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC215</t>
+  </si>
+  <si>
+    <t>MDC215-202111047</t>
+  </si>
+  <si>
+    <t>MCH02441</t>
+  </si>
+  <si>
+    <t>CH25062952</t>
+  </si>
+  <si>
+    <t>MDC145</t>
+  </si>
+  <si>
+    <t>MDC145-202110085</t>
+  </si>
+  <si>
+    <t>MCH02442</t>
+  </si>
+  <si>
+    <t>CH25062953</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>D1008</t>
+  </si>
+  <si>
+    <t>HG215AX0001502</t>
+  </si>
+  <si>
+    <t>MCH02443</t>
+  </si>
+  <si>
+    <t>CF25062954</t>
+  </si>
+  <si>
+    <t>MDC215-202111046</t>
+  </si>
+  <si>
+    <t>MCH02447</t>
+  </si>
+  <si>
+    <t>CH25062955</t>
+  </si>
+  <si>
+    <t>HG215AX0001509</t>
+  </si>
+  <si>
+    <t>MCH02450</t>
+  </si>
+  <si>
+    <t>CF25062956</t>
+  </si>
+  <si>
+    <t>D2012PLUS</t>
+  </si>
+  <si>
+    <t>LP205AM0000768</t>
+  </si>
+  <si>
+    <t>MCH02464</t>
+  </si>
+  <si>
+    <t>CF25062957</t>
+  </si>
+  <si>
+    <t>FRESENIUS KABI</t>
+  </si>
+  <si>
+    <t>COMPOGUARD</t>
+  </si>
+  <si>
+    <t>1CHA7443</t>
+  </si>
+  <si>
+    <t>MCH03804</t>
+  </si>
+  <si>
+    <t>1CHA7441</t>
+  </si>
+  <si>
+    <t>MCH03805</t>
+  </si>
+  <si>
+    <t>1CHA7444</t>
+  </si>
+  <si>
+    <t>MCH03806</t>
+  </si>
+  <si>
+    <t>1CHA7442</t>
+  </si>
+  <si>
+    <t>MCH03807</t>
+  </si>
+  <si>
+    <t>1CHA7446</t>
+  </si>
+  <si>
+    <t>MCH03808</t>
+  </si>
+  <si>
+    <t>1CHA7447</t>
+  </si>
+  <si>
+    <t>MCH03809</t>
+  </si>
+  <si>
+    <t>1CHA7445</t>
+  </si>
+  <si>
+    <t>MCH03810</t>
+  </si>
+  <si>
+    <t>HI1210</t>
+  </si>
+  <si>
+    <t>MCH03916</t>
+  </si>
+  <si>
+    <t>WB25062965</t>
+  </si>
+  <si>
+    <t>MBR-1405GR-PE</t>
+  </si>
+  <si>
+    <t>MCH03919</t>
+  </si>
+  <si>
+    <t>CH25063110</t>
+  </si>
+  <si>
+    <t>MDF-U5412</t>
+  </si>
+  <si>
+    <t>MCH03920</t>
+  </si>
+  <si>
+    <t>CH25062967</t>
+  </si>
+  <si>
+    <t>MCH03969</t>
+  </si>
+  <si>
+    <t>WB25062968</t>
+  </si>
+  <si>
+    <t>WEIGHT SCALE</t>
+  </si>
+  <si>
+    <t>NYR</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>MCH04074</t>
+  </si>
+  <si>
+    <t>MCH04075</t>
+  </si>
+  <si>
+    <t>PLASMA THAWER</t>
+  </si>
+  <si>
+    <t>WPFD 3/6</t>
+  </si>
+  <si>
+    <t>MCH04143</t>
+  </si>
+  <si>
+    <t>DB25062971</t>
+  </si>
+  <si>
+    <t>CHL 1200 CMS SMART</t>
+  </si>
+  <si>
+    <t>CHL12210025</t>
+  </si>
+  <si>
+    <t>MCH04585</t>
+  </si>
+  <si>
+    <t>CH25062972</t>
+  </si>
+  <si>
+    <t>CHL12210023</t>
+  </si>
+  <si>
+    <t>MCH04586</t>
+  </si>
+  <si>
+    <t>CH25062973</t>
+  </si>
+  <si>
+    <t>CHL 1200 BM SMART</t>
+  </si>
+  <si>
+    <t>CHL12210024</t>
+  </si>
+  <si>
+    <t>MCH04587</t>
+  </si>
+  <si>
+    <t>CH25062974</t>
+  </si>
+  <si>
+    <t>UN160</t>
+  </si>
+  <si>
+    <t>B520.0592</t>
+  </si>
+  <si>
+    <t>MCH05339</t>
+  </si>
+  <si>
+    <t>CH25062975</t>
+  </si>
+  <si>
+    <t>PR224</t>
+  </si>
+  <si>
+    <t>C231550983</t>
+  </si>
+  <si>
+    <t>MCH05340</t>
+  </si>
+  <si>
+    <t>EB25062976</t>
+  </si>
+  <si>
+    <t>WTB 35</t>
+  </si>
+  <si>
+    <t>LE21.0183</t>
+  </si>
+  <si>
+    <t>MCH05345</t>
+  </si>
+  <si>
+    <t>WB25062977</t>
+  </si>
+  <si>
+    <t>HCF-478DP</t>
+  </si>
+  <si>
+    <t>B30JT 5E000 39BN2 A0028</t>
+  </si>
+  <si>
+    <t>MCH05346</t>
+  </si>
+  <si>
+    <t>CH25062978</t>
+  </si>
+  <si>
+    <t>HOT PLATE</t>
+  </si>
+  <si>
+    <t>WH220</t>
+  </si>
+  <si>
+    <t>W002211829</t>
+  </si>
+  <si>
+    <t>MCH05364</t>
+  </si>
+  <si>
+    <t>DB25062979</t>
+  </si>
+  <si>
+    <t>CRYSTE</t>
+  </si>
+  <si>
+    <t>PURISPIN 18R</t>
+  </si>
+  <si>
+    <t>M8HF20047</t>
+  </si>
+  <si>
+    <t>MCH05369</t>
+  </si>
+  <si>
+    <t>CF25062980</t>
+  </si>
+  <si>
+    <t>ESCO</t>
+  </si>
+  <si>
+    <t>HF2-400S-1</t>
+  </si>
+  <si>
+    <t>2021-IC79294</t>
+  </si>
+  <si>
+    <t>MCH05370</t>
+  </si>
+  <si>
+    <t>CH25062981</t>
+  </si>
+  <si>
+    <t>eppendorf</t>
+  </si>
+  <si>
+    <t>Centrifuge 5430</t>
+  </si>
+  <si>
+    <t>5427NJ35437</t>
+  </si>
+  <si>
+    <t>MCH06585</t>
+  </si>
+  <si>
+    <t>CF25062982</t>
+  </si>
+  <si>
+    <t>SPECTROPHOTOMETER, ULTRAVIOLET/VISIBLE</t>
+  </si>
+  <si>
+    <t>AGILENT TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>UV-VIS</t>
+  </si>
+  <si>
+    <t>MY22539205</t>
+  </si>
+  <si>
+    <t>MCH05500</t>
+  </si>
+  <si>
+    <t>INCUBATOR AND SHAKER</t>
+  </si>
+  <si>
+    <t>IBS-NR-19-8</t>
+  </si>
+  <si>
+    <t>2023-193848</t>
+  </si>
+  <si>
+    <t>MCH05502</t>
+  </si>
+  <si>
+    <t>0048849-05</t>
+  </si>
+  <si>
+    <t>MCH05601</t>
+  </si>
+  <si>
+    <t>CF25062984</t>
+  </si>
+  <si>
+    <t>0048865-05</t>
+  </si>
+  <si>
+    <t>MCH05602</t>
+  </si>
+  <si>
+    <t>CF25062985</t>
+  </si>
+  <si>
+    <t>TOMS</t>
+  </si>
+  <si>
+    <t>TM-EXC50002</t>
+  </si>
+  <si>
+    <t>2696-66</t>
+  </si>
+  <si>
+    <t>MCH05918</t>
+  </si>
+  <si>
+    <t>EB25062986</t>
+  </si>
+  <si>
+    <t>ALLSHENG</t>
+  </si>
+  <si>
+    <t>MK2000-2E</t>
+  </si>
+  <si>
+    <t>092-16315-24010001</t>
+  </si>
+  <si>
+    <t>MCH06140</t>
+  </si>
+  <si>
+    <t>DB25062987</t>
+  </si>
+  <si>
+    <t>092-16315-24010002</t>
+  </si>
+  <si>
+    <t>MCH06141</t>
+  </si>
+  <si>
+    <t>DB25062988</t>
+  </si>
+  <si>
+    <t>092-16315-24010003</t>
+  </si>
+  <si>
+    <t>MCH06142</t>
+  </si>
+  <si>
+    <t>DB25062989</t>
+  </si>
+  <si>
+    <t>GENEREACH</t>
+  </si>
+  <si>
+    <t>CUBEE</t>
+  </si>
+  <si>
+    <t>A17519</t>
+  </si>
+  <si>
+    <t>MCH06577</t>
+  </si>
+  <si>
+    <t>CF25062990</t>
+  </si>
+  <si>
+    <t>SANDEN</t>
+  </si>
+  <si>
+    <t>SPC-0270</t>
+  </si>
+  <si>
+    <t>SPC0270-241004146</t>
+  </si>
+  <si>
+    <t>MCH06579</t>
+  </si>
+  <si>
+    <t>CH25062991</t>
+  </si>
+  <si>
+    <t>SPC0270-241004213</t>
+  </si>
+  <si>
+    <t>MCH06580</t>
+  </si>
+  <si>
+    <t>CH25062992</t>
+  </si>
+  <si>
+    <t>SNR-0505</t>
+  </si>
+  <si>
+    <t>SNR0505-241117060</t>
+  </si>
+  <si>
+    <t>MCH06581</t>
+  </si>
+  <si>
+    <t>CH25062993</t>
+  </si>
+  <si>
+    <t>SNR0505-241117079</t>
+  </si>
+  <si>
+    <t>MCH06582</t>
+  </si>
+  <si>
+    <t>CH25062994</t>
+  </si>
+  <si>
+    <t>MINI-P25</t>
+  </si>
+  <si>
+    <t>045-16315-25010004</t>
+  </si>
+  <si>
+    <t>MCH06586</t>
+  </si>
+  <si>
+    <t>CF25062995</t>
+  </si>
+  <si>
+    <t>045-16315-25010003</t>
+  </si>
+  <si>
+    <t>MCH06587</t>
+  </si>
+  <si>
+    <t>CF25062996</t>
+  </si>
+  <si>
+    <t>PL6500</t>
+  </si>
+  <si>
+    <t>3860M322031601</t>
+  </si>
+  <si>
+    <t>MCH05708</t>
+  </si>
+  <si>
+    <t>CH25063111</t>
+  </si>
+  <si>
+    <t>PLF276</t>
+  </si>
+  <si>
+    <t>2760M322072202</t>
+  </si>
+  <si>
+    <t>MCH06126</t>
+  </si>
+  <si>
+    <t>CH25063112</t>
+  </si>
+  <si>
+    <t>2760M322072303</t>
+  </si>
+  <si>
+    <t>MCH06127</t>
+  </si>
+  <si>
+    <t>CH25063113</t>
+  </si>
+  <si>
+    <t>KM APPARECCHI SCIENTIFICI</t>
+  </si>
+  <si>
+    <t>W96RT HPL</t>
+  </si>
+  <si>
+    <t>MCH06220</t>
+  </si>
+  <si>
+    <t>CH25062966</t>
+  </si>
+  <si>
+    <t>MAE FAH LUANG MEDICAL CENTER</t>
+  </si>
+  <si>
+    <t>CH25062983</t>
+  </si>
+  <si>
+    <t>CF25062922</t>
   </si>
 </sst>
 </file>
@@ -522,7 +1211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,9 +1225,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -570,7 +1256,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +1266,27 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -917,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -930,35 +1636,35 @@
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -967,129 +1673,129 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="13">
-        <v>45832</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>150681</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45827</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="13">
-        <v>45832</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45827</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13">
-        <v>45832</v>
+        <v>35</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45825</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>122</v>
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13">
-        <v>45832</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1302053</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45827</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>122</v>
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="13">
-        <v>45832</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <v>300254681</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45826</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>122</v>
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
@@ -1097,259 +1803,259 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45825</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1">
-        <v>60610552</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45832</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45826</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1">
-        <v>60610250</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45832</v>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45827</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>122</v>
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7305166</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="13">
-        <v>45832</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45826</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1">
-        <v>21050060</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="13">
-        <v>45832</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45826</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1">
-        <v>19190271</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="13">
-        <v>45833</v>
+        <v>55134230</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45826</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="13">
-        <v>45831</v>
+      <c r="D13" s="1">
+        <v>53134130</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45826</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>122</v>
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53134131</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="13">
-        <v>45831</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>122</v>
+      <c r="H14" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9021157</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45832</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>122</v>
+      <c r="H15" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="13">
-        <v>45831</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>122</v>
+      <c r="H16" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
@@ -1357,155 +2063,155 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="13">
-        <v>45832</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8510758</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="12">
+        <v>45825</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1">
-        <v>42384073</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="13">
-        <v>45831</v>
+        <v>42039344</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="12">
+        <v>45827</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42035658</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45831</v>
+        <v>87</v>
+      </c>
+      <c r="F19" s="12">
+        <v>45827</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="13">
-        <v>45832</v>
+        <v>92</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45825</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45831</v>
+        <v>97</v>
+      </c>
+      <c r="F21" s="12">
+        <v>45828</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1">
-        <v>86674</v>
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="13">
-        <v>45832</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="12">
+        <v>45827</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
@@ -1513,77 +2219,77 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="1">
-        <v>156631</v>
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="13">
-        <v>45832</v>
+        <v>104</v>
+      </c>
+      <c r="F23" s="12">
+        <v>45827</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="1">
-        <v>41000412</v>
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="13">
-        <v>45831</v>
+        <v>109</v>
+      </c>
+      <c r="F24" s="12">
+        <v>45827</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1">
-        <v>51000159</v>
+        <v>2217300127</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="13">
-        <v>45833</v>
+        <v>113</v>
+      </c>
+      <c r="F25" s="12">
+        <v>45824</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
@@ -1591,35 +2297,1679 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20080227</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1">
+        <v>20070025</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F27" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="13">
-        <v>45833</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H27" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1">
+        <v>202012021</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="1">
+        <v>62510578</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12330124</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="12">
+        <v>45828</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8342195060</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="12">
+        <v>45828</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="1">
+        <v>17229</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20080046</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="1">
+        <v>21059952</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="1">
+        <v>17475</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="1">
+        <v>85260</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F82" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F85" s="12">
+        <v>45824</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F86" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F87" s="12">
+        <v>45825</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F88" s="12">
+        <v>45826</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" s="1">
+        <v>88931</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" s="12">
+        <v>45827</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:G1 A20:G1048576 F2:G19 A2:D19">
+  <conditionalFormatting sqref="A1:G1 F2:G19 A2:D19 A20:G1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B20:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B1048576 B1">
+  <conditionalFormatting sqref="H2:H89">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="H2:H89">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9C69F6-6BB5-421F-B042-1D70ABAC76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB1890-B9CD-4F79-8271-ECCDE3E1EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
   <si>
     <t>ID No.</t>
   </si>
@@ -78,172 +78,481 @@
     <t>DRY BATH</t>
   </si>
   <si>
-    <t>INCUBATOR</t>
-  </si>
-  <si>
-    <t>HOT AIR OVEN</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>MEMMERT</t>
-  </si>
-  <si>
-    <t>CAL/PM</t>
-  </si>
-  <si>
-    <t>SANDEN</t>
-  </si>
-  <si>
-    <t>Hettich</t>
-  </si>
-  <si>
-    <t>ROTOFIX 32A</t>
-  </si>
-  <si>
-    <t>0047752-05</t>
-  </si>
-  <si>
-    <t>A-EL-CEN-001</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-  </si>
-  <si>
-    <t>BSH1002-E</t>
-  </si>
-  <si>
-    <t>034-16031-22040205</t>
-  </si>
-  <si>
-    <t>A-EL-DDB-001</t>
-  </si>
-  <si>
-    <t>034-16031-22040206</t>
-  </si>
-  <si>
-    <t>A-EL-DDB-002</t>
-  </si>
-  <si>
-    <t>SFH-0210</t>
-  </si>
-  <si>
-    <t>A-EL-REF-001</t>
-  </si>
-  <si>
-    <t>UN55</t>
-  </si>
-  <si>
-    <t>B222.0755</t>
-  </si>
-  <si>
-    <t>A-EL-HAO-001</t>
-  </si>
-  <si>
-    <t>IN55</t>
-  </si>
-  <si>
-    <t>D221.0607</t>
-  </si>
-  <si>
-    <t>A-EL-INC-002</t>
-  </si>
-  <si>
-    <t>SPB-0500</t>
-  </si>
-  <si>
-    <t>SPB0500-220706197</t>
-  </si>
-  <si>
-    <t>A-EL-REF-002</t>
-  </si>
-  <si>
-    <t>0047751-05</t>
-  </si>
-  <si>
-    <t>A-RL-CEN-001</t>
-  </si>
-  <si>
-    <t>Wincom</t>
-  </si>
-  <si>
-    <t>KJ-201BS</t>
-  </si>
-  <si>
-    <t>ME-2210007</t>
-  </si>
-  <si>
-    <t>A-RL-OBS-001</t>
-  </si>
-  <si>
-    <t>SPB0500-220706199</t>
-  </si>
-  <si>
-    <t>A-RL-REF-001</t>
-  </si>
-  <si>
-    <t>TIMER</t>
-  </si>
-  <si>
-    <t>A-EL-TIM-001</t>
-  </si>
-  <si>
-    <t>A-EL-TIM-002</t>
-  </si>
-  <si>
-    <t>A-EL-TIM-003</t>
-  </si>
-  <si>
-    <t>A-EL-TIM-004</t>
-  </si>
-  <si>
-    <t>A-EL-TIM-005</t>
-  </si>
-  <si>
-    <t>A-RL-TIM-001</t>
-  </si>
-  <si>
-    <t>Canon</t>
-  </si>
-  <si>
-    <t>CT-50</t>
-  </si>
-  <si>
-    <t>A-RL-TIM-002</t>
-  </si>
-  <si>
-    <t>CF25074178</t>
-  </si>
-  <si>
-    <t>DB25074179</t>
-  </si>
-  <si>
-    <t>DB25074180</t>
-  </si>
-  <si>
-    <t>CH25074181</t>
-  </si>
-  <si>
-    <t>AMARC</t>
-  </si>
-  <si>
-    <t>CH25074182</t>
-  </si>
-  <si>
-    <t>CH25074183</t>
-  </si>
-  <si>
-    <t>CF25074184</t>
-  </si>
-  <si>
-    <t>CF25074185</t>
-  </si>
-  <si>
-    <t>CH25074186</t>
-  </si>
-  <si>
-    <t>SIAM FERTILITY AT KASET NAWAMIN</t>
+    <t>MIXER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIENTIFIC INDUSTRIES  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VORTEX-GENIE 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E-163863  </t>
+  </si>
+  <si>
+    <t>LCB00717</t>
+  </si>
+  <si>
+    <t>LCB00717 (6516-004-0004/1/54)</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISD  </t>
+  </si>
+  <si>
+    <t>WISECIRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040066S1417001  </t>
+  </si>
+  <si>
+    <t>LCB00714</t>
+  </si>
+  <si>
+    <t>LCB00714 (6515-047-0001/3/58)</t>
+  </si>
+  <si>
+    <t>WB25073613</t>
+  </si>
+  <si>
+    <t>MICROSCOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPUS  </t>
+  </si>
+  <si>
+    <t>CX31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1J08060 </t>
+  </si>
+  <si>
+    <t>LCB00709</t>
+  </si>
+  <si>
+    <t>LCB00709 (6550-002-0001/5/56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6J40217  </t>
+  </si>
+  <si>
+    <t>LCB00708</t>
+  </si>
+  <si>
+    <t>LCB00708 (6515-034-0104/9/2560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4C41217  </t>
+  </si>
+  <si>
+    <t>LCB00706</t>
+  </si>
+  <si>
+    <t>LCB00706 (6550-002-0001/6/57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOBASE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTM-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLSCR17121193803 </t>
+  </si>
+  <si>
+    <t>LCB00687</t>
+  </si>
+  <si>
+    <t>LCB00687 (6530-004-0012/1/38)</t>
+  </si>
+  <si>
+    <t>WB25073614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRN-360 </t>
+  </si>
+  <si>
+    <t>LCB00661</t>
+  </si>
+  <si>
+    <t>LCB00661 (6515-098-0001/1)</t>
+  </si>
+  <si>
+    <t>CF25073615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAMED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID-INCUBATOR 37 SI </t>
+  </si>
+  <si>
+    <t>LCB00658</t>
+  </si>
+  <si>
+    <t>LCB00658 (6515-047-001/3/58)</t>
+  </si>
+  <si>
+    <t>DB25073616</t>
+  </si>
+  <si>
+    <t>MEDICAL COOL PRO</t>
+  </si>
+  <si>
+    <t>MPRO</t>
+  </si>
+  <si>
+    <t>LCB01313</t>
+  </si>
+  <si>
+    <t>LCB01313 (-)</t>
+  </si>
+  <si>
+    <t>3617 เสีย</t>
+  </si>
+  <si>
+    <t>MELING</t>
+  </si>
+  <si>
+    <t>XC-358L</t>
+  </si>
+  <si>
+    <t>1L216000201HD0LFD4S0001</t>
+  </si>
+  <si>
+    <t>LCB02115</t>
+  </si>
+  <si>
+    <t>LCB02115 (-)</t>
+  </si>
+  <si>
+    <t>CH25073618</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>M-DIAGNOSTIC</t>
+  </si>
+  <si>
+    <t>102MD019319</t>
+  </si>
+  <si>
+    <t>LCB01784</t>
+  </si>
+  <si>
+    <t>LCB01784 (6510-014-0003/25/62)</t>
+  </si>
+  <si>
+    <t>CF25073619</t>
+  </si>
+  <si>
+    <t>102MD019419</t>
+  </si>
+  <si>
+    <t>LCB01783</t>
+  </si>
+  <si>
+    <t>LCB01783 (-)</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>3620 (ยกเลิก)(จำหน่าย)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOKUSAN </t>
+  </si>
+  <si>
+    <t>H-11NC</t>
+  </si>
+  <si>
+    <t>LCB00685</t>
+  </si>
+  <si>
+    <t>LCB00685 (6515-014-0003/30/64)</t>
+  </si>
+  <si>
+    <t>CF25073621</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCILOGEX  </t>
+  </si>
+  <si>
+    <t>DM1424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM6I001212  </t>
+  </si>
+  <si>
+    <t>LCB00683</t>
+  </si>
+  <si>
+    <t>LCB00683 (6510-014-0004/4/59)</t>
+  </si>
+  <si>
+    <t>CF25073622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOECO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC-240 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000277-00  </t>
+  </si>
+  <si>
+    <t>LCB00682</t>
+  </si>
+  <si>
+    <t>LCB00682 (6515-014-0003/19/58)</t>
+  </si>
+  <si>
+    <t>CF25073623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-11N </t>
+  </si>
+  <si>
+    <t>LCB00681</t>
+  </si>
+  <si>
+    <t>LCB00681 (6515-014-0003/29/64)</t>
+  </si>
+  <si>
+    <t>CF25073624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKA-2200 </t>
+  </si>
+  <si>
+    <t>18600015110303</t>
+  </si>
+  <si>
+    <t>LCB00660</t>
+  </si>
+  <si>
+    <t>LCB00660 (6515-014-0003/20/59)</t>
+  </si>
+  <si>
+    <t>CF25073625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HXC-358 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE06NSE1T00QJH5D0003 </t>
+  </si>
+  <si>
+    <t>LCB00655</t>
+  </si>
+  <si>
+    <t>LCB00655 (6515-093-0001/5/2560)</t>
+  </si>
+  <si>
+    <t>CH25073626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DW-40L508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE05T7E1T00QEF3B0001 </t>
+  </si>
+  <si>
+    <t>LCB00654</t>
+  </si>
+  <si>
+    <t>LCB00654 (6515-038-2302/4/60)</t>
+  </si>
+  <si>
+    <t>CH25073627</t>
+  </si>
+  <si>
+    <t>LCB02811</t>
+  </si>
+  <si>
+    <t>LCB02811 (4110-007-0003/5/64)</t>
+  </si>
+  <si>
+    <t>CH25073628</t>
+  </si>
+  <si>
+    <t>2075-13</t>
+  </si>
+  <si>
+    <t>0010457-01-00</t>
+  </si>
+  <si>
+    <t>LCB00277</t>
+  </si>
+  <si>
+    <t>LCB00277 (6515-014-0003/11/41)</t>
+  </si>
+  <si>
+    <t>CH25073629</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>HAEMATOKRIT 200</t>
+  </si>
+  <si>
+    <t>0001552-02</t>
+  </si>
+  <si>
+    <t>LCB00129</t>
+  </si>
+  <si>
+    <t>LCB00129 (-)</t>
+  </si>
+  <si>
+    <t>NUVE</t>
+  </si>
+  <si>
+    <t>NF 480</t>
+  </si>
+  <si>
+    <t>01-2577</t>
+  </si>
+  <si>
+    <t>LCB00403</t>
+  </si>
+  <si>
+    <t>LCB00403 (6515-014-0003/17/56)</t>
+  </si>
+  <si>
+    <t>CF25073631</t>
+  </si>
+  <si>
+    <t>0001084-02</t>
+  </si>
+  <si>
+    <t>LCB01312</t>
+  </si>
+  <si>
+    <t>LCB01312 (-)</t>
+  </si>
+  <si>
+    <t>CF25073632</t>
+  </si>
+  <si>
+    <t>KHT-400</t>
+  </si>
+  <si>
+    <t>LCB01645</t>
+  </si>
+  <si>
+    <t>LCB01645 (6515-014-0003/23/61)</t>
+  </si>
+  <si>
+    <t>CF25073633 out of range</t>
+  </si>
+  <si>
+    <t>0001373-03</t>
+  </si>
+  <si>
+    <t>LCB02228</t>
+  </si>
+  <si>
+    <t>LCB02228 (6510-014-0004/5/64)</t>
+  </si>
+  <si>
+    <t>CF25073634</t>
+  </si>
+  <si>
+    <t>0001540-02</t>
+  </si>
+  <si>
+    <t>LCB01207</t>
+  </si>
+  <si>
+    <t>LCB01207 (6515-014-0003/22/60)</t>
+  </si>
+  <si>
+    <t>CF25073635</t>
+  </si>
+  <si>
+    <t>BKC-MH12-B</t>
+  </si>
+  <si>
+    <t>LXJTG12W23030048K</t>
+  </si>
+  <si>
+    <t>LCB03222</t>
+  </si>
+  <si>
+    <t>LCB03222 (6515-014-0003/31/67)</t>
+  </si>
+  <si>
+    <t>CF25073636</t>
+  </si>
+  <si>
+    <t>H-19 alpha</t>
+  </si>
+  <si>
+    <t>LCB02538</t>
+  </si>
+  <si>
+    <t>LCB02538 (6515-014-0003/29/64)</t>
+  </si>
+  <si>
+    <t>CF25073637</t>
+  </si>
+  <si>
+    <t>LCB02539</t>
+  </si>
+  <si>
+    <t>LCB02539 (6515-014-0003/30/64)</t>
+  </si>
+  <si>
+    <t>CF25073638</t>
+  </si>
+  <si>
+    <t>LCB02540</t>
+  </si>
+  <si>
+    <t>LCB02540 (6515-014-0003/29/64)</t>
+  </si>
+  <si>
+    <t>CF25073639</t>
+  </si>
+  <si>
+    <t>LCB02541</t>
+  </si>
+  <si>
+    <t>LCB02541 (6515-014-0003/27/64)</t>
+  </si>
+  <si>
+    <t>CF25073640</t>
   </si>
 </sst>
 </file>
@@ -774,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -785,7 +1094,7 @@
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" style="13" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.109375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
@@ -819,236 +1128,234 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="12">
-        <v>45855</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
+      <c r="G3" s="2">
+        <v>45845</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45845</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45845</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45855</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45845</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12">
-        <v>45860</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45845</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>113757</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="12">
-        <v>45860</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45845</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9000040317</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45855</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45845</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45855</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
@@ -1056,22 +1363,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>67</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45845</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>68</v>
@@ -1079,334 +1386,575 @@
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45845</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="D14" s="1">
+        <v>132428</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45845</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45845</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45845</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>149284</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45845</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="12">
-        <v>45859</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1708605</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45846</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="1">
+        <v>155270</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="1">
+        <v>155271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="1">
+        <v>155268</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1">
+        <v>155269</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1"/>
@@ -1980,10 +2528,8 @@
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H89">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H89">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB1890-B9CD-4F79-8271-ECCDE3E1EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54241E1F-903A-4B1B-867A-12C13A196F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
   <si>
     <t>ID No.</t>
   </si>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">2E-163863  </t>
   </si>
   <si>
-    <t>LCB00717</t>
-  </si>
-  <si>
     <t>LCB00717 (6516-004-0004/1/54)</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t xml:space="preserve">040066S1417001  </t>
   </si>
   <si>
-    <t>LCB00714</t>
-  </si>
-  <si>
     <t>LCB00714 (6515-047-0001/3/58)</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t xml:space="preserve">1J08060 </t>
   </si>
   <si>
-    <t>LCB00709</t>
-  </si>
-  <si>
     <t>LCB00709 (6550-002-0001/5/56)</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t xml:space="preserve">6J40217  </t>
   </si>
   <si>
-    <t>LCB00708</t>
-  </si>
-  <si>
     <t>LCB00708 (6515-034-0104/9/2560)</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t xml:space="preserve">4C41217  </t>
   </si>
   <si>
-    <t>LCB00706</t>
-  </si>
-  <si>
     <t>LCB00706 (6550-002-0001/6/57)</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t xml:space="preserve">TLSCR17121193803 </t>
   </si>
   <si>
-    <t>LCB00687</t>
-  </si>
-  <si>
     <t>LCB00687 (6530-004-0012/1/38)</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t xml:space="preserve">VRN-360 </t>
   </si>
   <si>
-    <t>LCB00661</t>
-  </si>
-  <si>
     <t>LCB00661 (6515-098-0001/1)</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
     <t xml:space="preserve">ID-INCUBATOR 37 SI </t>
   </si>
   <si>
-    <t>LCB00658</t>
-  </si>
-  <si>
     <t>LCB00658 (6515-047-001/3/58)</t>
   </si>
   <si>
@@ -219,9 +195,6 @@
     <t>MPRO</t>
   </si>
   <si>
-    <t>LCB01313</t>
-  </si>
-  <si>
     <t>LCB01313 (-)</t>
   </si>
   <si>
@@ -237,9 +210,6 @@
     <t>1L216000201HD0LFD4S0001</t>
   </si>
   <si>
-    <t>LCB02115</t>
-  </si>
-  <si>
     <t>LCB02115 (-)</t>
   </si>
   <si>
@@ -255,9 +225,6 @@
     <t>102MD019319</t>
   </si>
   <si>
-    <t>LCB01784</t>
-  </si>
-  <si>
     <t>LCB01784 (6510-014-0003/25/62)</t>
   </si>
   <si>
@@ -267,9 +234,6 @@
     <t>102MD019419</t>
   </si>
   <si>
-    <t>LCB01783</t>
-  </si>
-  <si>
     <t>LCB01783 (-)</t>
   </si>
   <si>
@@ -285,9 +249,6 @@
     <t>H-11NC</t>
   </si>
   <si>
-    <t>LCB00685</t>
-  </si>
-  <si>
     <t>LCB00685 (6515-014-0003/30/64)</t>
   </si>
   <si>
@@ -306,9 +267,6 @@
     <t xml:space="preserve">LM6I001212  </t>
   </si>
   <si>
-    <t>LCB00683</t>
-  </si>
-  <si>
     <t>LCB00683 (6510-014-0004/4/59)</t>
   </si>
   <si>
@@ -324,9 +282,6 @@
     <t xml:space="preserve">0000277-00  </t>
   </si>
   <si>
-    <t>LCB00682</t>
-  </si>
-  <si>
     <t>LCB00682 (6515-014-0003/19/58)</t>
   </si>
   <si>
@@ -336,9 +291,6 @@
     <t xml:space="preserve">H-11N </t>
   </si>
   <si>
-    <t>LCB00681</t>
-  </si>
-  <si>
     <t>LCB00681 (6515-014-0003/29/64)</t>
   </si>
   <si>
@@ -354,9 +306,6 @@
     <t>18600015110303</t>
   </si>
   <si>
-    <t>LCB00660</t>
-  </si>
-  <si>
     <t>LCB00660 (6515-014-0003/20/59)</t>
   </si>
   <si>
@@ -372,9 +321,6 @@
     <t xml:space="preserve">BE06NSE1T00QJH5D0003 </t>
   </si>
   <si>
-    <t>LCB00655</t>
-  </si>
-  <si>
     <t>LCB00655 (6515-093-0001/5/2560)</t>
   </si>
   <si>
@@ -387,18 +333,12 @@
     <t xml:space="preserve">BE05T7E1T00QEF3B0001 </t>
   </si>
   <si>
-    <t>LCB00654</t>
-  </si>
-  <si>
     <t>LCB00654 (6515-038-2302/4/60)</t>
   </si>
   <si>
     <t>CH25073627</t>
   </si>
   <si>
-    <t>LCB02811</t>
-  </si>
-  <si>
     <t>LCB02811 (4110-007-0003/5/64)</t>
   </si>
   <si>
@@ -411,9 +351,6 @@
     <t>0010457-01-00</t>
   </si>
   <si>
-    <t>LCB00277</t>
-  </si>
-  <si>
     <t>LCB00277 (6515-014-0003/11/41)</t>
   </si>
   <si>
@@ -429,9 +366,6 @@
     <t>0001552-02</t>
   </si>
   <si>
-    <t>LCB00129</t>
-  </si>
-  <si>
     <t>LCB00129 (-)</t>
   </si>
   <si>
@@ -444,9 +378,6 @@
     <t>01-2577</t>
   </si>
   <si>
-    <t>LCB00403</t>
-  </si>
-  <si>
     <t>LCB00403 (6515-014-0003/17/56)</t>
   </si>
   <si>
@@ -456,9 +387,6 @@
     <t>0001084-02</t>
   </si>
   <si>
-    <t>LCB01312</t>
-  </si>
-  <si>
     <t>LCB01312 (-)</t>
   </si>
   <si>
@@ -468,9 +396,6 @@
     <t>KHT-400</t>
   </si>
   <si>
-    <t>LCB01645</t>
-  </si>
-  <si>
     <t>LCB01645 (6515-014-0003/23/61)</t>
   </si>
   <si>
@@ -480,9 +405,6 @@
     <t>0001373-03</t>
   </si>
   <si>
-    <t>LCB02228</t>
-  </si>
-  <si>
     <t>LCB02228 (6510-014-0004/5/64)</t>
   </si>
   <si>
@@ -492,9 +414,6 @@
     <t>0001540-02</t>
   </si>
   <si>
-    <t>LCB01207</t>
-  </si>
-  <si>
     <t>LCB01207 (6515-014-0003/22/60)</t>
   </si>
   <si>
@@ -507,9 +426,6 @@
     <t>LXJTG12W23030048K</t>
   </si>
   <si>
-    <t>LCB03222</t>
-  </si>
-  <si>
     <t>LCB03222 (6515-014-0003/31/67)</t>
   </si>
   <si>
@@ -519,40 +435,31 @@
     <t>H-19 alpha</t>
   </si>
   <si>
-    <t>LCB02538</t>
-  </si>
-  <si>
     <t>LCB02538 (6515-014-0003/29/64)</t>
   </si>
   <si>
     <t>CF25073637</t>
   </si>
   <si>
-    <t>LCB02539</t>
-  </si>
-  <si>
     <t>LCB02539 (6515-014-0003/30/64)</t>
   </si>
   <si>
     <t>CF25073638</t>
   </si>
   <si>
-    <t>LCB02540</t>
-  </si>
-  <si>
     <t>LCB02540 (6515-014-0003/29/64)</t>
   </si>
   <si>
     <t>CF25073639</t>
   </si>
   <si>
-    <t>LCB02541</t>
-  </si>
-  <si>
     <t>LCB02541 (6515-014-0003/27/64)</t>
   </si>
   <si>
     <t>CF25073640</t>
+  </si>
+  <si>
+    <t>LEAMCHABANG HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -562,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,16 +508,6 @@
       <color theme="0"/>
       <name val="Prompt"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Prompt"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Prompt"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -626,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -649,19 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -669,7 +553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,15 +592,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +599,37 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1083,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1093,7 +998,7 @@
     <col min="2" max="2" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="42.77734375" style="13" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.109375" style="6" customWidth="1"/>
@@ -1139,147 +1044,147 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2">
-        <v>45845</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45845</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45845</v>
+      <c r="F4" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45845</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45845</v>
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45845</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
@@ -1287,25 +1192,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1">
         <v>113757</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45845</v>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
@@ -1313,25 +1218,25 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <v>9000040317</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45845</v>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
@@ -1339,23 +1244,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="E10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
@@ -1363,25 +1268,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45845</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
@@ -1389,25 +1294,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45845</v>
+        <v>61</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
@@ -1415,25 +1320,25 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
@@ -1441,77 +1346,77 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1">
         <v>132428</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45845</v>
+      <c r="E14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45845</v>
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45845</v>
+        <v>80</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
@@ -1519,25 +1424,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1">
         <v>149284</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45845</v>
+      <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
@@ -1545,25 +1450,25 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45845</v>
+        <v>88</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
@@ -1571,25 +1476,25 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="2">
-        <v>45845</v>
+        <v>93</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
@@ -1597,25 +1502,25 @@
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45845</v>
+        <v>97</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
@@ -1623,51 +1528,51 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45845</v>
+      <c r="E21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45845</v>
+        <v>103</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
@@ -1675,181 +1580,181 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="1">
+        <v>108</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1">
         <v>3630</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45845</v>
+        <v>112</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45845</v>
+        <v>115</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1">
         <v>1708605</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45845</v>
+      <c r="E26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="2">
-        <v>45845</v>
+        <v>121</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="2">
+        <v>124</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="2">
         <v>45846</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45845</v>
+        <v>128</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -1857,25 +1762,25 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1">
         <v>155270</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="2">
-        <v>45845</v>
+      <c r="E30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
@@ -1883,25 +1788,25 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D31" s="1">
         <v>155271</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45845</v>
+      <c r="E31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
@@ -1909,25 +1814,25 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1">
         <v>155268</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="2">
-        <v>45845</v>
+      <c r="E32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -1935,25 +1840,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1">
         <v>155269</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="2">
-        <v>45845</v>
+      <c r="E33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
@@ -2518,16 +2423,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H89" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
-  <conditionalFormatting sqref="A1:G1 F2:G19 A2:D19 A20:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="A1:G1 F2:G19 A2:D19 A20:G1048576 E2:F33">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B20:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H89">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F33">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H89">
+  <conditionalFormatting sqref="G2:G33">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54241E1F-903A-4B1B-867A-12C13A196F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8B47A-0E85-48FC-8466-44F7D7142DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2429,19 +2429,19 @@
   <conditionalFormatting sqref="B1 B20:B1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F33">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G33">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H89">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F33">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD8B47A-0E85-48FC-8466-44F7D7142DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F0A63C-43E4-44A1-82F1-679722E1BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
   <si>
     <t>ID No.</t>
   </si>
@@ -72,394 +72,376 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>MIXER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCIENTIFIC INDUSTRIES  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VORTEX-GENIE 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E-163863  </t>
-  </si>
-  <si>
-    <t>LCB00717 (6516-004-0004/1/54)</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t xml:space="preserve">WISD  </t>
-  </si>
-  <si>
-    <t>WISECIRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040066S1417001  </t>
-  </si>
-  <si>
-    <t>LCB00714 (6515-047-0001/3/58)</t>
-  </si>
-  <si>
-    <t>WB25073613</t>
-  </si>
-  <si>
-    <t>MICROSCOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPUS  </t>
-  </si>
-  <si>
-    <t>CX31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1J08060 </t>
-  </si>
-  <si>
-    <t>LCB00709 (6550-002-0001/5/56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CX31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6J40217  </t>
-  </si>
-  <si>
-    <t>LCB00708 (6515-034-0104/9/2560)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4C41217  </t>
-  </si>
-  <si>
-    <t>LCB00706 (6550-002-0001/6/57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOBASE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTM-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSCR17121193803 </t>
-  </si>
-  <si>
-    <t>LCB00687 (6530-004-0012/1/38)</t>
-  </si>
-  <si>
-    <t>WB25073614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRN-360 </t>
-  </si>
-  <si>
-    <t>LCB00661 (6515-098-0001/1)</t>
-  </si>
-  <si>
-    <t>CF25073615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAMED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID-INCUBATOR 37 SI </t>
-  </si>
-  <si>
-    <t>LCB00658 (6515-047-001/3/58)</t>
-  </si>
-  <si>
-    <t>DB25073616</t>
-  </si>
-  <si>
-    <t>MEDICAL COOL PRO</t>
-  </si>
-  <si>
-    <t>MPRO</t>
-  </si>
-  <si>
-    <t>LCB01313 (-)</t>
-  </si>
-  <si>
-    <t>3617 เสีย</t>
-  </si>
-  <si>
     <t>MELING</t>
   </si>
   <si>
-    <t>XC-358L</t>
-  </si>
-  <si>
-    <t>1L216000201HD0LFD4S0001</t>
-  </si>
-  <si>
-    <t>LCB02115 (-)</t>
-  </si>
-  <si>
-    <t>CH25073618</t>
-  </si>
-  <si>
-    <t>MPW</t>
-  </si>
-  <si>
-    <t>M-DIAGNOSTIC</t>
-  </si>
-  <si>
-    <t>102MD019319</t>
-  </si>
-  <si>
-    <t>LCB01784 (6510-014-0003/25/62)</t>
-  </si>
-  <si>
-    <t>CF25073619</t>
-  </si>
-  <si>
-    <t>102MD019419</t>
-  </si>
-  <si>
-    <t>LCB01783 (-)</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>3620 (ยกเลิก)(จำหน่าย)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOKUSAN </t>
-  </si>
-  <si>
-    <t>H-11NC</t>
-  </si>
-  <si>
-    <t>LCB00685 (6515-014-0003/30/64)</t>
-  </si>
-  <si>
-    <t>CF25073621</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t xml:space="preserve">SCILOGEX  </t>
-  </si>
-  <si>
-    <t>DM1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM6I001212  </t>
-  </si>
-  <si>
-    <t>LCB00683 (6510-014-0004/4/59)</t>
-  </si>
-  <si>
-    <t>CF25073622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOECO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC-240 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000277-00  </t>
-  </si>
-  <si>
-    <t>LCB00682 (6515-014-0003/19/58)</t>
-  </si>
-  <si>
-    <t>CF25073623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-11N </t>
-  </si>
-  <si>
-    <t>LCB00681 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENCE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XKA-2200 </t>
-  </si>
-  <si>
-    <t>18600015110303</t>
-  </si>
-  <si>
-    <t>LCB00660 (6515-014-0003/20/59)</t>
-  </si>
-  <si>
-    <t>CF25073625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAIER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HXC-358 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE06NSE1T00QJH5D0003 </t>
-  </si>
-  <si>
-    <t>LCB00655 (6515-093-0001/5/2560)</t>
-  </si>
-  <si>
-    <t>CH25073626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DW-40L508 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE05T7E1T00QEF3B0001 </t>
-  </si>
-  <si>
-    <t>LCB00654 (6515-038-2302/4/60)</t>
-  </si>
-  <si>
-    <t>CH25073627</t>
-  </si>
-  <si>
-    <t>LCB02811 (4110-007-0003/5/64)</t>
-  </si>
-  <si>
-    <t>CH25073628</t>
-  </si>
-  <si>
-    <t>2075-13</t>
-  </si>
-  <si>
-    <t>0010457-01-00</t>
-  </si>
-  <si>
-    <t>LCB00277 (6515-014-0003/11/41)</t>
-  </si>
-  <si>
-    <t>CH25073629</t>
-  </si>
-  <si>
     <t>HETTICH</t>
   </si>
   <si>
-    <t>HAEMATOKRIT 200</t>
-  </si>
-  <si>
-    <t>0001552-02</t>
-  </si>
-  <si>
-    <t>LCB00129 (-)</t>
-  </si>
-  <si>
-    <t>NUVE</t>
-  </si>
-  <si>
-    <t>NF 480</t>
-  </si>
-  <si>
-    <t>01-2577</t>
-  </si>
-  <si>
-    <t>LCB00403 (6515-014-0003/17/56)</t>
-  </si>
-  <si>
-    <t>CF25073631</t>
-  </si>
-  <si>
-    <t>0001084-02</t>
-  </si>
-  <si>
-    <t>LCB01312 (-)</t>
-  </si>
-  <si>
-    <t>CF25073632</t>
-  </si>
-  <si>
-    <t>KHT-400</t>
-  </si>
-  <si>
-    <t>LCB01645 (6515-014-0003/23/61)</t>
-  </si>
-  <si>
-    <t>CF25073633 out of range</t>
-  </si>
-  <si>
-    <t>0001373-03</t>
-  </si>
-  <si>
-    <t>LCB02228 (6510-014-0004/5/64)</t>
-  </si>
-  <si>
-    <t>CF25073634</t>
-  </si>
-  <si>
-    <t>0001540-02</t>
-  </si>
-  <si>
-    <t>LCB01207 (6515-014-0003/22/60)</t>
-  </si>
-  <si>
-    <t>CF25073635</t>
-  </si>
-  <si>
-    <t>BKC-MH12-B</t>
-  </si>
-  <si>
-    <t>LXJTG12W23030048K</t>
-  </si>
-  <si>
-    <t>LCB03222 (6515-014-0003/31/67)</t>
-  </si>
-  <si>
-    <t>CF25073636</t>
-  </si>
-  <si>
-    <t>H-19 alpha</t>
-  </si>
-  <si>
-    <t>LCB02538 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073637</t>
-  </si>
-  <si>
-    <t>LCB02539 (6515-014-0003/30/64)</t>
-  </si>
-  <si>
-    <t>CF25073638</t>
-  </si>
-  <si>
-    <t>LCB02540 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073639</t>
-  </si>
-  <si>
-    <t>LCB02541 (6515-014-0003/27/64)</t>
-  </si>
-  <si>
-    <t>CF25073640</t>
-  </si>
-  <si>
-    <t>LEAMCHABANG HOSPITAL</t>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MDF-U5411</t>
+  </si>
+  <si>
+    <t>08100990</t>
+  </si>
+  <si>
+    <t>LAB-BKH-112</t>
+  </si>
+  <si>
+    <t>CH25073494</t>
+  </si>
+  <si>
+    <t>SANG</t>
+  </si>
+  <si>
+    <t>LS-2800</t>
+  </si>
+  <si>
+    <t>LAB-BKH-116</t>
+  </si>
+  <si>
+    <t>CH25073495</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1012-01449</t>
+  </si>
+  <si>
+    <t>LAB-BKH-117</t>
+  </si>
+  <si>
+    <t>CH25073496</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1012-01451</t>
+  </si>
+  <si>
+    <t>LAB-BKH-118</t>
+  </si>
+  <si>
+    <t>CH25073497</t>
+  </si>
+  <si>
+    <t>PIC PATTANA INTERCOOL</t>
+  </si>
+  <si>
+    <t>PT-2DG</t>
+  </si>
+  <si>
+    <t>LAB-BKH-119</t>
+  </si>
+  <si>
+    <t>CH25073533</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1202-00587</t>
+  </si>
+  <si>
+    <t>LAB-BKH-137</t>
+  </si>
+  <si>
+    <t>CH25073499</t>
+  </si>
+  <si>
+    <t>YPM-110P</t>
+  </si>
+  <si>
+    <t>YPM1101P-130904766</t>
+  </si>
+  <si>
+    <t>LAB-BKH-160</t>
+  </si>
+  <si>
+    <t>CH25073500</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PLR1006</t>
+  </si>
+  <si>
+    <t>10062013000090</t>
+  </si>
+  <si>
+    <t>LAB-BKH-182</t>
+  </si>
+  <si>
+    <t>CH25073501</t>
+  </si>
+  <si>
+    <t>YPM110PS-151002085</t>
+  </si>
+  <si>
+    <t>LAB-BKH-188</t>
+  </si>
+  <si>
+    <t>CH25073502</t>
+  </si>
+  <si>
+    <t>SDC1000-150200393</t>
+  </si>
+  <si>
+    <t>LAB-BKH-248</t>
+  </si>
+  <si>
+    <t>CH25073503</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MDF-U334-PE</t>
+  </si>
+  <si>
+    <t>LAB-BKH-264</t>
+  </si>
+  <si>
+    <t>CH25073504</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MBR-1405GR-PE</t>
+  </si>
+  <si>
+    <t>LAB-BKH-334</t>
+  </si>
+  <si>
+    <t>CH25073505</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>W270</t>
+  </si>
+  <si>
+    <t>L394.0260</t>
+  </si>
+  <si>
+    <t>LAB-BKH-064</t>
+  </si>
+  <si>
+    <t>WB25073506</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>BM 400</t>
+  </si>
+  <si>
+    <t>D494.0326</t>
+  </si>
+  <si>
+    <t>LAB-BKH-127</t>
+  </si>
+  <si>
+    <t>CH25073507</t>
+  </si>
+  <si>
+    <t>IN 110</t>
+  </si>
+  <si>
+    <t>D416.0334</t>
+  </si>
+  <si>
+    <t>LAB-BKH-257</t>
+  </si>
+  <si>
+    <t>CH25073508</t>
+  </si>
+  <si>
+    <t>PLATELAT INCUBATOR</t>
+  </si>
+  <si>
+    <t>METHER</t>
+  </si>
+  <si>
+    <t>MDC-5</t>
+  </si>
+  <si>
+    <t>2431000101MDC-5</t>
+  </si>
+  <si>
+    <t>LAB-BKH-376</t>
+  </si>
+  <si>
+    <t>CH25073509</t>
+  </si>
+  <si>
+    <t>BECTON DICKINSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEROFUGE </t>
+  </si>
+  <si>
+    <t>LAB-BKH-036</t>
+  </si>
+  <si>
+    <t>CF25073510</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19F</t>
+  </si>
+  <si>
+    <t>LAB-BKH-106</t>
+  </si>
+  <si>
+    <t>CF25073511</t>
+  </si>
+  <si>
+    <t>LAB-BKH-108</t>
+  </si>
+  <si>
+    <t>CF25073512</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>LAB-BKH-159</t>
+  </si>
+  <si>
+    <t>CF25073513</t>
+  </si>
+  <si>
+    <t>H-1200F</t>
+  </si>
+  <si>
+    <t>LAB-BKH-174</t>
+  </si>
+  <si>
+    <t>CF25073514</t>
+  </si>
+  <si>
+    <t>HANIL</t>
+  </si>
+  <si>
+    <t>HEMATOSPIN</t>
+  </si>
+  <si>
+    <t>HSSQL1011103</t>
+  </si>
+  <si>
+    <t>LAB-BKH-305</t>
+  </si>
+  <si>
+    <t>CF25073515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBA200S </t>
+  </si>
+  <si>
+    <t>0000710-02</t>
+  </si>
+  <si>
+    <t>LAB-BKH-329</t>
+  </si>
+  <si>
+    <t>CF25073516</t>
+  </si>
+  <si>
+    <t>LAB-BKH-331</t>
+  </si>
+  <si>
+    <t>CF25073517</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>LAB-BKH-303</t>
+  </si>
+  <si>
+    <t>CF25073518</t>
+  </si>
+  <si>
+    <t>SANDEN</t>
+  </si>
+  <si>
+    <t>SFH-0650</t>
+  </si>
+  <si>
+    <t>OG2566</t>
+  </si>
+  <si>
+    <t>LAB-BBKH-001</t>
+  </si>
+  <si>
+    <t>CH25073519</t>
+  </si>
+  <si>
+    <t>YCD-EL300</t>
+  </si>
+  <si>
+    <t>LAB-BBKH-002</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>C-BKH-187</t>
+  </si>
+  <si>
+    <t>D413.0249</t>
+  </si>
+  <si>
+    <t>LAB-BKH-158</t>
+  </si>
+  <si>
+    <t>CH25073498</t>
+  </si>
+  <si>
+    <t>LAB-BKH-175</t>
+  </si>
+  <si>
+    <t>CF25073532</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
+  </si>
+  <si>
+    <t>CH25073520</t>
+  </si>
+  <si>
+    <t>CH25073521</t>
+  </si>
+  <si>
+    <t>DRYBATH</t>
+  </si>
+  <si>
+    <t>DB25073522</t>
+  </si>
+  <si>
+    <t>CF25073523</t>
   </si>
 </sst>
 </file>
@@ -504,7 +486,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Prompt"/>
     </font>
@@ -571,7 +553,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,18 +574,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +581,117 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -986,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -999,67 +1091,67 @@
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="62" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="40.200000000000003" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1067,176 +1159,176 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>28611025</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>40500584</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1">
-        <v>113757</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1">
-        <v>9000040317</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
@@ -1244,23 +1336,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
@@ -1268,56 +1362,56 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17060071</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F12" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>59</v>
@@ -1325,124 +1419,124 @@
       <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
+      <c r="D13" s="1">
+        <v>20050025</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45840</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1">
-        <v>132428</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="1">
-        <v>149284</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
@@ -1450,129 +1544,129 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="1">
+        <v>137365</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F19" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1">
+        <v>141151</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="F20" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="D21" s="1">
+        <v>144765</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F21" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>145796</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
@@ -1580,181 +1674,181 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3630</v>
+        <v>101</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F24" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="1">
+        <v>152907</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="F25" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1">
-        <v>1708605</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>119</v>
+        <v>1800925</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="F26" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F27" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="D28" s="1">
+        <v>210430314</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F28" s="2">
-        <v>45846</v>
+        <v>45840</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="D29" s="1">
+        <v>210430314</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="F29" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -1762,77 +1856,77 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1">
-        <v>155270</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>132</v>
+        <v>61000408</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="F30" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1">
-        <v>155271</v>
-      </c>
-      <c r="E31" s="12" t="s">
+        <v>61000408</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="1">
-        <v>155268</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="F32" s="2">
-        <v>45845</v>
+        <v>45840</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -1840,25 +1934,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1">
-        <v>155269</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>138</v>
+        <v>144769</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F33" s="2">
-        <v>45845</v>
+        <v>45841</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
@@ -1866,9 +1960,9 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
@@ -1876,9 +1970,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="2"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
@@ -1887,7 +1981,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="1"/>
     </row>
@@ -1897,7 +1991,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="1"/>
     </row>
@@ -1907,7 +2001,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="1"/>
     </row>
@@ -1917,7 +2011,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="1"/>
     </row>
@@ -1927,7 +2021,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
@@ -1937,7 +2031,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
     </row>
@@ -1947,7 +2041,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
     </row>
@@ -1957,7 +2051,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
@@ -1967,7 +2061,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
     </row>
@@ -1977,7 +2071,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
     </row>
@@ -1987,7 +2081,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
     </row>
@@ -1997,7 +2091,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
     </row>
@@ -2007,7 +2101,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
     </row>
@@ -2017,7 +2111,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="12"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
     </row>
@@ -2027,7 +2121,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="12"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
     </row>
@@ -2037,7 +2131,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
     </row>
@@ -2047,7 +2141,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
     </row>
@@ -2057,7 +2151,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
     </row>
@@ -2067,7 +2161,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
     </row>
@@ -2077,7 +2171,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
     </row>
@@ -2087,7 +2181,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="12"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
     </row>
@@ -2097,7 +2191,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
@@ -2107,7 +2201,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="12"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
     </row>
@@ -2117,7 +2211,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="12"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1"/>
     </row>
@@ -2127,7 +2221,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="12"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="2"/>
       <c r="H60" s="1"/>
     </row>
@@ -2137,7 +2231,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="12"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
     </row>
@@ -2147,7 +2241,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="12"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
     </row>
@@ -2157,7 +2251,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="12"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
     </row>
@@ -2167,7 +2261,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="12"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
     </row>
@@ -2177,7 +2271,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="12"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="2"/>
       <c r="H65" s="1"/>
     </row>
@@ -2187,7 +2281,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="12"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="2"/>
       <c r="H66" s="1"/>
     </row>
@@ -2197,7 +2291,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="12"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="2"/>
       <c r="H67" s="1"/>
     </row>
@@ -2207,7 +2301,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="12"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="2"/>
       <c r="H68" s="1"/>
     </row>
@@ -2217,7 +2311,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="12"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="2"/>
       <c r="H69" s="1"/>
     </row>
@@ -2227,7 +2321,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="12"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="2"/>
       <c r="H70" s="1"/>
     </row>
@@ -2237,7 +2331,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="12"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="2"/>
       <c r="H71" s="1"/>
     </row>
@@ -2247,7 +2341,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="12"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="2"/>
       <c r="H72" s="1"/>
     </row>
@@ -2257,7 +2351,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="12"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="2"/>
       <c r="H73" s="1"/>
     </row>
@@ -2267,7 +2361,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="12"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
     </row>
@@ -2277,7 +2371,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="12"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="2"/>
       <c r="H75" s="1"/>
     </row>
@@ -2287,7 +2381,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="12"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="2"/>
       <c r="H76" s="1"/>
     </row>
@@ -2297,7 +2391,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="12"/>
+      <c r="F77" s="8"/>
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
@@ -2307,7 +2401,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="12"/>
+      <c r="F78" s="8"/>
       <c r="G78" s="2"/>
       <c r="H78" s="1"/>
     </row>
@@ -2317,7 +2411,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="12"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
@@ -2327,7 +2421,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="12"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
@@ -2337,7 +2431,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="12"/>
+      <c r="F81" s="8"/>
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
@@ -2347,7 +2441,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="12"/>
+      <c r="F82" s="8"/>
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
     </row>
@@ -2357,7 +2451,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="12"/>
+      <c r="F83" s="8"/>
       <c r="G83" s="2"/>
       <c r="H83" s="1"/>
     </row>
@@ -2367,7 +2461,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="12"/>
+      <c r="F84" s="8"/>
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
@@ -2377,7 +2471,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="8"/>
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
@@ -2387,7 +2481,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="12"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
@@ -2397,7 +2491,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="12"/>
+      <c r="F87" s="8"/>
       <c r="G87" s="2"/>
       <c r="H87" s="1"/>
     </row>
@@ -2407,7 +2501,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="12"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="2"/>
       <c r="H88" s="1"/>
     </row>
@@ -2417,33 +2511,36 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="12"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="2"/>
       <c r="H89" s="1"/>
     </row>
+    <row r="90" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H89" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
-  <conditionalFormatting sqref="A1:G1 F2:G19 A2:D19 A20:G1048576 E2:F33">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B20:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F33">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G33">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H89">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <autoFilter ref="A1:H91" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58F0EE5-F4CD-41F0-8EE5-FABDC05CEE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926A867-414C-4087-A9F5-65C9E70E9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>ID No.</t>
   </si>
@@ -69,190 +69,310 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>SANYO</t>
-  </si>
-  <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
     <t>DRY BATH</t>
   </si>
   <si>
-    <t>Raven</t>
-  </si>
-  <si>
-    <t>2046B</t>
-  </si>
-  <si>
-    <t>NML00086</t>
-  </si>
-  <si>
-    <t>DB25053947</t>
-  </si>
-  <si>
-    <t>THERMO SHAKER</t>
-  </si>
-  <si>
     <t>MRC</t>
   </si>
   <si>
-    <t>DBS-001</t>
-  </si>
-  <si>
-    <t>1172E</t>
-  </si>
-  <si>
-    <t>NML00089</t>
-  </si>
-  <si>
-    <t>DB25053948</t>
-  </si>
-  <si>
-    <t>ALLSHENG</t>
-  </si>
-  <si>
-    <t>MS-100</t>
-  </si>
-  <si>
-    <t>002-16315-22050001</t>
-  </si>
-  <si>
-    <t>NML00090</t>
-  </si>
-  <si>
-    <t>DB25053949</t>
-  </si>
-  <si>
-    <t>002-16315-24090001</t>
-  </si>
-  <si>
-    <t>NML00490</t>
-  </si>
-  <si>
-    <t>DB25053950</t>
-  </si>
-  <si>
-    <t>002-16315-25010001</t>
-  </si>
-  <si>
-    <t>NML00504</t>
-  </si>
-  <si>
-    <t>DB25053951</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>822743 - 1470</t>
-  </si>
-  <si>
-    <t>NML00002</t>
-  </si>
-  <si>
-    <t>CH25053952</t>
-  </si>
-  <si>
-    <t>MDF-U443</t>
-  </si>
-  <si>
-    <t>NML00005</t>
-  </si>
-  <si>
-    <t>CH25053953</t>
-  </si>
-  <si>
-    <t>MPR-715F-PE</t>
-  </si>
-  <si>
-    <t>NML00009</t>
-  </si>
-  <si>
-    <t>MPR-311D (H)</t>
-  </si>
-  <si>
-    <t>09060257</t>
-  </si>
-  <si>
-    <t>NML00010</t>
-  </si>
-  <si>
-    <t>CH25053956</t>
-  </si>
-  <si>
     <t>Haier</t>
   </si>
   <si>
-    <t>DW-40W380</t>
-  </si>
-  <si>
-    <t>BE036E0N00QEF5M0002</t>
-  </si>
-  <si>
-    <t>NML00014</t>
-  </si>
-  <si>
-    <t>CH25053957</t>
-  </si>
-  <si>
-    <t>PHcbi</t>
-  </si>
-  <si>
-    <t>MDF-MU539D-PE</t>
-  </si>
-  <si>
-    <t>NML00016</t>
-  </si>
-  <si>
-    <t>HYC-260</t>
-  </si>
-  <si>
-    <t>BE02SDE1700QEFBK0012</t>
-  </si>
-  <si>
-    <t>NML00017</t>
-  </si>
-  <si>
-    <t>CH25053960</t>
-  </si>
-  <si>
-    <t>MPR-514-PE</t>
-  </si>
-  <si>
-    <t>NML00019</t>
-  </si>
-  <si>
-    <t>CH25053961</t>
-  </si>
-  <si>
-    <t>MPR-414F</t>
-  </si>
-  <si>
-    <t>MC2210531</t>
-  </si>
-  <si>
-    <t>NML00442</t>
-  </si>
-  <si>
-    <t>Bio Molecular Laboratories (Thailand) Co., Ltd.</t>
-  </si>
-  <si>
-    <t>CH25053954</t>
-  </si>
-  <si>
-    <t>CH25073955</t>
-  </si>
-  <si>
-    <t>CH25053958</t>
-  </si>
-  <si>
-    <t>CH25073959</t>
-  </si>
-  <si>
-    <t>CH25053962</t>
-  </si>
-  <si>
-    <t>CH25073963</t>
+    <t>DBD-001</t>
+  </si>
+  <si>
+    <t>PSV0843</t>
+  </si>
+  <si>
+    <t>DB25073534</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>SK-0180-S</t>
+  </si>
+  <si>
+    <t>194AH000130</t>
+  </si>
+  <si>
+    <t>PSV2386</t>
+  </si>
+  <si>
+    <t>CF25073535</t>
+  </si>
+  <si>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>BESTER THAILAND</t>
+  </si>
+  <si>
+    <t>LM-60-VL-D-P</t>
+  </si>
+  <si>
+    <t>PSV2229</t>
+  </si>
+  <si>
+    <t>AC25073536</t>
+  </si>
+  <si>
+    <t>CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>BOECO</t>
+  </si>
+  <si>
+    <t>C-28A</t>
+  </si>
+  <si>
+    <t>0001619-05</t>
+  </si>
+  <si>
+    <t>PSV1947</t>
+  </si>
+  <si>
+    <t>CF25073537</t>
+  </si>
+  <si>
+    <t>0001719-05</t>
+  </si>
+  <si>
+    <t>PSV2092</t>
+  </si>
+  <si>
+    <t>CF25073538</t>
+  </si>
+  <si>
+    <t>Hanil</t>
+  </si>
+  <si>
+    <t>Sero Spin II</t>
+  </si>
+  <si>
+    <t>HICME219052605009</t>
+  </si>
+  <si>
+    <t>PSV2467</t>
+  </si>
+  <si>
+    <t>CF25073539</t>
+  </si>
+  <si>
+    <t>0002325-06</t>
+  </si>
+  <si>
+    <t>PSV2701</t>
+  </si>
+  <si>
+    <t>CF25073540</t>
+  </si>
+  <si>
+    <t>DM0424</t>
+  </si>
+  <si>
+    <t>IA236AM0000806</t>
+  </si>
+  <si>
+    <t>PSV2824</t>
+  </si>
+  <si>
+    <t>CF25073541</t>
+  </si>
+  <si>
+    <t>Hettich</t>
+  </si>
+  <si>
+    <t>EBA 200</t>
+  </si>
+  <si>
+    <t>0043777</t>
+  </si>
+  <si>
+    <t>PSV3110</t>
+  </si>
+  <si>
+    <t>CF25073542</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>HC-240</t>
+  </si>
+  <si>
+    <t>0000559-01</t>
+  </si>
+  <si>
+    <t>PSV1862</t>
+  </si>
+  <si>
+    <t>CF25073543</t>
+  </si>
+  <si>
+    <t>BIOBASE</t>
+  </si>
+  <si>
+    <t>BKC-MH12-B</t>
+  </si>
+  <si>
+    <t>LXJTG12W24040108K</t>
+  </si>
+  <si>
+    <t>PSV3109</t>
+  </si>
+  <si>
+    <t>CF25073544</t>
+  </si>
+  <si>
+    <t>REFRACTOMETER</t>
+  </si>
+  <si>
+    <t>ATAGO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PSV2732</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>VOTEX MIXER</t>
+  </si>
+  <si>
+    <t>Gemmy</t>
+  </si>
+  <si>
+    <t>VM-300</t>
+  </si>
+  <si>
+    <t>PSV0907</t>
+  </si>
+  <si>
+    <t>Q.nic</t>
+  </si>
+  <si>
+    <t>BBR-11sd</t>
+  </si>
+  <si>
+    <t>PSV1654</t>
+  </si>
+  <si>
+    <t>CH25073545</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>R-64W-1</t>
+  </si>
+  <si>
+    <t>4220901304</t>
+  </si>
+  <si>
+    <t>PSV0239</t>
+  </si>
+  <si>
+    <t>CH25073546</t>
+  </si>
+  <si>
+    <t>ANTECH</t>
+  </si>
+  <si>
+    <t>MPR-110</t>
+  </si>
+  <si>
+    <t>MPR-1101902001</t>
+  </si>
+  <si>
+    <t>PSV2306</t>
+  </si>
+  <si>
+    <t>CH25073547</t>
+  </si>
+  <si>
+    <t>MDF-25U400</t>
+  </si>
+  <si>
+    <t>D214QD0101J2R100</t>
+  </si>
+  <si>
+    <t>PSV2307</t>
+  </si>
+  <si>
+    <t>CH25073548</t>
+  </si>
+  <si>
+    <t>BD-276B</t>
+  </si>
+  <si>
+    <t>B30MB7E0000BLR2T0033</t>
+  </si>
+  <si>
+    <t>PSV3210</t>
+  </si>
+  <si>
+    <t>CH25073549</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BC-330(F)</t>
+  </si>
+  <si>
+    <t>PSV0241</t>
+  </si>
+  <si>
+    <t>CH25073550</t>
+  </si>
+  <si>
+    <t>Beverage fresh&amp;cool</t>
+  </si>
+  <si>
+    <t>MCD-20TM</t>
+  </si>
+  <si>
+    <t>106-MCD2-553-064</t>
+  </si>
+  <si>
+    <t>PSV1195</t>
+  </si>
+  <si>
+    <t>CH25073551</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>SH Scintific</t>
+  </si>
+  <si>
+    <t>SH-CH-54G</t>
+  </si>
+  <si>
+    <t>220630CH-546-2</t>
+  </si>
+  <si>
+    <t>PSV2822</t>
+  </si>
+  <si>
+    <t>CH25073552</t>
+  </si>
+  <si>
+    <t>PSV0238</t>
+  </si>
+  <si>
+    <t>CH25073553</t>
+  </si>
+  <si>
+    <t>PITSANUVEJ HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -711,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -756,59 +876,59 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>240</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>101214112</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
-        <v>45848</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2">
-        <v>45849</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -816,280 +936,280 @@
       <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>18091203</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2">
-        <v>45848</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>45849</v>
+        <v>45841</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8606</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>11070095</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
-        <v>45849</v>
+        <v>45841</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1">
-        <v>181090078</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1">
-        <v>181090078</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2">
-        <v>45849</v>
+        <v>45841</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>190460029</v>
+        <v>414614</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
-        <v>190460029</v>
+        <v>117223</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
@@ -1097,25 +1217,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11115001</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2">
-        <v>45848</v>
+        <v>45840</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
@@ -1123,25 +1243,25 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1">
-        <v>20010026</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2">
-        <v>45848</v>
+        <v>45840</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
@@ -1149,25 +1269,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2">
-        <v>45848</v>
+        <v>45840</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
@@ -1175,76 +1295,156 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <v>70300179</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6926A867-414C-4087-A9F5-65C9E70E9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033A8192-E36C-44A9-99DF-DB3421E73965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$93</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
   <si>
     <t>ID No.</t>
   </si>
@@ -69,310 +69,379 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
-    <t>MRC</t>
-  </si>
-  <si>
-    <t>Haier</t>
-  </si>
-  <si>
-    <t>DBD-001</t>
-  </si>
-  <si>
-    <t>PSV0843</t>
-  </si>
-  <si>
-    <t>DB25073534</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>DLAB</t>
-  </si>
-  <si>
-    <t>SK-0180-S</t>
-  </si>
-  <si>
-    <t>194AH000130</t>
-  </si>
-  <si>
-    <t>PSV2386</t>
-  </si>
-  <si>
-    <t>CF25073535</t>
-  </si>
-  <si>
-    <t>AUTOCLAVE</t>
-  </si>
-  <si>
-    <t>BESTER THAILAND</t>
-  </si>
-  <si>
-    <t>LM-60-VL-D-P</t>
-  </si>
-  <si>
-    <t>PSV2229</t>
-  </si>
-  <si>
-    <t>AC25073536</t>
-  </si>
-  <si>
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>BOECO</t>
-  </si>
-  <si>
-    <t>C-28A</t>
-  </si>
-  <si>
-    <t>0001619-05</t>
-  </si>
-  <si>
-    <t>PSV1947</t>
-  </si>
-  <si>
-    <t>CF25073537</t>
-  </si>
-  <si>
-    <t>0001719-05</t>
-  </si>
-  <si>
-    <t>PSV2092</t>
-  </si>
-  <si>
-    <t>CF25073538</t>
-  </si>
-  <si>
-    <t>Hanil</t>
-  </si>
-  <si>
-    <t>Sero Spin II</t>
-  </si>
-  <si>
-    <t>HICME219052605009</t>
-  </si>
-  <si>
-    <t>PSV2467</t>
-  </si>
-  <si>
-    <t>CF25073539</t>
-  </si>
-  <si>
-    <t>0002325-06</t>
-  </si>
-  <si>
-    <t>PSV2701</t>
-  </si>
-  <si>
-    <t>CF25073540</t>
-  </si>
-  <si>
-    <t>DM0424</t>
-  </si>
-  <si>
-    <t>IA236AM0000806</t>
-  </si>
-  <si>
-    <t>PSV2824</t>
-  </si>
-  <si>
-    <t>CF25073541</t>
-  </si>
-  <si>
-    <t>Hettich</t>
-  </si>
-  <si>
-    <t>EBA 200</t>
-  </si>
-  <si>
-    <t>0043777</t>
-  </si>
-  <si>
-    <t>PSV3110</t>
-  </si>
-  <si>
-    <t>CF25073542</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>HC-240</t>
-  </si>
-  <si>
-    <t>0000559-01</t>
-  </si>
-  <si>
-    <t>PSV1862</t>
-  </si>
-  <si>
-    <t>CF25073543</t>
-  </si>
-  <si>
-    <t>BIOBASE</t>
-  </si>
-  <si>
-    <t>BKC-MH12-B</t>
-  </si>
-  <si>
-    <t>LXJTG12W24040108K</t>
-  </si>
-  <si>
-    <t>PSV3109</t>
-  </si>
-  <si>
-    <t>CF25073544</t>
-  </si>
-  <si>
-    <t>REFRACTOMETER</t>
-  </si>
-  <si>
-    <t>ATAGO</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>PSV2732</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>VOTEX MIXER</t>
-  </si>
-  <si>
-    <t>Gemmy</t>
-  </si>
-  <si>
-    <t>VM-300</t>
-  </si>
-  <si>
-    <t>PSV0907</t>
-  </si>
-  <si>
-    <t>Q.nic</t>
-  </si>
-  <si>
-    <t>BBR-11sd</t>
-  </si>
-  <si>
-    <t>PSV1654</t>
-  </si>
-  <si>
-    <t>CH25073545</t>
-  </si>
-  <si>
-    <t>HITACHI</t>
-  </si>
-  <si>
-    <t>R-64W-1</t>
-  </si>
-  <si>
-    <t>4220901304</t>
-  </si>
-  <si>
-    <t>PSV0239</t>
-  </si>
-  <si>
-    <t>CH25073546</t>
-  </si>
-  <si>
-    <t>ANTECH</t>
-  </si>
-  <si>
-    <t>MPR-110</t>
-  </si>
-  <si>
-    <t>MPR-1101902001</t>
-  </si>
-  <si>
-    <t>PSV2306</t>
-  </si>
-  <si>
-    <t>CH25073547</t>
-  </si>
-  <si>
-    <t>MDF-25U400</t>
-  </si>
-  <si>
-    <t>D214QD0101J2R100</t>
-  </si>
-  <si>
-    <t>PSV2307</t>
-  </si>
-  <si>
-    <t>CH25073548</t>
-  </si>
-  <si>
-    <t>BD-276B</t>
-  </si>
-  <si>
-    <t>B30MB7E0000BLR2T0033</t>
-  </si>
-  <si>
-    <t>PSV3210</t>
-  </si>
-  <si>
-    <t>CH25073549</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BC-330(F)</t>
-  </si>
-  <si>
-    <t>PSV0241</t>
-  </si>
-  <si>
-    <t>CH25073550</t>
-  </si>
-  <si>
-    <t>Beverage fresh&amp;cool</t>
-  </si>
-  <si>
-    <t>MCD-20TM</t>
-  </si>
-  <si>
-    <t>106-MCD2-553-064</t>
-  </si>
-  <si>
-    <t>PSV1195</t>
-  </si>
-  <si>
-    <t>CH25073551</t>
-  </si>
-  <si>
     <t>INCUBATOR</t>
   </si>
   <si>
-    <t>SH Scintific</t>
-  </si>
-  <si>
-    <t>SH-CH-54G</t>
-  </si>
-  <si>
-    <t>220630CH-546-2</t>
-  </si>
-  <si>
-    <t>PSV2822</t>
-  </si>
-  <si>
-    <t>CH25073552</t>
-  </si>
-  <si>
-    <t>PSV0238</t>
-  </si>
-  <si>
-    <t>CH25073553</t>
-  </si>
-  <si>
-    <t>PITSANUVEJ HOSPITAL</t>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MDF-U5411</t>
+  </si>
+  <si>
+    <t>08100990</t>
+  </si>
+  <si>
+    <t>LAB-BKH-112</t>
+  </si>
+  <si>
+    <t>CH25073494</t>
+  </si>
+  <si>
+    <t>SANG</t>
+  </si>
+  <si>
+    <t>LS-2800</t>
+  </si>
+  <si>
+    <t>LAB-BKH-116</t>
+  </si>
+  <si>
+    <t>CH25073495</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1012-01449</t>
+  </si>
+  <si>
+    <t>LAB-BKH-117</t>
+  </si>
+  <si>
+    <t>CH25073496</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1012-01451</t>
+  </si>
+  <si>
+    <t>LAB-BKH-118</t>
+  </si>
+  <si>
+    <t>CH25073497</t>
+  </si>
+  <si>
+    <t>PIC PATTANA INTERCOOL</t>
+  </si>
+  <si>
+    <t>PT-2DG</t>
+  </si>
+  <si>
+    <t>LAB-BKH-119</t>
+  </si>
+  <si>
+    <t>CH25073533</t>
+  </si>
+  <si>
+    <t>SDC1000103A-1202-00587</t>
+  </si>
+  <si>
+    <t>LAB-BKH-137</t>
+  </si>
+  <si>
+    <t>CH25073499</t>
+  </si>
+  <si>
+    <t>YPM-110P</t>
+  </si>
+  <si>
+    <t>YPM1101P-130904766</t>
+  </si>
+  <si>
+    <t>LAB-BKH-160</t>
+  </si>
+  <si>
+    <t>CH25073500</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PLR1006</t>
+  </si>
+  <si>
+    <t>10062013000090</t>
+  </si>
+  <si>
+    <t>LAB-BKH-182</t>
+  </si>
+  <si>
+    <t>CH25073501</t>
+  </si>
+  <si>
+    <t>YPM110PS-151002085</t>
+  </si>
+  <si>
+    <t>LAB-BKH-188</t>
+  </si>
+  <si>
+    <t>CH25073502</t>
+  </si>
+  <si>
+    <t>SDC1000-150200393</t>
+  </si>
+  <si>
+    <t>LAB-BKH-248</t>
+  </si>
+  <si>
+    <t>CH25073503</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MDF-U334-PE</t>
+  </si>
+  <si>
+    <t>LAB-BKH-264</t>
+  </si>
+  <si>
+    <t>CH25073504</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MBR-1405GR-PE</t>
+  </si>
+  <si>
+    <t>LAB-BKH-334</t>
+  </si>
+  <si>
+    <t>CH25073505</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>W270</t>
+  </si>
+  <si>
+    <t>L394.0260</t>
+  </si>
+  <si>
+    <t>LAB-BKH-064</t>
+  </si>
+  <si>
+    <t>WB25073506</t>
+  </si>
+  <si>
+    <t>BM 400</t>
+  </si>
+  <si>
+    <t>D494.0326</t>
+  </si>
+  <si>
+    <t>LAB-BKH-127</t>
+  </si>
+  <si>
+    <t>CH25073507</t>
+  </si>
+  <si>
+    <t>IN 110</t>
+  </si>
+  <si>
+    <t>D416.0334</t>
+  </si>
+  <si>
+    <t>LAB-BKH-257</t>
+  </si>
+  <si>
+    <t>CH25073508</t>
+  </si>
+  <si>
+    <t>PLATELAT INCUBATOR</t>
+  </si>
+  <si>
+    <t>METHER</t>
+  </si>
+  <si>
+    <t>MDC-5</t>
+  </si>
+  <si>
+    <t>2431000101MDC-5</t>
+  </si>
+  <si>
+    <t>LAB-BKH-376</t>
+  </si>
+  <si>
+    <t>CH25073509</t>
+  </si>
+  <si>
+    <t>BECTON DICKINSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEROFUGE </t>
+  </si>
+  <si>
+    <t>LAB-BKH-036</t>
+  </si>
+  <si>
+    <t>CF25073510</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19F</t>
+  </si>
+  <si>
+    <t>LAB-BKH-106</t>
+  </si>
+  <si>
+    <t>CF25073511</t>
+  </si>
+  <si>
+    <t>LAB-BKH-108</t>
+  </si>
+  <si>
+    <t>CF25073512</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>LAB-BKH-159</t>
+  </si>
+  <si>
+    <t>CF25073513</t>
+  </si>
+  <si>
+    <t>H-1200F</t>
+  </si>
+  <si>
+    <t>LAB-BKH-174</t>
+  </si>
+  <si>
+    <t>CF25073514</t>
+  </si>
+  <si>
+    <t>HANIL</t>
+  </si>
+  <si>
+    <t>HEMATOSPIN</t>
+  </si>
+  <si>
+    <t>HSSQL1011103</t>
+  </si>
+  <si>
+    <t>LAB-BKH-305</t>
+  </si>
+  <si>
+    <t>CF25073515</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBA200S </t>
+  </si>
+  <si>
+    <t>0000710-02</t>
+  </si>
+  <si>
+    <t>LAB-BKH-329</t>
+  </si>
+  <si>
+    <t>CF25073516</t>
+  </si>
+  <si>
+    <t>LAB-BKH-331</t>
+  </si>
+  <si>
+    <t>CF25073517</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>LAB-BKH-303</t>
+  </si>
+  <si>
+    <t>CF25073518</t>
+  </si>
+  <si>
+    <t>SANDEN</t>
+  </si>
+  <si>
+    <t>SFH-0650</t>
+  </si>
+  <si>
+    <t>OG2566</t>
+  </si>
+  <si>
+    <t>LAB-BBKH-001</t>
+  </si>
+  <si>
+    <t>CH25073519</t>
+  </si>
+  <si>
+    <t>MELING</t>
+  </si>
+  <si>
+    <t>YCD-EL300</t>
+  </si>
+  <si>
+    <t>LAB-BBKH-002</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>C-BKH-187</t>
+  </si>
+  <si>
+    <t>D413.0249</t>
+  </si>
+  <si>
+    <t>LAB-BKH-158</t>
+  </si>
+  <si>
+    <t>CH25073498</t>
+  </si>
+  <si>
+    <t>LAB-BKH-175</t>
+  </si>
+  <si>
+    <t>CF25073532</t>
+  </si>
+  <si>
+    <t>CH25073520</t>
+  </si>
+  <si>
+    <t>CH25073521</t>
+  </si>
+  <si>
+    <t>DB25073522</t>
+  </si>
+  <si>
+    <t>CF25073523</t>
+  </si>
+  <si>
+    <t>DRYBATH</t>
   </si>
 </sst>
 </file>
@@ -829,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -876,192 +945,192 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>101214112</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>28611025</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18091203</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>45840</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40500584</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -1073,478 +1142,638 @@
         <v>46</v>
       </c>
       <c r="F9" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17060071</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1">
-        <v>414614</v>
+        <v>20050025</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1">
-        <v>117223</v>
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11115001</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2">
         <v>45840</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2">
         <v>45840</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2">
         <v>45840</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3500</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>45841</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D19" s="1">
+        <v>137365</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1">
-        <v>70300179</v>
+        <v>141151</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2">
         <v>45841</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="D21" s="1">
+        <v>144765</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2">
         <v>45841</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>145796</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2">
         <v>45841</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2">
         <v>45841</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1">
+        <v>152907</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="D26" s="1">
+        <v>1800925</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1">
+        <v>210430314</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="1">
+        <v>61000408</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1">
+        <v>210430314</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1">
+        <v>61000408</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1">
+        <v>144769</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1"/>
@@ -1591,9 +1820,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="2"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
@@ -1601,9 +1830,9 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="2"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
@@ -2146,8 +2375,28 @@
       <c r="G93" s="2"/>
       <c r="H93" s="1"/>
     </row>
+    <row r="94" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H93" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H95" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033A8192-E36C-44A9-99DF-DB3421E73965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1CC2F-5AA8-4E38-8CC4-8A668CEC2700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
   <si>
     <t>ID No.</t>
   </si>
@@ -63,385 +63,250 @@
     <t>Calibration Date</t>
   </si>
   <si>
+    <t>CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>BOECO</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>0006105-01-00</t>
+  </si>
+  <si>
+    <t>LAB-CEN-01</t>
+  </si>
+  <si>
+    <t>CF25074463</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>HS-12</t>
+  </si>
+  <si>
+    <t>LAB-CEN-02</t>
+  </si>
+  <si>
+    <t>CF25074464</t>
+  </si>
+  <si>
+    <t>H-11NC</t>
+  </si>
+  <si>
+    <t>LAB-CEN-03</t>
+  </si>
+  <si>
+    <t>CF25074465</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>LAB-CEN-04</t>
+  </si>
+  <si>
+    <t>CF25074466</t>
+  </si>
+  <si>
+    <t>LAB-CEN-05</t>
+  </si>
+  <si>
+    <t>CF25074467</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>HAEMATOKRIT 200</t>
+  </si>
+  <si>
+    <t>0005309-05</t>
+  </si>
+  <si>
+    <t>LAB-MHC-02</t>
+  </si>
+  <si>
+    <t>CF25074468</t>
+  </si>
+  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
+    <t>Z COOL</t>
+  </si>
+  <si>
+    <t>ZCO-2DQ30</t>
+  </si>
+  <si>
+    <t>LAB-REF-01</t>
+  </si>
+  <si>
+    <t>CH25074469</t>
+  </si>
+  <si>
+    <t>LAB-REF-02</t>
+  </si>
+  <si>
+    <t>CH25074470</t>
+  </si>
+  <si>
+    <t>ZCO-1DQ10</t>
+  </si>
+  <si>
+    <t>LAB-REF-03</t>
+  </si>
+  <si>
+    <t>CH25074471</t>
+  </si>
+  <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
-    <t>CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>INCUBATOR</t>
-  </si>
-  <si>
-    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
+    <t>SEVERIN</t>
+  </si>
+  <si>
+    <t>ZMP-9859ALSG</t>
+  </si>
+  <si>
+    <t>LAB-REF-04</t>
+  </si>
+  <si>
+    <t>CH25074472</t>
+  </si>
+  <si>
+    <t>ZDD-2DU</t>
+  </si>
+  <si>
+    <t>SDC1000S-230400372</t>
+  </si>
+  <si>
+    <t>LAB-REF-05</t>
+  </si>
+  <si>
+    <t>CH25074473</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>PC2001</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LAB-TIM-10</t>
+  </si>
+  <si>
+    <t>CAL/PM</t>
+  </si>
+  <si>
+    <t>CASIO</t>
+  </si>
+  <si>
+    <t>HS-3</t>
+  </si>
+  <si>
+    <t>507Q25R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB-TIM-11  </t>
+  </si>
+  <si>
+    <t>SEIKO</t>
+  </si>
+  <si>
+    <t>LAB-TIM-20</t>
+  </si>
+  <si>
+    <t>LAB-TIM-21</t>
+  </si>
+  <si>
+    <t>LAB-TIM-26</t>
+  </si>
+  <si>
+    <t>LAB-TIM-31</t>
+  </si>
+  <si>
+    <t>LAB-TIM-32</t>
+  </si>
+  <si>
+    <t>LAB-TIM-34</t>
+  </si>
+  <si>
+    <t>LAB-TIM-35</t>
+  </si>
+  <si>
+    <t>LAB-TIM-36</t>
+  </si>
+  <si>
+    <t>LAB-TIM-37</t>
+  </si>
+  <si>
+    <t>LAB-TIM-38</t>
+  </si>
+  <si>
+    <t>LAB-TIM-39</t>
+  </si>
+  <si>
+    <t>A.T.MEDICARE</t>
+  </si>
+  <si>
+    <t>LAB-TIM-40</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>GEMMYCO</t>
+  </si>
+  <si>
+    <t>YCW-010</t>
+  </si>
+  <si>
+    <t>LAB-WTB-02</t>
+  </si>
+  <si>
+    <t>WB25074474</t>
   </si>
   <si>
     <t>SANYO</t>
   </si>
   <si>
-    <t>MDF-U5411</t>
-  </si>
-  <si>
-    <t>08100990</t>
-  </si>
-  <si>
-    <t>LAB-BKH-112</t>
-  </si>
-  <si>
-    <t>CH25073494</t>
-  </si>
-  <si>
-    <t>SANG</t>
-  </si>
-  <si>
-    <t>LS-2800</t>
-  </si>
-  <si>
-    <t>LAB-BKH-116</t>
-  </si>
-  <si>
-    <t>CH25073495</t>
-  </si>
-  <si>
-    <t>SANDEN INTERCOOL</t>
-  </si>
-  <si>
-    <t>SDC-1000AY</t>
-  </si>
-  <si>
-    <t>SDC1000103A-1012-01449</t>
-  </si>
-  <si>
-    <t>LAB-BKH-117</t>
-  </si>
-  <si>
-    <t>CH25073496</t>
-  </si>
-  <si>
-    <t>SDC1000103A-1012-01451</t>
-  </si>
-  <si>
-    <t>LAB-BKH-118</t>
-  </si>
-  <si>
-    <t>CH25073497</t>
-  </si>
-  <si>
-    <t>PIC PATTANA INTERCOOL</t>
-  </si>
-  <si>
-    <t>PT-2DG</t>
-  </si>
-  <si>
-    <t>LAB-BKH-119</t>
-  </si>
-  <si>
-    <t>CH25073533</t>
-  </si>
-  <si>
-    <t>SDC1000103A-1202-00587</t>
-  </si>
-  <si>
-    <t>LAB-BKH-137</t>
-  </si>
-  <si>
-    <t>CH25073499</t>
-  </si>
-  <si>
-    <t>YPM-110P</t>
-  </si>
-  <si>
-    <t>YPM1101P-130904766</t>
-  </si>
-  <si>
-    <t>LAB-BKH-160</t>
-  </si>
-  <si>
-    <t>CH25073500</t>
-  </si>
-  <si>
-    <t>THERMO SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>PLR1006</t>
-  </si>
-  <si>
-    <t>10062013000090</t>
-  </si>
-  <si>
-    <t>LAB-BKH-182</t>
-  </si>
-  <si>
-    <t>CH25073501</t>
-  </si>
-  <si>
-    <t>YPM110PS-151002085</t>
-  </si>
-  <si>
-    <t>LAB-BKH-188</t>
-  </si>
-  <si>
-    <t>CH25073502</t>
-  </si>
-  <si>
-    <t>SDC1000-150200393</t>
-  </si>
-  <si>
-    <t>LAB-BKH-248</t>
-  </si>
-  <si>
-    <t>CH25073503</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>MDF-U334-PE</t>
-  </si>
-  <si>
-    <t>LAB-BKH-264</t>
-  </si>
-  <si>
-    <t>CH25073504</t>
-  </si>
-  <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
-    <t>MBR-1405GR-PE</t>
-  </si>
-  <si>
-    <t>LAB-BKH-334</t>
-  </si>
-  <si>
-    <t>CH25073505</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>MEMMERT</t>
-  </si>
-  <si>
-    <t>W270</t>
-  </si>
-  <si>
-    <t>L394.0260</t>
-  </si>
-  <si>
-    <t>LAB-BKH-064</t>
-  </si>
-  <si>
-    <t>WB25073506</t>
-  </si>
-  <si>
-    <t>BM 400</t>
-  </si>
-  <si>
-    <t>D494.0326</t>
-  </si>
-  <si>
-    <t>LAB-BKH-127</t>
-  </si>
-  <si>
-    <t>CH25073507</t>
-  </si>
-  <si>
-    <t>IN 110</t>
-  </si>
-  <si>
-    <t>D416.0334</t>
-  </si>
-  <si>
-    <t>LAB-BKH-257</t>
-  </si>
-  <si>
-    <t>CH25073508</t>
-  </si>
-  <si>
-    <t>PLATELAT INCUBATOR</t>
-  </si>
-  <si>
-    <t>METHER</t>
-  </si>
-  <si>
-    <t>MDC-5</t>
-  </si>
-  <si>
-    <t>2431000101MDC-5</t>
-  </si>
-  <si>
-    <t>LAB-BKH-376</t>
-  </si>
-  <si>
-    <t>CH25073509</t>
-  </si>
-  <si>
-    <t>BECTON DICKINSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEROFUGE </t>
-  </si>
-  <si>
-    <t>LAB-BKH-036</t>
-  </si>
-  <si>
-    <t>CF25073510</t>
-  </si>
-  <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-19F</t>
-  </si>
-  <si>
-    <t>LAB-BKH-106</t>
-  </si>
-  <si>
-    <t>CF25073511</t>
-  </si>
-  <si>
-    <t>LAB-BKH-108</t>
-  </si>
-  <si>
-    <t>CF25073512</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>LAB-BKH-159</t>
-  </si>
-  <si>
-    <t>CF25073513</t>
-  </si>
-  <si>
-    <t>H-1200F</t>
-  </si>
-  <si>
-    <t>LAB-BKH-174</t>
-  </si>
-  <si>
-    <t>CF25073514</t>
-  </si>
-  <si>
-    <t>HANIL</t>
-  </si>
-  <si>
-    <t>HEMATOSPIN</t>
-  </si>
-  <si>
-    <t>HSSQL1011103</t>
-  </si>
-  <si>
-    <t>LAB-BKH-305</t>
-  </si>
-  <si>
-    <t>CF25073515</t>
-  </si>
-  <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBA200S </t>
-  </si>
-  <si>
-    <t>0000710-02</t>
-  </si>
-  <si>
-    <t>LAB-BKH-329</t>
-  </si>
-  <si>
-    <t>CF25073516</t>
-  </si>
-  <si>
-    <t>LAB-BKH-331</t>
-  </si>
-  <si>
-    <t>CF25073517</t>
-  </si>
-  <si>
-    <t>GEMMY</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
-  </si>
-  <si>
-    <t>LAB-BKH-303</t>
-  </si>
-  <si>
-    <t>CF25073518</t>
-  </si>
-  <si>
-    <t>SANDEN</t>
-  </si>
-  <si>
-    <t>SFH-0650</t>
-  </si>
-  <si>
-    <t>OG2566</t>
-  </si>
-  <si>
-    <t>LAB-BBKH-001</t>
-  </si>
-  <si>
-    <t>CH25073519</t>
-  </si>
-  <si>
-    <t>MELING</t>
-  </si>
-  <si>
-    <t>YCD-EL300</t>
-  </si>
-  <si>
-    <t>LAB-BBKH-002</t>
-  </si>
-  <si>
-    <t>ORTHO</t>
-  </si>
-  <si>
-    <t>WORKSTATION</t>
-  </si>
-  <si>
-    <t>C-BKH-187</t>
-  </si>
-  <si>
-    <t>D413.0249</t>
-  </si>
-  <si>
-    <t>LAB-BKH-158</t>
-  </si>
-  <si>
-    <t>CH25073498</t>
-  </si>
-  <si>
-    <t>LAB-BKH-175</t>
-  </si>
-  <si>
-    <t>CF25073532</t>
-  </si>
-  <si>
-    <t>CH25073520</t>
-  </si>
-  <si>
-    <t>CH25073521</t>
-  </si>
-  <si>
-    <t>DB25073522</t>
-  </si>
-  <si>
-    <t>CF25073523</t>
-  </si>
-  <si>
-    <t>DRYBATH</t>
+    <t>MBR-304GR</t>
+  </si>
+  <si>
+    <t>09030044</t>
+  </si>
+  <si>
+    <t>LAB-BBR-01</t>
+  </si>
+  <si>
+    <t>CH25074475</t>
+  </si>
+  <si>
+    <t>KS 9859</t>
+  </si>
+  <si>
+    <t>41936</t>
+  </si>
+  <si>
+    <t>LAB-BBR-03</t>
+  </si>
+  <si>
+    <t>CH25074476</t>
+  </si>
+  <si>
+    <t>B.CARE MEDICAL CENTER HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -535,7 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,9 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +435,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -901,886 +778,822 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" style="8" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="13">
+        <v>147688</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H3" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D4" s="13">
+        <v>147672</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F4" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13">
+        <v>147924</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
-        <v>28611025</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="13">
+        <v>151960</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F6" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H6" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F7" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="H7" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1">
-        <v>40500584</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D8" s="13">
+        <v>111150012</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F8" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="H8" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13">
+        <v>111150013</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F9" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="H9" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="13">
+        <v>106160266</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F10" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H10" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="13">
+        <v>29412</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F11" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H11" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F12" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="H12" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1">
-        <v>17060071</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F13" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H13" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1">
-        <v>20050025</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F14" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F15" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F16" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F17" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F18" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F19" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="F20" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F21" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F22" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F23" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="F24" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F25" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="C26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F26" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D27" s="13">
+        <v>1601864</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F27" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="H27" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="1">
-        <v>3500</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F28" s="15">
+        <v>45867</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H28" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="1">
-        <v>137365</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F29" s="15">
+        <v>45868</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="1">
-        <v>141151</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1">
-        <v>144765</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="1">
-        <v>145796</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="1">
-        <v>152907</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1800925</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="1">
-        <v>210430314</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="1">
-        <v>61000408</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
+      <c r="H29" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="1">
-        <v>210430314</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="1">
-        <v>61000408</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="1">
-        <v>144769</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1790,7 +1603,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1800,7 +1613,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1810,7 +1623,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1820,7 +1633,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1830,7 +1643,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1841,7 +1654,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
@@ -1851,7 +1664,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
     </row>
@@ -1861,7 +1674,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
     </row>
@@ -1871,7 +1684,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
@@ -1881,7 +1694,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
     </row>
@@ -1891,7 +1704,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
     </row>
@@ -1901,7 +1714,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
     </row>
@@ -1911,7 +1724,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
     </row>
@@ -1921,7 +1734,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
     </row>
@@ -1931,7 +1744,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
     </row>
@@ -1941,7 +1754,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
     </row>
@@ -1951,7 +1764,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
     </row>
@@ -1961,7 +1774,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
     </row>
@@ -1971,7 +1784,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
     </row>
@@ -1981,7 +1794,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
     </row>
@@ -1991,7 +1804,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
     </row>
@@ -2001,7 +1814,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
     </row>
@@ -2011,7 +1824,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
@@ -2021,7 +1834,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
     </row>
@@ -2031,7 +1844,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1"/>
     </row>
@@ -2041,7 +1854,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="2"/>
       <c r="H60" s="1"/>
     </row>
@@ -2051,7 +1864,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
     </row>
@@ -2061,7 +1874,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
     </row>
@@ -2071,7 +1884,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
     </row>
@@ -2081,7 +1894,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
     </row>
@@ -2091,7 +1904,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="2"/>
       <c r="H65" s="1"/>
     </row>
@@ -2101,7 +1914,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="2"/>
       <c r="H66" s="1"/>
     </row>
@@ -2111,7 +1924,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="2"/>
       <c r="H67" s="1"/>
     </row>
@@ -2121,7 +1934,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="2"/>
       <c r="H68" s="1"/>
     </row>
@@ -2131,7 +1944,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="2"/>
       <c r="H69" s="1"/>
     </row>
@@ -2141,7 +1954,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="2"/>
       <c r="H70" s="1"/>
     </row>
@@ -2151,7 +1964,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="2"/>
       <c r="H71" s="1"/>
     </row>
@@ -2161,7 +1974,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="2"/>
       <c r="H72" s="1"/>
     </row>
@@ -2171,7 +1984,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="2"/>
       <c r="H73" s="1"/>
     </row>
@@ -2181,7 +1994,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
     </row>
@@ -2191,7 +2004,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="2"/>
       <c r="H75" s="1"/>
     </row>
@@ -2201,7 +2014,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="2"/>
       <c r="H76" s="1"/>
     </row>
@@ -2211,7 +2024,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
@@ -2221,7 +2034,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="2"/>
       <c r="H78" s="1"/>
     </row>
@@ -2231,7 +2044,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
@@ -2241,7 +2054,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
@@ -2251,7 +2064,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
@@ -2261,7 +2074,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
     </row>
@@ -2271,7 +2084,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="2"/>
       <c r="H83" s="1"/>
     </row>
@@ -2281,7 +2094,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
@@ -2291,7 +2104,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
@@ -2301,7 +2114,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
@@ -2311,7 +2124,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="2"/>
       <c r="H87" s="1"/>
     </row>
@@ -2321,7 +2134,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="2"/>
       <c r="H88" s="1"/>
     </row>
@@ -2331,7 +2144,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="2"/>
       <c r="H89" s="1"/>
     </row>
@@ -2341,7 +2154,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="2"/>
       <c r="H90" s="1"/>
     </row>
@@ -2351,7 +2164,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="2"/>
       <c r="H91" s="1"/>
     </row>
@@ -2361,7 +2174,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="8"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="2"/>
       <c r="H92" s="1"/>
     </row>
@@ -2371,7 +2184,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="8"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="2"/>
       <c r="H93" s="1"/>
     </row>
@@ -2381,7 +2194,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="2"/>
       <c r="H94" s="1"/>
     </row>
@@ -2391,7 +2204,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="2"/>
       <c r="H95" s="1"/>
     </row>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1CC2F-5AA8-4E38-8CC4-8A668CEC2700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B22FBD-5BC9-4127-B4E0-B28C89FBC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="300">
   <si>
     <t>ID No.</t>
   </si>
@@ -66,247 +66,877 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>BOECO</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>0006105-01-00</t>
-  </si>
-  <si>
-    <t>LAB-CEN-01</t>
-  </si>
-  <si>
-    <t>CF25074463</t>
-  </si>
-  <si>
     <t>KOKUSAN</t>
   </si>
   <si>
-    <t>HS-12</t>
-  </si>
-  <si>
-    <t>LAB-CEN-02</t>
-  </si>
-  <si>
-    <t>CF25074464</t>
-  </si>
-  <si>
     <t>H-11NC</t>
   </si>
   <si>
-    <t>LAB-CEN-03</t>
-  </si>
-  <si>
-    <t>CF25074465</t>
-  </si>
-  <si>
     <t>H-19α</t>
   </si>
   <si>
-    <t>LAB-CEN-04</t>
-  </si>
-  <si>
-    <t>CF25074466</t>
-  </si>
-  <si>
-    <t>LAB-CEN-05</t>
-  </si>
-  <si>
-    <t>CF25074467</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
     <t>HAEMATOKRIT 200</t>
   </si>
   <si>
-    <t>0005309-05</t>
-  </si>
-  <si>
-    <t>LAB-MHC-02</t>
-  </si>
-  <si>
-    <t>CF25074468</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>Z COOL</t>
-  </si>
-  <si>
-    <t>ZCO-2DQ30</t>
-  </si>
-  <si>
-    <t>LAB-REF-01</t>
-  </si>
-  <si>
-    <t>CH25074469</t>
-  </si>
-  <si>
-    <t>LAB-REF-02</t>
-  </si>
-  <si>
-    <t>CH25074470</t>
-  </si>
-  <si>
-    <t>ZCO-1DQ10</t>
-  </si>
-  <si>
-    <t>LAB-REF-03</t>
-  </si>
-  <si>
-    <t>CH25074471</t>
-  </si>
-  <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>SEVERIN</t>
-  </si>
-  <si>
-    <t>ZMP-9859ALSG</t>
-  </si>
-  <si>
-    <t>LAB-REF-04</t>
-  </si>
-  <si>
-    <t>CH25074472</t>
-  </si>
-  <si>
-    <t>ZDD-2DU</t>
-  </si>
-  <si>
-    <t>SDC1000S-230400372</t>
-  </si>
-  <si>
-    <t>LAB-REF-05</t>
-  </si>
-  <si>
-    <t>CH25074473</t>
-  </si>
-  <si>
-    <t>TIMER</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>PC2001</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>LAB-TIM-10</t>
-  </si>
-  <si>
-    <t>CAL/PM</t>
-  </si>
-  <si>
-    <t>CASIO</t>
-  </si>
-  <si>
-    <t>HS-3</t>
-  </si>
-  <si>
-    <t>507Q25R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAB-TIM-11  </t>
-  </si>
-  <si>
-    <t>SEIKO</t>
-  </si>
-  <si>
-    <t>LAB-TIM-20</t>
-  </si>
-  <si>
-    <t>LAB-TIM-21</t>
-  </si>
-  <si>
-    <t>LAB-TIM-26</t>
-  </si>
-  <si>
-    <t>LAB-TIM-31</t>
-  </si>
-  <si>
-    <t>LAB-TIM-32</t>
-  </si>
-  <si>
-    <t>LAB-TIM-34</t>
-  </si>
-  <si>
-    <t>LAB-TIM-35</t>
-  </si>
-  <si>
-    <t>LAB-TIM-36</t>
-  </si>
-  <si>
-    <t>LAB-TIM-37</t>
-  </si>
-  <si>
-    <t>LAB-TIM-38</t>
-  </si>
-  <si>
-    <t>LAB-TIM-39</t>
-  </si>
-  <si>
-    <t>A.T.MEDICARE</t>
-  </si>
-  <si>
-    <t>LAB-TIM-40</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>GEMMYCO</t>
-  </si>
-  <si>
-    <t>YCW-010</t>
-  </si>
-  <si>
-    <t>LAB-WTB-02</t>
-  </si>
-  <si>
-    <t>WB25074474</t>
-  </si>
-  <si>
-    <t>SANYO</t>
-  </si>
-  <si>
-    <t>MBR-304GR</t>
-  </si>
-  <si>
-    <t>09030044</t>
-  </si>
-  <si>
-    <t>LAB-BBR-01</t>
-  </si>
-  <si>
-    <t>CH25074475</t>
-  </si>
-  <si>
-    <t>KS 9859</t>
-  </si>
-  <si>
-    <t>41936</t>
-  </si>
-  <si>
-    <t>LAB-BBR-03</t>
-  </si>
-  <si>
-    <t>CH25074476</t>
-  </si>
-  <si>
-    <t>B.CARE MEDICAL CENTER HOSPITAL</t>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>DAIHAN</t>
+  </si>
+  <si>
+    <t>WACS-1060</t>
+  </si>
+  <si>
+    <t>WACS1060081215002</t>
+  </si>
+  <si>
+    <t>LABM-AU-01</t>
+  </si>
+  <si>
+    <t>AC25073671</t>
+  </si>
+  <si>
+    <t>WACS1060070719008</t>
+  </si>
+  <si>
+    <t>LABM-AU-02</t>
+  </si>
+  <si>
+    <t>AC25073672</t>
+  </si>
+  <si>
+    <t>PAN BALANCE</t>
+  </si>
+  <si>
+    <t>OHAUS</t>
+  </si>
+  <si>
+    <t>HARVARD TRIP</t>
+  </si>
+  <si>
+    <t>LABB-BL-03</t>
+  </si>
+  <si>
+    <t>ISO9001</t>
+  </si>
+  <si>
+    <t>REMI</t>
+  </si>
+  <si>
+    <t>CBZ-50 PLUS</t>
+  </si>
+  <si>
+    <t>ZALB-00476</t>
+  </si>
+  <si>
+    <t>LABB-BL-06</t>
+  </si>
+  <si>
+    <t>LABM-BL-01</t>
+  </si>
+  <si>
+    <t>CAL9001</t>
+  </si>
+  <si>
+    <t>LABH-CE-02</t>
+  </si>
+  <si>
+    <t>CF25073676</t>
+  </si>
+  <si>
+    <t>Hettich</t>
+  </si>
+  <si>
+    <t>EBA 200</t>
+  </si>
+  <si>
+    <t>0014141-03</t>
+  </si>
+  <si>
+    <t>LABH-CE-03</t>
+  </si>
+  <si>
+    <t>CF25073677</t>
+  </si>
+  <si>
+    <t>EBA 200 S</t>
+  </si>
+  <si>
+    <t>0000593-02</t>
+  </si>
+  <si>
+    <t>LABH-CE-04</t>
+  </si>
+  <si>
+    <t>CF25073678</t>
+  </si>
+  <si>
+    <t>H-36</t>
+  </si>
+  <si>
+    <t>LABI-CE-03</t>
+  </si>
+  <si>
+    <t>CF25073679</t>
+  </si>
+  <si>
+    <t>H-36α</t>
+  </si>
+  <si>
+    <t>LABI-CE-04</t>
+  </si>
+  <si>
+    <t>CF25073680</t>
+  </si>
+  <si>
+    <t>BIONEER</t>
+  </si>
+  <si>
+    <t>ExiSpin</t>
+  </si>
+  <si>
+    <t>1021518030076</t>
+  </si>
+  <si>
+    <t>LABI-CE-05</t>
+  </si>
+  <si>
+    <t>CF25073681</t>
+  </si>
+  <si>
+    <t>1021518020018</t>
+  </si>
+  <si>
+    <t>LABI-CE-06</t>
+  </si>
+  <si>
+    <t>CF25073682</t>
+  </si>
+  <si>
+    <t>LABI-CE-07</t>
+  </si>
+  <si>
+    <t>CF25073683</t>
+  </si>
+  <si>
+    <t>REFRIGERATED CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>ThermoFisher</t>
+  </si>
+  <si>
+    <t>ST 16 R</t>
+  </si>
+  <si>
+    <t>LABI-CE-08</t>
+  </si>
+  <si>
+    <t>CF25073684</t>
+  </si>
+  <si>
+    <t>LABI-CE-09</t>
+  </si>
+  <si>
+    <t>CF25073686</t>
+  </si>
+  <si>
+    <t>LABP-CE-01</t>
+  </si>
+  <si>
+    <t>CF25073687</t>
+  </si>
+  <si>
+    <t>LABC-CE-04</t>
+  </si>
+  <si>
+    <t>CF25073688</t>
+  </si>
+  <si>
+    <t>LABC-CE-05</t>
+  </si>
+  <si>
+    <t>CF25073689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBA 21 </t>
+  </si>
+  <si>
+    <t>0000161-02</t>
+  </si>
+  <si>
+    <t>LABB-CE-01</t>
+  </si>
+  <si>
+    <t>CF25073690</t>
+  </si>
+  <si>
+    <t>H-19F</t>
+  </si>
+  <si>
+    <t>LABB-CE-02</t>
+  </si>
+  <si>
+    <t>CF25073691</t>
+  </si>
+  <si>
+    <t>LABB-CE-04</t>
+  </si>
+  <si>
+    <t>CF25073692</t>
+  </si>
+  <si>
+    <t>Centurion Scientific</t>
+  </si>
+  <si>
+    <t>C2 Series</t>
+  </si>
+  <si>
+    <t>LABB-CE-05</t>
+  </si>
+  <si>
+    <t>CF25073693</t>
+  </si>
+  <si>
+    <t>BIOSAN</t>
+  </si>
+  <si>
+    <t>LMC-3000</t>
+  </si>
+  <si>
+    <t>1020818100335</t>
+  </si>
+  <si>
+    <t>LABM-CE-01</t>
+  </si>
+  <si>
+    <t>CF25073694</t>
+  </si>
+  <si>
+    <t>HIGHSPEED CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>Microspin 12</t>
+  </si>
+  <si>
+    <t>1021319080366</t>
+  </si>
+  <si>
+    <t>LABM-CE-02</t>
+  </si>
+  <si>
+    <t>CF25073695</t>
+  </si>
+  <si>
+    <t>LABM-CE-03</t>
+  </si>
+  <si>
+    <t>CF25073696</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>MPW M-DIAGNOSTIC</t>
+  </si>
+  <si>
+    <t>102MD115322</t>
+  </si>
+  <si>
+    <t>LABM-CE-04</t>
+  </si>
+  <si>
+    <t>CF25073697</t>
+  </si>
+  <si>
+    <t>0043436-04</t>
+  </si>
+  <si>
+    <t>LABH-HE-01</t>
+  </si>
+  <si>
+    <t>CF25073698</t>
+  </si>
+  <si>
+    <t>0002588-03</t>
+  </si>
+  <si>
+    <t>LABH-HE-03</t>
+  </si>
+  <si>
+    <t>CF25073699</t>
+  </si>
+  <si>
+    <t>0005296-05</t>
+  </si>
+  <si>
+    <t>LABO-HE-02</t>
+  </si>
+  <si>
+    <t>CF25073700</t>
+  </si>
+  <si>
+    <t>LABH-UE-03</t>
+  </si>
+  <si>
+    <t>CF25073701</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>PLC-012E</t>
+  </si>
+  <si>
+    <t>LABO-UE-02</t>
+  </si>
+  <si>
+    <t>CF25073702</t>
+  </si>
+  <si>
+    <t>LABO-UE-03</t>
+  </si>
+  <si>
+    <t>CF25073703</t>
+  </si>
+  <si>
+    <t>LABB-RC-02</t>
+  </si>
+  <si>
+    <t>CF25073704</t>
+  </si>
+  <si>
+    <t>HOT AIR OVEN</t>
+  </si>
+  <si>
+    <t>LABM-HA-01</t>
+  </si>
+  <si>
+    <t>OUT SOURCE</t>
+  </si>
+  <si>
+    <t>LABM-HA-02</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>POL-EKO-APARATURA</t>
+  </si>
+  <si>
+    <t>CLW 180 STD</t>
+  </si>
+  <si>
+    <t>CW18190045</t>
+  </si>
+  <si>
+    <t>LABM-IT-01</t>
+  </si>
+  <si>
+    <t>CH25073705</t>
+  </si>
+  <si>
+    <t>WIGGENS</t>
+  </si>
+  <si>
+    <t>WH-05</t>
+  </si>
+  <si>
+    <t>W293190302</t>
+  </si>
+  <si>
+    <t>LABM-IT-02</t>
+  </si>
+  <si>
+    <t>CH25073706</t>
+  </si>
+  <si>
+    <t>SHEL LAB</t>
+  </si>
+  <si>
+    <t>GI6-2</t>
+  </si>
+  <si>
+    <t>05015808</t>
+  </si>
+  <si>
+    <t>LABM-IT-03</t>
+  </si>
+  <si>
+    <t>CH25073707</t>
+  </si>
+  <si>
+    <t>SMI11-2</t>
+  </si>
+  <si>
+    <t>LABM-IT-04</t>
+  </si>
+  <si>
+    <t>CH25073708</t>
+  </si>
+  <si>
+    <t>SCO5W-2</t>
+  </si>
+  <si>
+    <t>LABM-IT-05</t>
+  </si>
+  <si>
+    <t>CH25073709</t>
+  </si>
+  <si>
+    <t>CLW 180 IG SMART</t>
+  </si>
+  <si>
+    <t>CW18220009</t>
+  </si>
+  <si>
+    <t>LABM-IT-06</t>
+  </si>
+  <si>
+    <t>CH25073710</t>
+  </si>
+  <si>
+    <t>CLW 53 IG SMART</t>
+  </si>
+  <si>
+    <t>CW53210030</t>
+  </si>
+  <si>
+    <t>LABM-IT-07</t>
+  </si>
+  <si>
+    <t>CH25073711</t>
+  </si>
+  <si>
+    <t>DRY BATH</t>
+  </si>
+  <si>
+    <t>Mit</t>
+  </si>
+  <si>
+    <t>B-DB80</t>
+  </si>
+  <si>
+    <t>08053015</t>
+  </si>
+  <si>
+    <t>LABH-MI-01</t>
+  </si>
+  <si>
+    <t>DB25073712</t>
+  </si>
+  <si>
+    <t>TB-DB80</t>
+  </si>
+  <si>
+    <t>D8005171</t>
+  </si>
+  <si>
+    <t>LABH-MI-02</t>
+  </si>
+  <si>
+    <t>DB25073713</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>D8057029</t>
+  </si>
+  <si>
+    <t>LABB-MI-01</t>
+  </si>
+  <si>
+    <t>DB25073714</t>
+  </si>
+  <si>
+    <t>TB-02T</t>
+  </si>
+  <si>
+    <t>TB02T0330</t>
+  </si>
+  <si>
+    <t>LABB-MI-02</t>
+  </si>
+  <si>
+    <t>DB25073715</t>
+  </si>
+  <si>
+    <t>HELMER</t>
+  </si>
+  <si>
+    <t>IHB256</t>
+  </si>
+  <si>
+    <t>LABB-RG-01</t>
+  </si>
+  <si>
+    <t>CH25073716</t>
+  </si>
+  <si>
+    <t>IHB120</t>
+  </si>
+  <si>
+    <t>LABB-RG-02</t>
+  </si>
+  <si>
+    <t>CH25073717</t>
+  </si>
+  <si>
+    <t>IB125</t>
+  </si>
+  <si>
+    <t>LABB-RG-03</t>
+  </si>
+  <si>
+    <t>CH25073718</t>
+  </si>
+  <si>
+    <t>LABB-RG-04</t>
+  </si>
+  <si>
+    <t>CH25073719</t>
+  </si>
+  <si>
+    <t>WARMER</t>
+  </si>
+  <si>
+    <t>Barkey</t>
+  </si>
+  <si>
+    <t>plasmatherm</t>
+  </si>
+  <si>
+    <t>LABB-PT-01</t>
+  </si>
+  <si>
+    <t>DB25073720</t>
+  </si>
+  <si>
+    <t>PLASMA THAWERS</t>
+  </si>
+  <si>
+    <t>KW APPARECCHI SCIENTIFICI</t>
+  </si>
+  <si>
+    <t>WPFD 3/6</t>
+  </si>
+  <si>
+    <t>LABB-PT-02</t>
+  </si>
+  <si>
+    <t>DB25073721</t>
+  </si>
+  <si>
+    <t>PLATELET INCUBATOR</t>
+  </si>
+  <si>
+    <t>PC1200i</t>
+  </si>
+  <si>
+    <t>LABB-PL-02</t>
+  </si>
+  <si>
+    <t>CH25073722</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>DW-40L262</t>
+  </si>
+  <si>
+    <t>BE02Q 4E1T0 0QEH9 70005</t>
+  </si>
+  <si>
+    <t>LABI-RE-01</t>
+  </si>
+  <si>
+    <t>CH25073723</t>
+  </si>
+  <si>
+    <t>MITSUBISHI ELECRIC</t>
+  </si>
+  <si>
+    <t>MF-U14M-W</t>
+  </si>
+  <si>
+    <t>81206520</t>
+  </si>
+  <si>
+    <t>LABI-RE-02</t>
+  </si>
+  <si>
+    <t>CH25073724</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SNQ-0153D41A</t>
+  </si>
+  <si>
+    <t>SNQ0153-161202538</t>
+  </si>
+  <si>
+    <t>LABI-RE-03</t>
+  </si>
+  <si>
+    <t>CH25073725</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>MDF-437-PE</t>
+  </si>
+  <si>
+    <t>LABB-RE-01</t>
+  </si>
+  <si>
+    <t>CH25073726</t>
+  </si>
+  <si>
+    <t>LABB-RE-02</t>
+  </si>
+  <si>
+    <t>CH25073727</t>
+  </si>
+  <si>
+    <t>MDF-437</t>
+  </si>
+  <si>
+    <t>LABB-RE-03</t>
+  </si>
+  <si>
+    <t>CH25073728</t>
+  </si>
+  <si>
+    <t>AHT(ASIA)</t>
+  </si>
+  <si>
+    <t>VU-710.19-40)</t>
+  </si>
+  <si>
+    <t>48342-341-001</t>
+  </si>
+  <si>
+    <t>LABB-RE-04</t>
+  </si>
+  <si>
+    <t>CH25073729</t>
+  </si>
+  <si>
+    <t>HHPF125-8</t>
+  </si>
+  <si>
+    <t>LABB-RE-05</t>
+  </si>
+  <si>
+    <t>CH25073730</t>
+  </si>
+  <si>
+    <t>MDF-237</t>
+  </si>
+  <si>
+    <t>LABB-RE-06</t>
+  </si>
+  <si>
+    <t>CH25073731</t>
+  </si>
+  <si>
+    <t>VESTFROST</t>
+  </si>
+  <si>
+    <t>AKG 337 Upgrade</t>
+  </si>
+  <si>
+    <t>LABB-RF-01</t>
+  </si>
+  <si>
+    <t>CH25073732</t>
+  </si>
+  <si>
+    <t>BE02Q4E1T00QEGB90011</t>
+  </si>
+  <si>
+    <t>LABC-RE-01</t>
+  </si>
+  <si>
+    <t>CH25073733</t>
+  </si>
+  <si>
+    <t>BE02Q4E1T00QEFCH0010</t>
+  </si>
+  <si>
+    <t>LABM-RE-01</t>
+  </si>
+  <si>
+    <t>CH25073734</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>LABI-RT-01</t>
+  </si>
+  <si>
+    <t>CF25073735</t>
+  </si>
+  <si>
+    <t>VRN-200</t>
+  </si>
+  <si>
+    <t>LABM-RT-01</t>
+  </si>
+  <si>
+    <t>CF25073736</t>
+  </si>
+  <si>
+    <t>VOTEX MIXER</t>
+  </si>
+  <si>
+    <t>VM-10</t>
+  </si>
+  <si>
+    <t>409331126000000</t>
+  </si>
+  <si>
+    <t>LABI-VM-01</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>MX-S</t>
+  </si>
+  <si>
+    <t>VB185AH0001835</t>
+  </si>
+  <si>
+    <t>LABI-VM-02</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>WTB6</t>
+  </si>
+  <si>
+    <t>LA21.0104</t>
+  </si>
+  <si>
+    <t>LABH-WB-01</t>
+  </si>
+  <si>
+    <t>WB25073737</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB Aqua 26 </t>
+  </si>
+  <si>
+    <t>QV1133003</t>
+  </si>
+  <si>
+    <t>LABB-WB-01</t>
+  </si>
+  <si>
+    <t>WB25073738</t>
+  </si>
+  <si>
+    <t>YCW-01</t>
+  </si>
+  <si>
+    <t>LABM-WB-01</t>
+  </si>
+  <si>
+    <t>WB25073739</t>
+  </si>
+  <si>
+    <t>SUB AQUA 26</t>
+  </si>
+  <si>
+    <t>QV1127002</t>
+  </si>
+  <si>
+    <t>LABM-WB-02</t>
+  </si>
+  <si>
+    <t>WB25073740</t>
+  </si>
+  <si>
+    <t>SLIDE WARMER</t>
+  </si>
+  <si>
+    <t>LABOTECH</t>
+  </si>
+  <si>
+    <t>SW-40</t>
+  </si>
+  <si>
+    <t>LABH-SH-01</t>
+  </si>
+  <si>
+    <t>DB25073741</t>
+  </si>
+  <si>
+    <t>SLEE</t>
+  </si>
+  <si>
+    <t>slidetec HEAT</t>
+  </si>
+  <si>
+    <t>V1 17 0018</t>
+  </si>
+  <si>
+    <t>LABO-SH-01</t>
+  </si>
+  <si>
+    <t>DB25073742</t>
+  </si>
+  <si>
+    <t>LABTECH</t>
+  </si>
+  <si>
+    <t>LABO-SH-02</t>
+  </si>
+  <si>
+    <t>DB25073743</t>
+  </si>
+  <si>
+    <t>V1 17 0017</t>
+  </si>
+  <si>
+    <t>LABM-SH-01</t>
+  </si>
+  <si>
+    <t>DB25073744</t>
+  </si>
+  <si>
+    <t>LABM-SH-02</t>
+  </si>
+  <si>
+    <t>DB25073745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Medical Laboratory Department</t>
   </si>
 </sst>
 </file>
@@ -777,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -822,1231 +1452,2031 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2" s="15">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13">
-        <v>147688</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="15">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="13">
-        <v>147672</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13">
-        <v>147924</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F5" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13">
-        <v>151960</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F6" s="15">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>144108</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F7" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13">
-        <v>111150012</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" s="15">
-        <v>45867</v>
+        <v>45825</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13">
-        <v>111150013</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F9" s="15">
-        <v>45867</v>
+        <v>45855</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13">
-        <v>106160266</v>
+        <v>143628</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F10" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D11" s="13">
-        <v>29412</v>
+        <v>150454</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F11" s="15">
-        <v>45867</v>
+        <v>45855</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F12" s="15">
-        <v>45867</v>
+        <v>45854</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F13" s="15">
-        <v>45868</v>
+        <v>45854</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="D15" s="13">
+        <v>42650895</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F15" s="15">
-        <v>45868</v>
+        <v>45854</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F16" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="13">
+        <v>142061</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F17" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="13">
+        <v>154320</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F18" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="13">
+        <v>147954</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F19" s="15">
-        <v>45868</v>
+        <v>45855</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F20" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="13">
+        <v>136839</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F21" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="13">
+        <v>142063</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F22" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1268314</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F23" s="15">
-        <v>45868</v>
+        <v>45846</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F24" s="15">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F25" s="15">
-        <v>45868</v>
+        <v>45856</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F26" s="15">
-        <v>45868</v>
+        <v>45853</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1601864</v>
+        <v>104</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="F27" s="15">
-        <v>45867</v>
+        <v>45856</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F28" s="15">
-        <v>45867</v>
+        <v>45855</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F29" s="15">
-        <v>45868</v>
+        <v>45854</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45855</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>141790</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45854</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="1">
+        <v>610563</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45856</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>143948</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45855</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45853</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45852</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45852</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45852</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12006014</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12023221</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45855</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45855</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="1">
+        <v>969860</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="1">
+        <v>982979</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2072055</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1001328</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1110083</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1">
+        <v>82174</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1000304</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45854</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45853</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45854</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="1">
+        <v>17070022</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="1">
+        <v>17070024</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="1">
+        <v>16070029</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="1">
+        <v>975692</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="1">
+        <v>17060031</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20184955270</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45846</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45854</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45856</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="1">
+        <v>306914</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45856</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45856</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45854</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45847</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45852</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45855</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45855</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45855</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45853</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45853</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="32.4" customHeight="1">
       <c r="A80" s="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B22FBD-5BC9-4127-B4E0-B28C89FBC238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="307">
   <si>
     <t>ID No.</t>
   </si>
@@ -912,9 +912,6 @@
     <t>DB25073742</t>
   </si>
   <si>
-    <t>LABTECH</t>
-  </si>
-  <si>
     <t>LABO-SH-02</t>
   </si>
   <si>
@@ -937,6 +934,30 @@
   </si>
   <si>
     <t xml:space="preserve">	Medical Laboratory Department</t>
+  </si>
+  <si>
+    <t>D2012 plus</t>
+  </si>
+  <si>
+    <t>LP189AJ0000010</t>
+  </si>
+  <si>
+    <t>153011</t>
+  </si>
+  <si>
+    <t>M-DIAGNOSTIC</t>
+  </si>
+  <si>
+    <t>102MD089221</t>
+  </si>
+  <si>
+    <t>Cryofuge 6000i</t>
+  </si>
+  <si>
+    <t>41318884</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1109,17 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1407,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H79"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1473,7 +1504,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1499,7 +1530,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1525,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1551,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1577,7 +1608,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1603,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1629,7 +1660,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1655,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1681,7 +1712,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1707,7 +1738,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1733,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1759,21 +1790,21 @@
         <v>62</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
+      <c r="B14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>63</v>
@@ -1785,7 +1816,7 @@
         <v>64</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1811,21 +1842,21 @@
         <v>69</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0</v>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>70</v>
@@ -1837,7 +1868,7 @@
         <v>71</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1863,7 +1894,7 @@
         <v>73</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1889,7 +1920,7 @@
         <v>75</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1915,7 +1946,7 @@
         <v>77</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1941,7 +1972,7 @@
         <v>81</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1967,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1993,7 +2024,7 @@
         <v>86</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2019,7 +2050,7 @@
         <v>90</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2045,7 +2076,7 @@
         <v>95</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2071,21 +2102,21 @@
         <v>100</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>101</v>
@@ -2097,7 +2128,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2123,7 +2154,7 @@
         <v>107</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2149,7 +2180,7 @@
         <v>110</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -2175,7 +2206,7 @@
         <v>113</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -2201,7 +2232,7 @@
         <v>116</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
@@ -2227,7 +2258,7 @@
         <v>118</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
@@ -2253,7 +2284,7 @@
         <v>122</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -2279,21 +2310,21 @@
         <v>124</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>125</v>
@@ -2305,7 +2336,7 @@
         <v>126</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
@@ -2331,7 +2362,7 @@
         <v>129</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
@@ -2357,7 +2388,7 @@
         <v>129</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
@@ -2383,7 +2414,7 @@
         <v>136</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
@@ -2409,7 +2440,7 @@
         <v>141</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
@@ -2435,7 +2466,7 @@
         <v>146</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
@@ -2461,7 +2492,7 @@
         <v>149</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
@@ -2487,7 +2518,7 @@
         <v>152</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
@@ -2513,7 +2544,7 @@
         <v>156</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
@@ -2539,7 +2570,7 @@
         <v>160</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
@@ -2565,7 +2596,7 @@
         <v>166</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
@@ -2591,7 +2622,7 @@
         <v>170</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
@@ -2617,7 +2648,7 @@
         <v>174</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
@@ -2643,7 +2674,7 @@
         <v>178</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
@@ -2669,7 +2700,7 @@
         <v>182</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
@@ -2695,7 +2726,7 @@
         <v>185</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
@@ -2721,7 +2752,7 @@
         <v>188</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
@@ -2747,7 +2778,7 @@
         <v>190</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
@@ -2773,7 +2804,7 @@
         <v>195</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
@@ -2799,7 +2830,7 @@
         <v>200</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
@@ -2825,7 +2856,7 @@
         <v>204</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
@@ -2851,7 +2882,7 @@
         <v>209</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
@@ -2877,7 +2908,7 @@
         <v>214</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
@@ -2903,7 +2934,7 @@
         <v>219</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
@@ -2929,7 +2960,7 @@
         <v>223</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
@@ -2955,7 +2986,7 @@
         <v>225</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
@@ -2981,7 +3012,7 @@
         <v>228</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="32.4" customHeight="1">
@@ -3007,7 +3038,7 @@
         <v>233</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="32.4" customHeight="1">
@@ -3033,7 +3064,7 @@
         <v>236</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
@@ -3059,7 +3090,7 @@
         <v>239</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
@@ -3085,7 +3116,7 @@
         <v>243</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
@@ -3111,7 +3142,7 @@
         <v>246</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
@@ -3137,33 +3168,33 @@
         <v>249</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F67" s="7">
-        <v>0</v>
+        <v>45855</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>252</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
@@ -3189,7 +3220,7 @@
         <v>255</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
@@ -3215,7 +3246,7 @@
         <v>37</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
@@ -3241,7 +3272,7 @@
         <v>37</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
@@ -3267,7 +3298,7 @@
         <v>268</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
@@ -3293,7 +3324,7 @@
         <v>273</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
@@ -3319,7 +3350,7 @@
         <v>276</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="32.4" customHeight="1">
@@ -3345,7 +3376,7 @@
         <v>280</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="32.4" customHeight="1">
@@ -3371,7 +3402,7 @@
         <v>285</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="32.4" customHeight="1">
@@ -3397,7 +3428,7 @@
         <v>290</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="32.4" customHeight="1">
@@ -3405,7 +3436,7 @@
         <v>281</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>283</v>
@@ -3414,16 +3445,16 @@
         <v>16</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F77" s="7">
         <v>45855</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="32.4" customHeight="1">
@@ -3437,19 +3468,19 @@
         <v>287</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="F78" s="7">
         <v>45853</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="32.4" customHeight="1">
@@ -3466,16 +3497,16 @@
         <v>16</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F79" s="7">
         <v>45853</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="32.4" customHeight="1">
@@ -3641,7 +3672,7 @@
   </sheetData>
   <autoFilter ref="A1:H95" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E14912-56F4-4612-A6A3-BF4233E02EC6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="338">
   <si>
     <t>ID No.</t>
   </si>
@@ -69,18 +69,9 @@
     <t>KOKUSAN</t>
   </si>
   <si>
-    <t>H-11NC</t>
-  </si>
-  <si>
     <t>H-19α</t>
   </si>
   <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>HAEMATOKRIT 200</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
@@ -93,720 +84,36 @@
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>AUTOCLAVE</t>
-  </si>
-  <si>
     <t>DAIHAN</t>
   </si>
   <si>
-    <t>WACS-1060</t>
-  </si>
-  <si>
-    <t>WACS1060081215002</t>
-  </si>
-  <si>
-    <t>LABM-AU-01</t>
-  </si>
-  <si>
-    <t>AC25073671</t>
-  </si>
-  <si>
-    <t>WACS1060070719008</t>
-  </si>
-  <si>
-    <t>LABM-AU-02</t>
-  </si>
-  <si>
-    <t>AC25073672</t>
-  </si>
-  <si>
-    <t>PAN BALANCE</t>
-  </si>
-  <si>
-    <t>OHAUS</t>
-  </si>
-  <si>
-    <t>HARVARD TRIP</t>
-  </si>
-  <si>
-    <t>LABB-BL-03</t>
-  </si>
-  <si>
-    <t>ISO9001</t>
-  </si>
-  <si>
-    <t>REMI</t>
-  </si>
-  <si>
-    <t>CBZ-50 PLUS</t>
-  </si>
-  <si>
-    <t>ZALB-00476</t>
-  </si>
-  <si>
-    <t>LABB-BL-06</t>
-  </si>
-  <si>
-    <t>LABM-BL-01</t>
-  </si>
-  <si>
     <t>CAL9001</t>
   </si>
   <si>
-    <t>LABH-CE-02</t>
-  </si>
-  <si>
-    <t>CF25073676</t>
-  </si>
-  <si>
-    <t>Hettich</t>
-  </si>
-  <si>
-    <t>EBA 200</t>
-  </si>
-  <si>
-    <t>0014141-03</t>
-  </si>
-  <si>
-    <t>LABH-CE-03</t>
-  </si>
-  <si>
-    <t>CF25073677</t>
-  </si>
-  <si>
-    <t>EBA 200 S</t>
-  </si>
-  <si>
-    <t>0000593-02</t>
-  </si>
-  <si>
-    <t>LABH-CE-04</t>
-  </si>
-  <si>
-    <t>CF25073678</t>
-  </si>
-  <si>
-    <t>H-36</t>
-  </si>
-  <si>
-    <t>LABI-CE-03</t>
-  </si>
-  <si>
-    <t>CF25073679</t>
-  </si>
-  <si>
-    <t>H-36α</t>
-  </si>
-  <si>
-    <t>LABI-CE-04</t>
-  </si>
-  <si>
-    <t>CF25073680</t>
-  </si>
-  <si>
-    <t>BIONEER</t>
-  </si>
-  <si>
-    <t>ExiSpin</t>
-  </si>
-  <si>
-    <t>1021518030076</t>
-  </si>
-  <si>
-    <t>LABI-CE-05</t>
-  </si>
-  <si>
-    <t>CF25073681</t>
-  </si>
-  <si>
-    <t>1021518020018</t>
-  </si>
-  <si>
-    <t>LABI-CE-06</t>
-  </si>
-  <si>
-    <t>CF25073682</t>
-  </si>
-  <si>
-    <t>LABI-CE-07</t>
-  </si>
-  <si>
-    <t>CF25073683</t>
-  </si>
-  <si>
-    <t>REFRIGERATED CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>ThermoFisher</t>
-  </si>
-  <si>
-    <t>ST 16 R</t>
-  </si>
-  <si>
-    <t>LABI-CE-08</t>
-  </si>
-  <si>
-    <t>CF25073684</t>
-  </si>
-  <si>
-    <t>LABI-CE-09</t>
-  </si>
-  <si>
-    <t>CF25073686</t>
-  </si>
-  <si>
-    <t>LABP-CE-01</t>
-  </si>
-  <si>
-    <t>CF25073687</t>
-  </si>
-  <si>
-    <t>LABC-CE-04</t>
-  </si>
-  <si>
-    <t>CF25073688</t>
-  </si>
-  <si>
-    <t>LABC-CE-05</t>
-  </si>
-  <si>
-    <t>CF25073689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBA 21 </t>
-  </si>
-  <si>
-    <t>0000161-02</t>
-  </si>
-  <si>
-    <t>LABB-CE-01</t>
-  </si>
-  <si>
-    <t>CF25073690</t>
-  </si>
-  <si>
     <t>H-19F</t>
   </si>
   <si>
-    <t>LABB-CE-02</t>
-  </si>
-  <si>
-    <t>CF25073691</t>
-  </si>
-  <si>
-    <t>LABB-CE-04</t>
-  </si>
-  <si>
-    <t>CF25073692</t>
-  </si>
-  <si>
-    <t>Centurion Scientific</t>
-  </si>
-  <si>
-    <t>C2 Series</t>
-  </si>
-  <si>
-    <t>LABB-CE-05</t>
-  </si>
-  <si>
-    <t>CF25073693</t>
-  </si>
-  <si>
     <t>BIOSAN</t>
   </si>
   <si>
-    <t>LMC-3000</t>
-  </si>
-  <si>
-    <t>1020818100335</t>
-  </si>
-  <si>
-    <t>LABM-CE-01</t>
-  </si>
-  <si>
-    <t>CF25073694</t>
-  </si>
-  <si>
-    <t>HIGHSPEED CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>Microspin 12</t>
-  </si>
-  <si>
-    <t>1021319080366</t>
-  </si>
-  <si>
-    <t>LABM-CE-02</t>
-  </si>
-  <si>
-    <t>CF25073695</t>
-  </si>
-  <si>
-    <t>LABM-CE-03</t>
-  </si>
-  <si>
-    <t>CF25073696</t>
-  </si>
-  <si>
-    <t>MPW</t>
-  </si>
-  <si>
-    <t>MPW M-DIAGNOSTIC</t>
-  </si>
-  <si>
-    <t>102MD115322</t>
-  </si>
-  <si>
-    <t>LABM-CE-04</t>
-  </si>
-  <si>
-    <t>CF25073697</t>
-  </si>
-  <si>
-    <t>0043436-04</t>
-  </si>
-  <si>
-    <t>LABH-HE-01</t>
-  </si>
-  <si>
-    <t>CF25073698</t>
-  </si>
-  <si>
-    <t>0002588-03</t>
-  </si>
-  <si>
-    <t>LABH-HE-03</t>
-  </si>
-  <si>
-    <t>CF25073699</t>
-  </si>
-  <si>
-    <t>0005296-05</t>
-  </si>
-  <si>
-    <t>LABO-HE-02</t>
-  </si>
-  <si>
-    <t>CF25073700</t>
-  </si>
-  <si>
-    <t>LABH-UE-03</t>
-  </si>
-  <si>
-    <t>CF25073701</t>
-  </si>
-  <si>
     <t>GEMMY</t>
   </si>
   <si>
-    <t>PLC-012E</t>
-  </si>
-  <si>
-    <t>LABO-UE-02</t>
-  </si>
-  <si>
-    <t>CF25073702</t>
-  </si>
-  <si>
-    <t>LABO-UE-03</t>
-  </si>
-  <si>
-    <t>CF25073703</t>
-  </si>
-  <si>
-    <t>LABB-RC-02</t>
-  </si>
-  <si>
-    <t>CF25073704</t>
-  </si>
-  <si>
-    <t>HOT AIR OVEN</t>
-  </si>
-  <si>
-    <t>LABM-HA-01</t>
-  </si>
-  <si>
-    <t>OUT SOURCE</t>
-  </si>
-  <si>
-    <t>LABM-HA-02</t>
-  </si>
-  <si>
     <t>INCUBATOR</t>
   </si>
   <si>
-    <t>POL-EKO-APARATURA</t>
-  </si>
-  <si>
-    <t>CLW 180 STD</t>
-  </si>
-  <si>
-    <t>CW18190045</t>
-  </si>
-  <si>
-    <t>LABM-IT-01</t>
-  </si>
-  <si>
-    <t>CH25073705</t>
-  </si>
-  <si>
-    <t>WIGGENS</t>
-  </si>
-  <si>
-    <t>WH-05</t>
-  </si>
-  <si>
-    <t>W293190302</t>
-  </si>
-  <si>
-    <t>LABM-IT-02</t>
-  </si>
-  <si>
-    <t>CH25073706</t>
-  </si>
-  <si>
-    <t>SHEL LAB</t>
-  </si>
-  <si>
-    <t>GI6-2</t>
-  </si>
-  <si>
-    <t>05015808</t>
-  </si>
-  <si>
-    <t>LABM-IT-03</t>
-  </si>
-  <si>
-    <t>CH25073707</t>
-  </si>
-  <si>
-    <t>SMI11-2</t>
-  </si>
-  <si>
-    <t>LABM-IT-04</t>
-  </si>
-  <si>
-    <t>CH25073708</t>
-  </si>
-  <si>
-    <t>SCO5W-2</t>
-  </si>
-  <si>
-    <t>LABM-IT-05</t>
-  </si>
-  <si>
-    <t>CH25073709</t>
-  </si>
-  <si>
-    <t>CLW 180 IG SMART</t>
-  </si>
-  <si>
-    <t>CW18220009</t>
-  </si>
-  <si>
-    <t>LABM-IT-06</t>
-  </si>
-  <si>
-    <t>CH25073710</t>
-  </si>
-  <si>
-    <t>CLW 53 IG SMART</t>
-  </si>
-  <si>
-    <t>CW53210030</t>
-  </si>
-  <si>
-    <t>LABM-IT-07</t>
-  </si>
-  <si>
-    <t>CH25073711</t>
-  </si>
-  <si>
     <t>DRY BATH</t>
   </si>
   <si>
-    <t>Mit</t>
-  </si>
-  <si>
-    <t>B-DB80</t>
-  </si>
-  <si>
-    <t>08053015</t>
-  </si>
-  <si>
-    <t>LABH-MI-01</t>
-  </si>
-  <si>
-    <t>DB25073712</t>
-  </si>
-  <si>
-    <t>TB-DB80</t>
-  </si>
-  <si>
-    <t>D8005171</t>
-  </si>
-  <si>
-    <t>LABH-MI-02</t>
-  </si>
-  <si>
-    <t>DB25073713</t>
-  </si>
-  <si>
-    <t>MIT</t>
-  </si>
-  <si>
-    <t>D8057029</t>
-  </si>
-  <si>
-    <t>LABB-MI-01</t>
-  </si>
-  <si>
-    <t>DB25073714</t>
-  </si>
-  <si>
-    <t>TB-02T</t>
-  </si>
-  <si>
-    <t>TB02T0330</t>
-  </si>
-  <si>
-    <t>LABB-MI-02</t>
-  </si>
-  <si>
-    <t>DB25073715</t>
-  </si>
-  <si>
-    <t>HELMER</t>
-  </si>
-  <si>
-    <t>IHB256</t>
-  </si>
-  <si>
-    <t>LABB-RG-01</t>
-  </si>
-  <si>
-    <t>CH25073716</t>
-  </si>
-  <si>
-    <t>IHB120</t>
-  </si>
-  <si>
-    <t>LABB-RG-02</t>
-  </si>
-  <si>
-    <t>CH25073717</t>
-  </si>
-  <si>
-    <t>IB125</t>
-  </si>
-  <si>
-    <t>LABB-RG-03</t>
-  </si>
-  <si>
-    <t>CH25073718</t>
-  </si>
-  <si>
-    <t>LABB-RG-04</t>
-  </si>
-  <si>
-    <t>CH25073719</t>
-  </si>
-  <si>
-    <t>WARMER</t>
-  </si>
-  <si>
-    <t>Barkey</t>
-  </si>
-  <si>
-    <t>plasmatherm</t>
-  </si>
-  <si>
-    <t>LABB-PT-01</t>
-  </si>
-  <si>
-    <t>DB25073720</t>
-  </si>
-  <si>
-    <t>PLASMA THAWERS</t>
-  </si>
-  <si>
-    <t>KW APPARECCHI SCIENTIFICI</t>
-  </si>
-  <si>
-    <t>WPFD 3/6</t>
-  </si>
-  <si>
-    <t>LABB-PT-02</t>
-  </si>
-  <si>
-    <t>DB25073721</t>
-  </si>
-  <si>
     <t>PLATELET INCUBATOR</t>
   </si>
   <si>
-    <t>PC1200i</t>
-  </si>
-  <si>
-    <t>LABB-PL-02</t>
-  </si>
-  <si>
-    <t>CH25073722</t>
-  </si>
-  <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>DW-40L262</t>
-  </si>
-  <si>
-    <t>BE02Q 4E1T0 0QEH9 70005</t>
-  </si>
-  <si>
-    <t>LABI-RE-01</t>
-  </si>
-  <si>
-    <t>CH25073723</t>
-  </si>
-  <si>
-    <t>MITSUBISHI ELECRIC</t>
-  </si>
-  <si>
-    <t>MF-U14M-W</t>
-  </si>
-  <si>
-    <t>81206520</t>
-  </si>
-  <si>
-    <t>LABI-RE-02</t>
-  </si>
-  <si>
-    <t>CH25073724</t>
-  </si>
-  <si>
     <t>SANDEN INTERCOOL</t>
   </si>
   <si>
-    <t>SNQ-0153D41A</t>
-  </si>
-  <si>
-    <t>SNQ0153-161202538</t>
-  </si>
-  <si>
-    <t>LABI-RE-03</t>
-  </si>
-  <si>
-    <t>CH25073725</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>MDF-437-PE</t>
-  </si>
-  <si>
-    <t>LABB-RE-01</t>
-  </si>
-  <si>
-    <t>CH25073726</t>
-  </si>
-  <si>
-    <t>LABB-RE-02</t>
-  </si>
-  <si>
-    <t>CH25073727</t>
-  </si>
-  <si>
-    <t>MDF-437</t>
-  </si>
-  <si>
-    <t>LABB-RE-03</t>
-  </si>
-  <si>
-    <t>CH25073728</t>
-  </si>
-  <si>
-    <t>AHT(ASIA)</t>
-  </si>
-  <si>
-    <t>VU-710.19-40)</t>
-  </si>
-  <si>
-    <t>48342-341-001</t>
-  </si>
-  <si>
-    <t>LABB-RE-04</t>
-  </si>
-  <si>
-    <t>CH25073729</t>
-  </si>
-  <si>
-    <t>HHPF125-8</t>
-  </si>
-  <si>
-    <t>LABB-RE-05</t>
-  </si>
-  <si>
-    <t>CH25073730</t>
-  </si>
-  <si>
-    <t>MDF-237</t>
-  </si>
-  <si>
-    <t>LABB-RE-06</t>
-  </si>
-  <si>
-    <t>CH25073731</t>
-  </si>
-  <si>
-    <t>VESTFROST</t>
-  </si>
-  <si>
-    <t>AKG 337 Upgrade</t>
-  </si>
-  <si>
-    <t>LABB-RF-01</t>
-  </si>
-  <si>
-    <t>CH25073732</t>
-  </si>
-  <si>
-    <t>BE02Q4E1T00QEGB90011</t>
-  </si>
-  <si>
-    <t>LABC-RE-01</t>
-  </si>
-  <si>
-    <t>CH25073733</t>
-  </si>
-  <si>
-    <t>BE02Q4E1T00QEFCH0010</t>
-  </si>
-  <si>
-    <t>LABM-RE-01</t>
-  </si>
-  <si>
-    <t>CH25073734</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>LABI-RT-01</t>
-  </si>
-  <si>
-    <t>CF25073735</t>
-  </si>
-  <si>
-    <t>VRN-200</t>
-  </si>
-  <si>
-    <t>LABM-RT-01</t>
-  </si>
-  <si>
-    <t>CF25073736</t>
-  </si>
-  <si>
     <t>VOTEX MIXER</t>
   </si>
   <si>
@@ -933,31 +240,817 @@
     <t>DB25073745</t>
   </si>
   <si>
-    <t xml:space="preserve">	Medical Laboratory Department</t>
-  </si>
-  <si>
-    <t>D2012 plus</t>
-  </si>
-  <si>
-    <t>LP189AJ0000010</t>
-  </si>
-  <si>
-    <t>153011</t>
-  </si>
-  <si>
-    <t>M-DIAGNOSTIC</t>
-  </si>
-  <si>
-    <t>102MD089221</t>
-  </si>
-  <si>
-    <t>Cryofuge 6000i</t>
-  </si>
-  <si>
-    <t>41318884</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC-1000103A-0702-00441</t>
+  </si>
+  <si>
+    <t>LAB-PY2-050</t>
+  </si>
+  <si>
+    <t>CH25063013</t>
+  </si>
+  <si>
+    <t>WARMING UNIT</t>
+  </si>
+  <si>
+    <t>CHANGSHIN SCIENCE</t>
+  </si>
+  <si>
+    <t>C-SL</t>
+  </si>
+  <si>
+    <t>LAB-PY2-075</t>
+  </si>
+  <si>
+    <t>DB25063014</t>
+  </si>
+  <si>
+    <t>H-19</t>
+  </si>
+  <si>
+    <t>147965</t>
+  </si>
+  <si>
+    <t>LAB-PY2-012</t>
+  </si>
+  <si>
+    <t>CF25063015</t>
+  </si>
+  <si>
+    <t>Z-COOL</t>
+  </si>
+  <si>
+    <t>ZCO-2DQ38</t>
+  </si>
+  <si>
+    <t>P1DQ111805018</t>
+  </si>
+  <si>
+    <t>LAB-PY2-051</t>
+  </si>
+  <si>
+    <t>CH25063016</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC510</t>
+  </si>
+  <si>
+    <t>SDC1500-190900947</t>
+  </si>
+  <si>
+    <t>LAB-PY2-047</t>
+  </si>
+  <si>
+    <t>CH25063017</t>
+  </si>
+  <si>
+    <t>FIOCCHETTI SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>73328</t>
+  </si>
+  <si>
+    <t>LAB -PY2-057</t>
+  </si>
+  <si>
+    <t>CH25063018</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MPR311D</t>
+  </si>
+  <si>
+    <t>30901270</t>
+  </si>
+  <si>
+    <t>LAB-PY2-038</t>
+  </si>
+  <si>
+    <t>CH25063019</t>
+  </si>
+  <si>
+    <t>LAB-PY2-002</t>
+  </si>
+  <si>
+    <t>CF25063020</t>
+  </si>
+  <si>
+    <t>MDC290</t>
+  </si>
+  <si>
+    <t>MDC290-202203009</t>
+  </si>
+  <si>
+    <t>LAB-PY2-042</t>
+  </si>
+  <si>
+    <t>CH25063021</t>
+  </si>
+  <si>
+    <t>STERILIZING UNIT</t>
+  </si>
+  <si>
+    <t>APPLIED MEDIC</t>
+  </si>
+  <si>
+    <t>MC-160C</t>
+  </si>
+  <si>
+    <t>48001</t>
+  </si>
+  <si>
+    <t>LAB-PY2-062</t>
+  </si>
+  <si>
+    <t>ยกเลิก (ไม่ใช้งาน)</t>
+  </si>
+  <si>
+    <t>131885</t>
+  </si>
+  <si>
+    <t>LAB-PY2-001</t>
+  </si>
+  <si>
+    <t>CF25063023</t>
+  </si>
+  <si>
+    <t>KUBOTA</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>F31266-M000</t>
+  </si>
+  <si>
+    <t>LAB-PY2-004</t>
+  </si>
+  <si>
+    <t>CF25063024</t>
+  </si>
+  <si>
+    <t>SDC1000103A051100216</t>
+  </si>
+  <si>
+    <t>LAB-PY2-049</t>
+  </si>
+  <si>
+    <t>CH25063025</t>
+  </si>
+  <si>
+    <t>JOUAN</t>
+  </si>
+  <si>
+    <t>EB115</t>
+  </si>
+  <si>
+    <t>LAB-PY2-059</t>
+  </si>
+  <si>
+    <t>CH25063026</t>
+  </si>
+  <si>
+    <t>ULE 600</t>
+  </si>
+  <si>
+    <t>E810.0204</t>
+  </si>
+  <si>
+    <t>LAB-PY2-060</t>
+  </si>
+  <si>
+    <t>CH25063027</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>A13886</t>
+  </si>
+  <si>
+    <t>LAB-PY2-003</t>
+  </si>
+  <si>
+    <t>CF25063028</t>
+  </si>
+  <si>
+    <t>ss09002</t>
+  </si>
+  <si>
+    <t>LAB-PY2-085</t>
+  </si>
+  <si>
+    <t>PM ONLY</t>
+  </si>
+  <si>
+    <t>MIXER</t>
+  </si>
+  <si>
+    <t>VISION SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>KMC-1300V</t>
+  </si>
+  <si>
+    <t>E18111GB0025</t>
+  </si>
+  <si>
+    <t>LAB-PY2-084</t>
+  </si>
+  <si>
+    <t>BUNSEN BURNER</t>
+  </si>
+  <si>
+    <t>TECHNOMARA AG</t>
+  </si>
+  <si>
+    <t>FIRE BOY</t>
+  </si>
+  <si>
+    <t>LAB-PY2-086</t>
+  </si>
+  <si>
+    <t>INTEGRA BIOSCIENCES</t>
+  </si>
+  <si>
+    <t>IFIREBOY ECO</t>
+  </si>
+  <si>
+    <t>04164</t>
+  </si>
+  <si>
+    <t>LAB-PY2-088</t>
+  </si>
+  <si>
+    <t>SHAKER</t>
+  </si>
+  <si>
+    <t>STUART</t>
+  </si>
+  <si>
+    <t>CB162</t>
+  </si>
+  <si>
+    <t>R000113850</t>
+  </si>
+  <si>
+    <t>LAB-PY2-081</t>
+  </si>
+  <si>
+    <t>SHARP</t>
+  </si>
+  <si>
+    <t>SJ-D58L-BL</t>
+  </si>
+  <si>
+    <t>T091201781</t>
+  </si>
+  <si>
+    <t>LAB-PY2-040</t>
+  </si>
+  <si>
+    <t>CH25063029/ CH25063030</t>
+  </si>
+  <si>
+    <t>WEIGHT SCALE</t>
+  </si>
+  <si>
+    <t>EXCELL</t>
+  </si>
+  <si>
+    <t>DOLPHIN 9903-3</t>
+  </si>
+  <si>
+    <t>0-4-247-45</t>
+  </si>
+  <si>
+    <t>LAB-PY2-077</t>
+  </si>
+  <si>
+    <t>EB25063031</t>
+  </si>
+  <si>
+    <t>R000114080</t>
+  </si>
+  <si>
+    <t>LAB-PY2-080</t>
+  </si>
+  <si>
+    <t>READERS STERILIZATION</t>
+  </si>
+  <si>
+    <t>MESALABS</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>ET22041254</t>
+  </si>
+  <si>
+    <t>LAB-PY2-146</t>
+  </si>
+  <si>
+    <t>DB25063032</t>
+  </si>
+  <si>
+    <t>VB19AAK0004028</t>
+  </si>
+  <si>
+    <t>LAB-PY2-145</t>
+  </si>
+  <si>
+    <t>THERMOMETER</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>PYT2_09978</t>
+  </si>
+  <si>
+    <t>ANALYZER</t>
+  </si>
+  <si>
+    <t>ZEST-MED</t>
+  </si>
+  <si>
+    <t>G-6-PD</t>
+  </si>
+  <si>
+    <t>72V52051T0842</t>
+  </si>
+  <si>
+    <t>LAB-PY2-143</t>
+  </si>
+  <si>
+    <t>DIAMED</t>
+  </si>
+  <si>
+    <t>ID-INCUBATOR 37 SI</t>
+  </si>
+  <si>
+    <t>1003785</t>
+  </si>
+  <si>
+    <t>LAB-PY2-135</t>
+  </si>
+  <si>
+    <t>DB25063034</t>
+  </si>
+  <si>
+    <t>ID-CENTRIFUGE 24 S</t>
+  </si>
+  <si>
+    <t>51604</t>
+  </si>
+  <si>
+    <t>LAB-PY2-134</t>
+  </si>
+  <si>
+    <t>CF25063035</t>
+  </si>
+  <si>
+    <t>LAB-PY2-144</t>
+  </si>
+  <si>
+    <t>TOMY</t>
+  </si>
+  <si>
+    <t>SX-700E</t>
+  </si>
+  <si>
+    <t>58128025</t>
+  </si>
+  <si>
+    <t>LAB-PY2-164</t>
+  </si>
+  <si>
+    <t>AC25063037</t>
+  </si>
+  <si>
+    <t>IMB</t>
+  </si>
+  <si>
+    <t>CLIMAX 120</t>
+  </si>
+  <si>
+    <t>60929</t>
+  </si>
+  <si>
+    <t>LAB-PY2-137</t>
+  </si>
+  <si>
+    <t>CH25063038</t>
+  </si>
+  <si>
+    <t>SHERWOOD MEDICAL</t>
+  </si>
+  <si>
+    <t>OXFORD</t>
+  </si>
+  <si>
+    <t>K0314033</t>
+  </si>
+  <si>
+    <t>LAB-PY2-148</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>HKT-430B</t>
+  </si>
+  <si>
+    <t>2007494</t>
+  </si>
+  <si>
+    <t>LAB-PY2-163</t>
+  </si>
+  <si>
+    <t>CF25063039</t>
+  </si>
+  <si>
+    <t>T-SCALE</t>
+  </si>
+  <si>
+    <t>NHB-6000</t>
+  </si>
+  <si>
+    <t>LAB-PY2-079</t>
+  </si>
+  <si>
+    <t>EB25063040</t>
+  </si>
+  <si>
+    <t>IN260</t>
+  </si>
+  <si>
+    <t>D619.0252</t>
+  </si>
+  <si>
+    <t>LAB-PY2-061</t>
+  </si>
+  <si>
+    <t>CH25063041</t>
+  </si>
+  <si>
+    <t>SK-O180-S</t>
+  </si>
+  <si>
+    <t>SN185AG0000053</t>
+  </si>
+  <si>
+    <t>LAB-PY2-076</t>
+  </si>
+  <si>
+    <t>CF25063042</t>
+  </si>
+  <si>
+    <t>TS-100</t>
+  </si>
+  <si>
+    <t>430802057</t>
+  </si>
+  <si>
+    <t>LAB-PY2-074</t>
+  </si>
+  <si>
+    <t>DB25063043</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC INDUSTRIES</t>
+  </si>
+  <si>
+    <t>VORTEX-GENIE 2</t>
+  </si>
+  <si>
+    <t>2-124520</t>
+  </si>
+  <si>
+    <t>LAB-PY2-083</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>R-80WMS</t>
+  </si>
+  <si>
+    <t>4160501170</t>
+  </si>
+  <si>
+    <t>LAB-PY2-054</t>
+  </si>
+  <si>
+    <t>CH25063045</t>
+  </si>
+  <si>
+    <t>HOTAIR OVEN</t>
+  </si>
+  <si>
+    <t>UNB 500</t>
+  </si>
+  <si>
+    <t>C508-0097</t>
+  </si>
+  <si>
+    <t>LAB-PY2-064</t>
+  </si>
+  <si>
+    <t>CH25063046</t>
+  </si>
+  <si>
+    <t>HS-12</t>
+  </si>
+  <si>
+    <t>LAB-PY2-008</t>
+  </si>
+  <si>
+    <t>CF25063047</t>
+  </si>
+  <si>
+    <t>147966</t>
+  </si>
+  <si>
+    <t>LAB-PY2-005</t>
+  </si>
+  <si>
+    <t>CH25063048</t>
+  </si>
+  <si>
+    <t>H1200F</t>
+  </si>
+  <si>
+    <t>147726</t>
+  </si>
+  <si>
+    <t>LAB-PY2-011</t>
+  </si>
+  <si>
+    <t>ยกเลิก  (เครื่องเสีย รอซ่อม)</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MBR-107DH</t>
+  </si>
+  <si>
+    <t>19030031</t>
+  </si>
+  <si>
+    <t>LAB-PY2-056</t>
+  </si>
+  <si>
+    <t>CH25063050</t>
+  </si>
+  <si>
+    <t>153017</t>
+  </si>
+  <si>
+    <t>LAB-PY2-006</t>
+  </si>
+  <si>
+    <t>CF25063051</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>MR-F45S-SL</t>
+  </si>
+  <si>
+    <t>LAB-PY2-041</t>
+  </si>
+  <si>
+    <t>CH25063052 / CH25063053</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>EBA 200S</t>
+  </si>
+  <si>
+    <t>0001066-03</t>
+  </si>
+  <si>
+    <t>LAB-PY2-013</t>
+  </si>
+  <si>
+    <t>CF25063054</t>
+  </si>
+  <si>
+    <t>MBR-705GR-PE</t>
+  </si>
+  <si>
+    <t>2180086</t>
+  </si>
+  <si>
+    <t>LAB-PY2-058</t>
+  </si>
+  <si>
+    <t>CH25063055</t>
+  </si>
+  <si>
+    <t>SEALER MACHINE</t>
+  </si>
+  <si>
+    <t>CENTRON</t>
+  </si>
+  <si>
+    <t>SE250</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>LAB -PY2-089</t>
+  </si>
+  <si>
+    <t>SDC-1500AY</t>
+  </si>
+  <si>
+    <t>SDC1500103A070200238</t>
+  </si>
+  <si>
+    <t>LAB-PY2-046</t>
+  </si>
+  <si>
+    <t>CH25063056</t>
+  </si>
+  <si>
+    <t>SDC1000102A050902095</t>
+  </si>
+  <si>
+    <t>LAB-PY2-044</t>
+  </si>
+  <si>
+    <t>CH25063057</t>
+  </si>
+  <si>
+    <t>THERMO ELECTRON CORPORATION</t>
+  </si>
+  <si>
+    <t>8619</t>
+  </si>
+  <si>
+    <t>LAB-PY2-053</t>
+  </si>
+  <si>
+    <t>DIACENT-12</t>
+  </si>
+  <si>
+    <t>1000564</t>
+  </si>
+  <si>
+    <t>LAB-PY2-007</t>
+  </si>
+  <si>
+    <t>CF25063059</t>
+  </si>
+  <si>
+    <t>SDC1500103A-0605-01160</t>
+  </si>
+  <si>
+    <t>LAB-PY2-039</t>
+  </si>
+  <si>
+    <t>CH25063060</t>
+  </si>
+  <si>
+    <t>HOT PLATES</t>
+  </si>
+  <si>
+    <t>EGO</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>LAB-PY2-091</t>
+  </si>
+  <si>
+    <t>MDF-U333</t>
+  </si>
+  <si>
+    <t>10400615</t>
+  </si>
+  <si>
+    <t>LAB-PY2-048</t>
+  </si>
+  <si>
+    <t>CH25063061</t>
+  </si>
+  <si>
+    <t>BRANDT</t>
+  </si>
+  <si>
+    <t>UD2720</t>
+  </si>
+  <si>
+    <t>C54229</t>
+  </si>
+  <si>
+    <t>LAB-PY2-045</t>
+  </si>
+  <si>
+    <t>CH25063062</t>
+  </si>
+  <si>
+    <t>NR-490020</t>
+  </si>
+  <si>
+    <t>LAB-PY2-043</t>
+  </si>
+  <si>
+    <t>CH25063063</t>
+  </si>
+  <si>
+    <t>SEVERIN</t>
+  </si>
+  <si>
+    <t>KS 9890</t>
+  </si>
+  <si>
+    <t>10039</t>
+  </si>
+  <si>
+    <t>LAB-PY2-052</t>
+  </si>
+  <si>
+    <t>CH25063064</t>
+  </si>
+  <si>
+    <t>OS-32L</t>
+  </si>
+  <si>
+    <t>807714</t>
+  </si>
+  <si>
+    <t>LAB-PY2-063</t>
+  </si>
+  <si>
+    <t>AC25063065</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>M86738M000</t>
+  </si>
+  <si>
+    <t>LAB-PY2-010</t>
+  </si>
+  <si>
+    <t>CF25063066</t>
+  </si>
+  <si>
+    <t>P2DQ381910004</t>
+  </si>
+  <si>
+    <t>LAB-PY2-055</t>
+  </si>
+  <si>
+    <t>CH25063067</t>
+  </si>
+  <si>
+    <t>2002571</t>
+  </si>
+  <si>
+    <t>LAB-PY2-009</t>
+  </si>
+  <si>
+    <t>CF25063068</t>
+  </si>
+  <si>
+    <t>Q.NIC</t>
+  </si>
+  <si>
+    <t>SW-4</t>
+  </si>
+  <si>
+    <t>LAB-PYT2-087</t>
+  </si>
+  <si>
+    <t>DB25063161</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT READER</t>
+  </si>
+  <si>
+    <t>PYT2-09956</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
   </si>
 </sst>
 </file>
@@ -1109,17 +1202,7 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1438,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A71" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1483,184 +1566,184 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F2" s="15">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="D3" s="13">
+        <v>161024</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F3" s="15">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F4" s="15">
-        <v>45846</v>
+        <v>45827</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F5" s="15">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F6" s="15">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="13">
-        <v>144108</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F7" s="15">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F8" s="15">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1668,77 +1751,75 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="13">
+        <v>131886</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F9" s="15">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="13">
-        <v>143628</v>
+        <v>101</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="F10" s="15">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="13">
-        <v>150454</v>
+        <v>107</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="15">
-        <v>45855</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1746,25 +1827,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F12" s="15">
-        <v>45854</v>
+        <v>45827</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1772,103 +1853,103 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F13" s="15">
-        <v>45854</v>
+        <v>45827</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F14" s="15">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="13">
-        <v>42650895</v>
+        <v>123</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="F15" s="15">
-        <v>45854</v>
+        <v>45824</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F16" s="15">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1876,25 +1957,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="13">
-        <v>142061</v>
+        <v>130</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F17" s="15">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1902,337 +1983,337 @@
         <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="13">
-        <v>154320</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F18" s="15">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="13">
-        <v>147954</v>
+        <v>139</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="F19" s="15">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>79</v>
+        <v>144</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1090</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F20" s="15">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="13">
-        <v>136839</v>
+        <v>147</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F21" s="15">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="13">
-        <v>142063</v>
+        <v>152</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="F22" s="15">
-        <v>45846</v>
+        <v>45828</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1268314</v>
+        <v>156</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="F23" s="15">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="F24" s="15">
-        <v>45853</v>
+        <v>45828</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="F25" s="15">
-        <v>45856</v>
+        <v>45828</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="F26" s="15">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="F27" s="15">
-        <v>45856</v>
+        <v>45827</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="F28" s="15">
-        <v>45855</v>
+        <v>0</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F29" s="15">
-        <v>45854</v>
+        <v>45828</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
@@ -2240,1273 +2321,1269 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <v>141790</v>
+        <v>189</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="F31" s="2">
-        <v>45854</v>
+        <v>45824</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="1">
-        <v>610563</v>
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="F32" s="2">
-        <v>45856</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
-        <v>143948</v>
+        <v>195</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="F33" s="2">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="F34" s="2">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>45827</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>45827</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="F37" s="2">
-        <v>45852</v>
+        <v>45828</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="F38" s="2">
-        <v>45852</v>
+        <v>45824</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="F39" s="2">
-        <v>45852</v>
+        <v>45827</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="1">
-        <v>12006014</v>
+        <v>225</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="F40" s="7">
-        <v>45852</v>
+        <v>45824</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="1">
-        <v>12023221</v>
+        <v>230</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="F41" s="7">
-        <v>45852</v>
+        <v>45827</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="F42" s="7">
-        <v>45852</v>
+        <v>45824</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="F43" s="7">
-        <v>45852</v>
+        <v>45824</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>243</v>
+      </c>
+      <c r="D44" s="1">
+        <v>150126</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F44" s="7">
-        <v>45855</v>
+        <v>45827</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="F45" s="7">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="7">
-        <v>45847</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="2" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="F47" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="1">
-        <v>969860</v>
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="F48" s="7">
-        <v>45846</v>
+        <v>45827</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="D49" s="1">
-        <v>982979</v>
+        <v>61001140</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="F49" s="7">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2072055</v>
+        <v>266</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="F50" s="7">
-        <v>45846</v>
+        <v>45827</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1001328</v>
+        <v>270</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="F51" s="7">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1110083</v>
+        <v>276</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="F52" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="1">
-        <v>82174</v>
+        <v>279</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="F53" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1000304</v>
+        <v>67</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="F54" s="7">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="7">
-        <v>45854</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="2" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="F56" s="7">
-        <v>45853</v>
+        <v>45824</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="F57" s="7">
-        <v>45854</v>
+        <v>45824</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="1">
-        <v>17070022</v>
+        <v>298</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="F58" s="7">
-        <v>45846</v>
+        <v>45828</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="1">
-        <v>17070024</v>
+        <v>300</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="F59" s="7">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60" s="1">
-        <v>16070029</v>
+        <v>305</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="F60" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="32.4" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="F61" s="7">
-        <v>45846</v>
+        <v>45824</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="32.4" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="1">
-        <v>975692</v>
+        <v>313</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="F62" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="1">
-        <v>17060031</v>
+        <v>317</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="F63" s="7">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="1">
-        <v>20184955270</v>
+        <v>321</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="F64" s="7">
-        <v>45846</v>
+        <v>45827</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="F65" s="7">
-        <v>45854</v>
+        <v>45824</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="F66" s="7">
-        <v>45856</v>
+        <v>45824</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>332</v>
+      </c>
+      <c r="D67" s="1">
+        <v>33041158</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="F67" s="7">
-        <v>45855</v>
+        <v>45824</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="1">
-        <v>306914</v>
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="F68" s="7">
-        <v>45852</v>
+        <v>45828</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="F69" s="7">
         <v>45856</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="F70" s="7">
         <v>45856</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="F71" s="7">
         <v>45854</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="F72" s="7">
         <v>45847</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="F73" s="7">
         <v>45852</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="32.4" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>269</v>
+        <v>38</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>278</v>
+        <v>47</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="F74" s="7">
         <v>45852</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="32.4" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="F75" s="7">
         <v>45855</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="32.4" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>286</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="F76" s="7">
         <v>45855</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="32.4" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="F77" s="7">
         <v>45855</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="32.4" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>286</v>
+        <v>55</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="F78" s="7">
         <v>45853</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="32.4" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="F79" s="7">
         <v>45853</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="32.4" customHeight="1">
@@ -3672,7 +3749,7 @@
   </sheetData>
   <autoFilter ref="A1:H95" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54771C86-D417-4F7D-8C46-57FD81D2D3EC}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8BCD1D-D14C-4FEE-8B7A-FB71D6A97FA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,19 +633,19 @@
     <t>MCH01808</t>
   </si>
   <si>
-    <t>CF25063084 เพิ่ม</t>
-  </si>
-  <si>
     <t>9305/ 18</t>
   </si>
   <si>
     <t>MCH00614</t>
   </si>
   <si>
-    <t>CF25063120 เพิ่ม</t>
-  </si>
-  <si>
     <t>MAE CHAN HOSPITAL</t>
+  </si>
+  <si>
+    <t>CF25063084</t>
+  </si>
+  <si>
+    <t>CF25063120</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B47" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1182,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1208,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1234,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1286,7 +1286,7 @@
         <v>41</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1338,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1364,7 +1364,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1390,7 +1390,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1416,7 +1416,7 @@
         <v>62</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1442,7 +1442,7 @@
         <v>67</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1468,7 +1468,7 @@
         <v>67</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1494,7 +1494,7 @@
         <v>73</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1520,7 +1520,7 @@
         <v>77</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1546,7 +1546,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1572,7 +1572,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1598,7 +1598,7 @@
         <v>85</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1624,7 +1624,7 @@
         <v>88</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1650,7 +1650,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1676,7 +1676,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1702,7 +1702,7 @@
         <v>97</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1728,7 +1728,7 @@
         <v>101</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1754,7 +1754,7 @@
         <v>104</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1780,7 +1780,7 @@
         <v>109</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1806,7 +1806,7 @@
         <v>113</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1832,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1858,7 +1858,7 @@
         <v>67</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
@@ -1884,7 +1884,7 @@
         <v>67</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -1910,7 +1910,7 @@
         <v>128</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
@@ -1936,7 +1936,7 @@
         <v>133</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
@@ -1962,7 +1962,7 @@
         <v>93</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -1988,7 +1988,7 @@
         <v>138</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
@@ -2014,7 +2014,7 @@
         <v>67</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
@@ -2040,7 +2040,7 @@
         <v>67</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
@@ -2066,7 +2066,7 @@
         <v>145</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
@@ -2092,7 +2092,7 @@
         <v>150</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
@@ -2118,7 +2118,7 @@
         <v>154</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
@@ -2144,7 +2144,7 @@
         <v>67</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
@@ -2170,7 +2170,7 @@
         <v>67</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
@@ -2196,7 +2196,7 @@
         <v>67</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
@@ -2222,7 +2222,7 @@
         <v>67</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
@@ -2248,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
@@ -2274,7 +2274,7 @@
         <v>166</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
@@ -2300,7 +2300,7 @@
         <v>166</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
@@ -2326,7 +2326,7 @@
         <v>173</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
@@ -2352,7 +2352,7 @@
         <v>67</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
@@ -2378,7 +2378,7 @@
         <v>67</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
@@ -2404,7 +2404,7 @@
         <v>67</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
@@ -2430,7 +2430,7 @@
         <v>67</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
@@ -2456,7 +2456,7 @@
         <v>183</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
@@ -2482,7 +2482,7 @@
         <v>67</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
@@ -2508,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
@@ -2534,7 +2534,7 @@
         <v>190</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
@@ -2560,7 +2560,7 @@
         <v>195</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
@@ -2583,10 +2583,10 @@
         <v>45826</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
@@ -2600,19 +2600,19 @@
         <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F57" s="7">
         <v>45826</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D022BC01-F4FF-4315-9746-39FB8556F195}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE967845-8E91-4D77-A45E-FB5EC21CFBA4}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
   <si>
     <t>ID No.</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>LEAMCHABANG HOSPITAL</t>
+  </si>
+  <si>
+    <t>CF25073633</t>
   </si>
 </sst>
 </file>
@@ -930,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1615,7 +1618,7 @@
         <v>45845</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>140</v>
@@ -1639,6 +1642,9 @@
       </c>
       <c r="F27" s="15">
         <v>45845</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>140</v>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE967845-8E91-4D77-A45E-FB5EC21CFBA4}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11E30C0-D595-4C8C-BAC7-353999D1A712}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t>ID No.</t>
   </si>
@@ -96,24 +96,6 @@
     <t>HAEMATOKRIT 200</t>
   </si>
   <si>
-    <t>MIXER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCIENTIFIC INDUSTRIES  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VORTEX-GENIE 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E-163863  </t>
-  </si>
-  <si>
-    <t>LCB00717 (6516-004-0004/1/54)</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">WISD  </t>
   </si>
   <si>
@@ -129,39 +111,6 @@
     <t>WB25073613</t>
   </si>
   <si>
-    <t>MICROSCOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPUS  </t>
-  </si>
-  <si>
-    <t>CX31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1J08060 </t>
-  </si>
-  <si>
-    <t>LCB00709 (6550-002-0001/5/56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CX31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6J40217  </t>
-  </si>
-  <si>
-    <t>LCB00708 (6515-034-0104/9/2560)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4C41217  </t>
-  </si>
-  <si>
-    <t>LCB00706 (6550-002-0001/6/57)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BIOBASE </t>
   </si>
   <si>
@@ -204,12 +153,6 @@
     <t>MPRO</t>
   </si>
   <si>
-    <t>LCB01313 (-)</t>
-  </si>
-  <si>
-    <t>3617 เสีย</t>
-  </si>
-  <si>
     <t>MEDFUTURE</t>
   </si>
   <si>
@@ -240,18 +183,6 @@
     <t>CF25073619</t>
   </si>
   <si>
-    <t>102MD019419</t>
-  </si>
-  <si>
-    <t>LCB01783 (-)</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>3620 (ยกเลิก)(จำหน่าย)</t>
-  </si>
-  <si>
     <t xml:space="preserve">KOKUSAN </t>
   </si>
   <si>
@@ -361,12 +292,6 @@
   </si>
   <si>
     <t>CH25073629</t>
-  </si>
-  <si>
-    <t>0001552-02</t>
-  </si>
-  <si>
-    <t>LCB00129 (-)</t>
   </si>
   <si>
     <t>NUVE</t>
@@ -556,7 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,13 +502,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,16 +514,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -943,928 +859,818 @@
     <col min="2" max="2" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="50.4" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="50.4" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="D4" s="14">
+        <v>113757</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="F4" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="H4" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="D5" s="14">
+        <v>9000040317</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="H5" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14">
+        <v>132428</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14">
+        <v>149284</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="13">
-        <v>113757</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="13">
-        <v>9000040317</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="E15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="13">
-        <v>132428</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="H16" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="13">
-        <v>149284</v>
+      <c r="C17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="F17" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="H17" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="H18" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14">
+        <v>1708605</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="F20" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="H20" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F21" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="H21" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="F22" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="H22" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="D23" s="14">
+        <v>155270</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="F23" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="14">
+        <v>155271</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="13">
-        <v>3630</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="F24" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="H24" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="14">
+        <v>155268</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F25" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="H25" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="14">
+        <v>155269</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F26" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1708605</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="15">
-        <v>45846</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="16" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="15">
-        <v>45845</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="H26" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="1">
-        <v>155270</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="1">
-        <v>155271</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="1">
-        <v>155268</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="1">
-        <v>155269</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45845</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>140</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="13"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
       <c r="A40" s="1"/>
@@ -1872,9 +1678,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
       <c r="A41" s="1"/>
@@ -1882,9 +1688,9 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
       <c r="A42" s="1"/>
@@ -1892,9 +1698,9 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
       <c r="A43" s="1"/>
@@ -1902,9 +1708,9 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
       <c r="A44" s="1"/>
@@ -1912,9 +1718,9 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
       <c r="A45" s="1"/>
@@ -1922,9 +1728,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="13"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
       <c r="A46" s="1"/>
@@ -1932,9 +1738,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="13"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
       <c r="A47" s="1"/>
@@ -1942,9 +1748,9 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
       <c r="A48" s="1"/>
@@ -1952,9 +1758,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="13"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
       <c r="A49" s="1"/>
@@ -1962,9 +1768,9 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="13"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
       <c r="A50" s="1"/>
@@ -1972,9 +1778,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
       <c r="A51" s="1"/>
@@ -1982,9 +1788,9 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="13"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
       <c r="A52" s="1"/>
@@ -1992,9 +1798,9 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="13"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
       <c r="A53" s="1"/>
@@ -2002,9 +1808,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="13"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
       <c r="A54" s="1"/>
@@ -2012,9 +1818,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="13"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
       <c r="A55" s="1"/>
@@ -2022,9 +1828,9 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
       <c r="A56" s="1"/>
@@ -2032,9 +1838,9 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="13"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
       <c r="A57" s="1"/>
@@ -2042,9 +1848,9 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
       <c r="A58" s="1"/>
@@ -2052,9 +1858,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
       <c r="A59" s="1"/>
@@ -2062,9 +1868,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="13"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
       <c r="A60" s="1"/>
@@ -2072,9 +1878,9 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="13"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="32.4" customHeight="1">
       <c r="A61" s="1"/>
@@ -2082,9 +1888,9 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="13"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" ht="32.4" customHeight="1">
       <c r="A62" s="1"/>
@@ -2092,9 +1898,9 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="13"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
       <c r="A63" s="1"/>
@@ -2102,9 +1908,9 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="13"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
       <c r="A64" s="1"/>
@@ -2112,9 +1918,9 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="13"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
       <c r="A65" s="1"/>
@@ -2122,9 +1928,9 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="13"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
       <c r="A66" s="1"/>
@@ -2132,9 +1938,9 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="13"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
       <c r="A67" s="1"/>
@@ -2142,9 +1948,9 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
       <c r="A68" s="1"/>
@@ -2152,9 +1958,9 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
       <c r="A69" s="1"/>
@@ -2162,9 +1968,9 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="13"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
       <c r="A70" s="1"/>
@@ -2172,9 +1978,9 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
       <c r="A71" s="1"/>
@@ -2182,9 +1988,9 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="13"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
       <c r="A72" s="1"/>
@@ -2192,9 +1998,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
       <c r="A73" s="1"/>
@@ -2202,9 +2008,9 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="13"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="32.4" customHeight="1">
       <c r="A74" s="1"/>
@@ -2212,9 +2018,9 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="13"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="32.4" customHeight="1">
       <c r="A75" s="1"/>
@@ -2222,9 +2028,9 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="13"/>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="32.4" customHeight="1">
       <c r="A76" s="1"/>
@@ -2232,9 +2038,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="13"/>
+      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="32.4" customHeight="1">
       <c r="A77" s="1"/>
@@ -2242,9 +2048,9 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="13"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="32.4" customHeight="1">
       <c r="A78" s="1"/>
@@ -2252,9 +2058,9 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="13"/>
+      <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="32.4" customHeight="1">
       <c r="A79" s="1"/>
@@ -2262,9 +2068,9 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="13"/>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="32.4" customHeight="1">
       <c r="A80" s="1"/>
@@ -2272,7 +2078,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
@@ -2282,7 +2088,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
@@ -2292,7 +2098,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
     </row>
@@ -2302,7 +2108,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="1"/>
     </row>
@@ -2312,7 +2118,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
@@ -2322,7 +2128,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
@@ -2332,7 +2138,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
@@ -2342,7 +2148,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="1"/>
     </row>
@@ -2352,82 +2158,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H95" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H88" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11E30C0-D595-4C8C-BAC7-353999D1A712}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487F68B0-03C1-4934-A58F-BB55F7DD27ED}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>ID No.</t>
   </si>
@@ -63,331 +63,100 @@
     <t>Calibration Date</t>
   </si>
   <si>
-    <t>CENTRIFUGE</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>FREEZER</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>GEMMY</t>
-  </si>
-  <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>HAEMATOKRIT 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WISD  </t>
-  </si>
-  <si>
-    <t>WCB-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040066S1417001  </t>
-  </si>
-  <si>
-    <t>LCB00714 (6515-047-0001/3/58)</t>
-  </si>
-  <si>
-    <t>WB25073613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOBASE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTM-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSCR17121193803 </t>
-  </si>
-  <si>
-    <t>LCB00687 (6530-004-0012/1/38)</t>
-  </si>
-  <si>
-    <t>WB25073614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRN-360 </t>
-  </si>
-  <si>
-    <t>LCB00661 (6515-098-0001/1)</t>
-  </si>
-  <si>
-    <t>CF25073615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAMED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID-INCUBATOR 37 SI </t>
-  </si>
-  <si>
-    <t>LCB00658 (6515-047-001/3/58)</t>
-  </si>
-  <si>
-    <t>DB25073616</t>
-  </si>
-  <si>
-    <t>MEDICAL COOL PRO</t>
-  </si>
-  <si>
-    <t>MPRO</t>
-  </si>
-  <si>
-    <t>MEDFUTURE</t>
-  </si>
-  <si>
-    <t>XC-358L</t>
-  </si>
-  <si>
-    <t>1L216000201HD0LFD4S0001</t>
-  </si>
-  <si>
-    <t>LCB02115 (6515-093-0001/6/64)</t>
-  </si>
-  <si>
-    <t>CH25073618</t>
-  </si>
-  <si>
-    <t>MPW</t>
-  </si>
-  <si>
-    <t>M-DIAGNOSTIC</t>
-  </si>
-  <si>
-    <t>102MD019319</t>
-  </si>
-  <si>
-    <t>LCB01784 (6510-014-0003/25/62)</t>
-  </si>
-  <si>
-    <t>CF25073619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOKUSAN </t>
-  </si>
-  <si>
-    <t>H-11NC</t>
-  </si>
-  <si>
-    <t>LCB00685 (6515-014-0003/30/64)</t>
-  </si>
-  <si>
-    <t>CF25073621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCILOGEX  </t>
-  </si>
-  <si>
-    <t>DM1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM6I001212  </t>
-  </si>
-  <si>
-    <t>LCB00683 (6510-014-0004/4/59)</t>
-  </si>
-  <si>
-    <t>CF25073622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOECO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC-240 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000277-00  </t>
-  </si>
-  <si>
-    <t>LCB00682 (6515-014-0003/19/58)</t>
-  </si>
-  <si>
-    <t>CF25073623</t>
-  </si>
-  <si>
-    <t>H-11NB</t>
-  </si>
-  <si>
-    <t>LCB00681 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENCE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">XKA-2200 </t>
-  </si>
-  <si>
-    <t>18600015110303</t>
-  </si>
-  <si>
-    <t>LCB00660 (6515-014-0003/20/59)</t>
-  </si>
-  <si>
-    <t>CF25073625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAIER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HXC-358 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE06NSE1T00QJH5D0003 </t>
-  </si>
-  <si>
-    <t>LCB00655 (6515-093-0001/5/2560)</t>
-  </si>
-  <si>
-    <t>CH25073626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DW-40L508 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE05T7E1T00QEF3B0001 </t>
-  </si>
-  <si>
-    <t>LCB00654 (6515-038-2302/4/60)</t>
-  </si>
-  <si>
-    <t>CH25073627</t>
-  </si>
-  <si>
-    <t>LCB02811 (4110-007-0003/5/64)</t>
-  </si>
-  <si>
-    <t>CH25073628</t>
-  </si>
-  <si>
-    <t>2075-13</t>
-  </si>
-  <si>
-    <t>0010457-01-00</t>
-  </si>
-  <si>
-    <t>LCB00277 (6515-014-0003/11/41)</t>
-  </si>
-  <si>
-    <t>CH25073629</t>
-  </si>
-  <si>
-    <t>NUVE</t>
-  </si>
-  <si>
-    <t>NF 480</t>
-  </si>
-  <si>
-    <t>01-2577</t>
-  </si>
-  <si>
-    <t>LCB00403 (6515-014-0003/17/56)</t>
-  </si>
-  <si>
-    <t>CF25073631</t>
-  </si>
-  <si>
-    <t>0001084-02</t>
-  </si>
-  <si>
-    <t>LCB01312 (-)</t>
-  </si>
-  <si>
-    <t>CF25073632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KK </t>
-  </si>
-  <si>
-    <t>KHT-400</t>
-  </si>
-  <si>
-    <t>LCB01645 (6515-014-0003/23/61)</t>
-  </si>
-  <si>
-    <t>0001373-03</t>
-  </si>
-  <si>
-    <t>LCB02228 (6510-014-0004/5/64)</t>
-  </si>
-  <si>
-    <t>CF25073634</t>
-  </si>
-  <si>
-    <t>0001540-02</t>
-  </si>
-  <si>
-    <t>LCB01207 (6515-014-0003/22/60)</t>
-  </si>
-  <si>
-    <t>CF25073635</t>
-  </si>
-  <si>
-    <t>BKC-MH12-B</t>
-  </si>
-  <si>
-    <t>LXJTG12W23030048K</t>
-  </si>
-  <si>
-    <t>LCB03222 (6515-014-0003/31/67)</t>
-  </si>
-  <si>
-    <t>CF25073636</t>
-  </si>
-  <si>
-    <t>H-19 alpha</t>
-  </si>
-  <si>
-    <t>LCB02538 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073637</t>
-  </si>
-  <si>
-    <t>LCB02539 (6515-014-0003/30/64)</t>
-  </si>
-  <si>
-    <t>CF25073638</t>
-  </si>
-  <si>
-    <t>LCB02540 (6515-014-0003/29/64)</t>
-  </si>
-  <si>
-    <t>CF25073639</t>
-  </si>
-  <si>
-    <t>LCB02541 (6515-014-0003/27/64)</t>
-  </si>
-  <si>
-    <t>CF25073640</t>
-  </si>
-  <si>
-    <t>LEAMCHABANG HOSPITAL</t>
-  </si>
-  <si>
-    <t>CF25073633</t>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MPR-1014-PB</t>
+  </si>
+  <si>
+    <t>04537</t>
+  </si>
+  <si>
+    <t>CH25073964</t>
+  </si>
+  <si>
+    <t>MPR-514-PB</t>
+  </si>
+  <si>
+    <t>02789</t>
+  </si>
+  <si>
+    <t>CH25073965</t>
+  </si>
+  <si>
+    <t>04199</t>
+  </si>
+  <si>
+    <t>CH25073966</t>
+  </si>
+  <si>
+    <t>02811</t>
+  </si>
+  <si>
+    <t>CH25073967</t>
+  </si>
+  <si>
+    <t>04317</t>
+  </si>
+  <si>
+    <t>CH25073968</t>
+  </si>
+  <si>
+    <t>04316</t>
+  </si>
+  <si>
+    <t>CH25073969</t>
+  </si>
+  <si>
+    <t>04320</t>
+  </si>
+  <si>
+    <t>CH25073970</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MPR-514-PE</t>
+  </si>
+  <si>
+    <t>05600</t>
+  </si>
+  <si>
+    <t>CH25073971</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MPR-1014</t>
+  </si>
+  <si>
+    <t>02108</t>
+  </si>
+  <si>
+    <t>CH25073972</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC090</t>
+  </si>
+  <si>
+    <t>MDC090-202310027</t>
+  </si>
+  <si>
+    <t>06338</t>
+  </si>
+  <si>
+    <t>CH25073993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNH HOSPITAL </t>
   </si>
 </sst>
 </file>
@@ -481,7 +250,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,9 +288,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -850,7 +616,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -893,654 +659,414 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11">
+        <v>16010007</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11">
+        <v>13040141</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11">
+        <v>14080273</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <v>13070292</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="H5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11">
+        <v>14090386</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F6" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="H6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <v>14110179</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F7" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>14020045</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F8" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="D9" s="11">
+        <v>19020061</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="F9" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14">
-        <v>113757</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="H9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="D10" s="11">
+        <v>11100162</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="F10" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="14">
-        <v>9000040317</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="H10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45849</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="14">
-        <v>132428</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="14">
-        <v>149284</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1708605</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="12">
-        <v>45846</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="14">
-        <v>155270</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="14">
-        <v>155271</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="14">
-        <v>155268</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="14">
-        <v>155269</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{487F68B0-03C1-4934-A58F-BB55F7DD27ED}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FFB613-9276-4540-9042-3510CBF3CE79}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>ID No.</t>
   </si>
@@ -66,97 +66,388 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>MPR-1014-PB</t>
-  </si>
-  <si>
-    <t>04537</t>
-  </si>
-  <si>
-    <t>CH25073964</t>
-  </si>
-  <si>
-    <t>MPR-514-PB</t>
-  </si>
-  <si>
-    <t>02789</t>
-  </si>
-  <si>
-    <t>CH25073965</t>
-  </si>
-  <si>
-    <t>04199</t>
-  </si>
-  <si>
-    <t>CH25073966</t>
-  </si>
-  <si>
-    <t>02811</t>
-  </si>
-  <si>
-    <t>CH25073967</t>
-  </si>
-  <si>
-    <t>04317</t>
-  </si>
-  <si>
-    <t>CH25073968</t>
-  </si>
-  <si>
-    <t>04316</t>
-  </si>
-  <si>
-    <t>CH25073969</t>
-  </si>
-  <si>
-    <t>04320</t>
-  </si>
-  <si>
-    <t>CH25073970</t>
-  </si>
-  <si>
     <t>PHCBI</t>
   </si>
   <si>
-    <t>MPR-514-PE</t>
-  </si>
-  <si>
-    <t>05600</t>
-  </si>
-  <si>
-    <t>CH25073971</t>
-  </si>
-  <si>
-    <t>SANYO</t>
-  </si>
-  <si>
-    <t>MPR-1014</t>
-  </si>
-  <si>
-    <t>02108</t>
-  </si>
-  <si>
-    <t>CH25073972</t>
-  </si>
-  <si>
     <t>MEDICOOL</t>
   </si>
   <si>
-    <t>MDC090</t>
-  </si>
-  <si>
-    <t>MDC090-202310027</t>
-  </si>
-  <si>
-    <t>06338</t>
-  </si>
-  <si>
-    <t>CH25073993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNH HOSPITAL </t>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>TIMER-5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LAB-LRR-002</t>
+  </si>
+  <si>
+    <t>CAL/PM</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>B 30</t>
+  </si>
+  <si>
+    <t>821799</t>
+  </si>
+  <si>
+    <t>LAB-LRR-003</t>
+  </si>
+  <si>
+    <t>CH25073589</t>
+  </si>
+  <si>
+    <t>MDC 330</t>
+  </si>
+  <si>
+    <t>MDC330202207061</t>
+  </si>
+  <si>
+    <t>LAB-LRR-004</t>
+  </si>
+  <si>
+    <t>CH25073590</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>SH SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>SH- WB-11GND</t>
+  </si>
+  <si>
+    <t>220630WB-11GDN</t>
+  </si>
+  <si>
+    <t>LAB-LRR-005</t>
+  </si>
+  <si>
+    <t>WB25073591</t>
+  </si>
+  <si>
+    <t>LAB-LRR-006</t>
+  </si>
+  <si>
+    <t>MDC330-202207062</t>
+  </si>
+  <si>
+    <t>LAB-LRR-007</t>
+  </si>
+  <si>
+    <t>CH25073592</t>
+  </si>
+  <si>
+    <t>CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19 ALPHA</t>
+  </si>
+  <si>
+    <t>156616</t>
+  </si>
+  <si>
+    <t>LAB-LRR-008</t>
+  </si>
+  <si>
+    <t>CF25073593</t>
+  </si>
+  <si>
+    <t>156617</t>
+  </si>
+  <si>
+    <t>LAB-LRR-009</t>
+  </si>
+  <si>
+    <t>CF25073594</t>
+  </si>
+  <si>
+    <t>READERS, MICROHEMATOCRIT</t>
+  </si>
+  <si>
+    <t>KUBOTA</t>
+  </si>
+  <si>
+    <t>LAB-LRR-012</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>SHUKE</t>
+  </si>
+  <si>
+    <t>TD-4Z</t>
+  </si>
+  <si>
+    <t>21111108</t>
+  </si>
+  <si>
+    <t>LAB-LRR-013</t>
+  </si>
+  <si>
+    <t>CF25073596</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>H-1200F</t>
+  </si>
+  <si>
+    <t>154343</t>
+  </si>
+  <si>
+    <t>LAB-LRR-014</t>
+  </si>
+  <si>
+    <t>CF25073597</t>
+  </si>
+  <si>
+    <t>VOTEX MIXER</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>MX-S</t>
+  </si>
+  <si>
+    <t>VB222AQ0001137</t>
+  </si>
+  <si>
+    <t>LAB-LRR-015</t>
+  </si>
+  <si>
+    <t>CELL COUNTING</t>
+  </si>
+  <si>
+    <t>DIGICOUNT</t>
+  </si>
+  <si>
+    <t>DC-10</t>
+  </si>
+  <si>
+    <t>2101098</t>
+  </si>
+  <si>
+    <t>LAB-LRR-017</t>
+  </si>
+  <si>
+    <t>HOT PLATE</t>
+  </si>
+  <si>
+    <t>LABOTECH</t>
+  </si>
+  <si>
+    <t>SW-40</t>
+  </si>
+  <si>
+    <t>LAB-LRR-018</t>
+  </si>
+  <si>
+    <t>DB25073598</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>LAB-LRR-020</t>
+  </si>
+  <si>
+    <t>CF25073599</t>
+  </si>
+  <si>
+    <t>FREEZER</t>
+  </si>
+  <si>
+    <t>MDC245</t>
+  </si>
+  <si>
+    <t>MDC245-202207005</t>
+  </si>
+  <si>
+    <t>LAB-LRR-021</t>
+  </si>
+  <si>
+    <t>CH25073600</t>
+  </si>
+  <si>
+    <t>MBR-305GR-PE</t>
+  </si>
+  <si>
+    <t>21040015</t>
+  </si>
+  <si>
+    <t>LAB-LRR-025</t>
+  </si>
+  <si>
+    <t>CH25073601</t>
+  </si>
+  <si>
+    <t>MDF-MU339-PE</t>
+  </si>
+  <si>
+    <t>210460044</t>
+  </si>
+  <si>
+    <t>LAB-LRR-026</t>
+  </si>
+  <si>
+    <t>PLATELET INCUBATOR</t>
+  </si>
+  <si>
+    <t>HELMER</t>
+  </si>
+  <si>
+    <t>PC100I</t>
+  </si>
+  <si>
+    <t>968176</t>
+  </si>
+  <si>
+    <t>LAB-LRR-027</t>
+  </si>
+  <si>
+    <t>CH25073603</t>
+  </si>
+  <si>
+    <t>MICROSCOPE</t>
+  </si>
+  <si>
+    <t>OLYMPUS</t>
+  </si>
+  <si>
+    <t>CX21</t>
+  </si>
+  <si>
+    <t>5H92476</t>
+  </si>
+  <si>
+    <t>LAB-LRR-029</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>610011795</t>
+  </si>
+  <si>
+    <t>LAB-LRR-032</t>
+  </si>
+  <si>
+    <t>HS-12</t>
+  </si>
+  <si>
+    <t>154845</t>
+  </si>
+  <si>
+    <t>LAB-LRR-033</t>
+  </si>
+  <si>
+    <t>CF25073606</t>
+  </si>
+  <si>
+    <t>Gemmyco</t>
+  </si>
+  <si>
+    <t>YCW-010E(22L)</t>
+  </si>
+  <si>
+    <t>LAB-LRR-048</t>
+  </si>
+  <si>
+    <t>WB25073607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT PLATE </t>
+  </si>
+  <si>
+    <t>21HP03001</t>
+  </si>
+  <si>
+    <t>LAB-LRR-051</t>
+  </si>
+  <si>
+    <t>LD209A2000294</t>
+  </si>
+  <si>
+    <t>LAB-LRR-052</t>
+  </si>
+  <si>
+    <t>CF25073609</t>
+  </si>
+  <si>
+    <t>L600</t>
+  </si>
+  <si>
+    <t>W20900021030142</t>
+  </si>
+  <si>
+    <t>LAB-LRR-054</t>
+  </si>
+  <si>
+    <t>CF25073610</t>
+  </si>
+  <si>
+    <t>WEIGHT DIGITAL</t>
+  </si>
+  <si>
+    <t>WT2002N</t>
+  </si>
+  <si>
+    <t>LAB-LRR-055</t>
+  </si>
+  <si>
+    <t>CX23</t>
+  </si>
+  <si>
+    <t>2C82750</t>
+  </si>
+  <si>
+    <t>LAB-LRR-058</t>
+  </si>
+  <si>
+    <t>2C82777</t>
+  </si>
+  <si>
+    <t>LAB-LRR-059</t>
+  </si>
+  <si>
+    <t>CH25073602</t>
+  </si>
+  <si>
+    <t>EB25073608</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
+  </si>
+  <si>
+    <t>CF25073604</t>
+  </si>
+  <si>
+    <t>DB25073605</t>
   </si>
 </sst>
 </file>
@@ -613,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -660,54 +951,54 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11">
-        <v>16010007</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="12">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11">
-        <v>13040141</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" s="12">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
@@ -715,77 +1006,77 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
-        <v>14080273</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" s="12">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11">
-        <v>13070292</v>
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F5" s="12">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
-        <v>14090386</v>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F6" s="12">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
@@ -793,339 +1084,659 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14110179</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <v>14020045</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F8" s="12">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11">
-        <v>19020061</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11">
-        <v>11100162</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F10" s="12">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="12">
-        <v>45849</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1902879</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45869</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>18715</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45869</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1811018466</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45869</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -1506,7 +2117,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="11"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
       <c r="A71" s="1"/>
@@ -1516,7 +2127,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
       <c r="A72" s="1"/>
@@ -1526,7 +2137,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="11"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
       <c r="A73" s="1"/>
@@ -1658,38 +2269,8 @@
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H88" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H85" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FFB613-9276-4540-9042-3510CBF3CE79}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127A4036-2BD4-4621-B312-0E59723055A9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>ID No.</t>
   </si>
@@ -66,388 +66,388 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
     <t>MEDICOOL</t>
   </si>
   <si>
-    <t>TIMER</t>
-  </si>
-  <si>
-    <t>TIMER-5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>LAB-LRR-002</t>
-  </si>
-  <si>
-    <t>CAL/PM</t>
-  </si>
-  <si>
     <t>INCUBATOR</t>
   </si>
   <si>
     <t>MEMMERT</t>
   </si>
   <si>
-    <t>B 30</t>
-  </si>
-  <si>
-    <t>821799</t>
-  </si>
-  <si>
-    <t>LAB-LRR-003</t>
-  </si>
-  <si>
-    <t>CH25073589</t>
-  </si>
-  <si>
-    <t>MDC 330</t>
-  </si>
-  <si>
-    <t>MDC330202207061</t>
-  </si>
-  <si>
-    <t>LAB-LRR-004</t>
-  </si>
-  <si>
-    <t>CH25073590</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>SH SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>SH- WB-11GND</t>
-  </si>
-  <si>
-    <t>220630WB-11GDN</t>
-  </si>
-  <si>
-    <t>LAB-LRR-005</t>
-  </si>
-  <si>
-    <t>WB25073591</t>
-  </si>
-  <si>
-    <t>LAB-LRR-006</t>
-  </si>
-  <si>
-    <t>MDC330-202207062</t>
-  </si>
-  <si>
-    <t>LAB-LRR-007</t>
-  </si>
-  <si>
-    <t>CH25073592</t>
-  </si>
-  <si>
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-19 ALPHA</t>
-  </si>
-  <si>
-    <t>156616</t>
-  </si>
-  <si>
-    <t>LAB-LRR-008</t>
-  </si>
-  <si>
-    <t>CF25073593</t>
-  </si>
-  <si>
-    <t>156617</t>
-  </si>
-  <si>
-    <t>LAB-LRR-009</t>
-  </si>
-  <si>
-    <t>CF25073594</t>
-  </si>
-  <si>
-    <t>READERS, MICROHEMATOCRIT</t>
-  </si>
-  <si>
-    <t>KUBOTA</t>
-  </si>
-  <si>
-    <t>LAB-LRR-012</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>SHUKE</t>
-  </si>
-  <si>
-    <t>TD-4Z</t>
-  </si>
-  <si>
-    <t>21111108</t>
-  </si>
-  <si>
-    <t>LAB-LRR-013</t>
-  </si>
-  <si>
-    <t>CF25073596</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>H-1200F</t>
-  </si>
-  <si>
-    <t>154343</t>
-  </si>
-  <si>
-    <t>LAB-LRR-014</t>
-  </si>
-  <si>
-    <t>CF25073597</t>
-  </si>
-  <si>
-    <t>VOTEX MIXER</t>
-  </si>
-  <si>
-    <t>DLAB</t>
-  </si>
-  <si>
-    <t>MX-S</t>
-  </si>
-  <si>
-    <t>VB222AQ0001137</t>
-  </si>
-  <si>
-    <t>LAB-LRR-015</t>
-  </si>
-  <si>
-    <t>CELL COUNTING</t>
-  </si>
-  <si>
-    <t>DIGICOUNT</t>
-  </si>
-  <si>
-    <t>DC-10</t>
-  </si>
-  <si>
-    <t>2101098</t>
-  </si>
-  <si>
-    <t>LAB-LRR-017</t>
-  </si>
-  <si>
-    <t>HOT PLATE</t>
-  </si>
-  <si>
-    <t>LABOTECH</t>
-  </si>
-  <si>
-    <t>SW-40</t>
-  </si>
-  <si>
-    <t>LAB-LRR-018</t>
-  </si>
-  <si>
-    <t>DB25073598</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
-  </si>
-  <si>
-    <t>LAB-LRR-020</t>
-  </si>
-  <si>
-    <t>CF25073599</t>
-  </si>
-  <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>MDC245</t>
-  </si>
-  <si>
-    <t>MDC245-202207005</t>
-  </si>
-  <si>
-    <t>LAB-LRR-021</t>
-  </si>
-  <si>
-    <t>CH25073600</t>
-  </si>
-  <si>
-    <t>MBR-305GR-PE</t>
-  </si>
-  <si>
-    <t>21040015</t>
-  </si>
-  <si>
-    <t>LAB-LRR-025</t>
-  </si>
-  <si>
-    <t>CH25073601</t>
-  </si>
-  <si>
-    <t>MDF-MU339-PE</t>
-  </si>
-  <si>
-    <t>210460044</t>
-  </si>
-  <si>
-    <t>LAB-LRR-026</t>
-  </si>
-  <si>
-    <t>PLATELET INCUBATOR</t>
-  </si>
-  <si>
-    <t>HELMER</t>
-  </si>
-  <si>
-    <t>PC100I</t>
-  </si>
-  <si>
-    <t>968176</t>
-  </si>
-  <si>
-    <t>LAB-LRR-027</t>
-  </si>
-  <si>
-    <t>CH25073603</t>
-  </si>
-  <si>
-    <t>MICROSCOPE</t>
-  </si>
-  <si>
-    <t>OLYMPUS</t>
-  </si>
-  <si>
-    <t>CX21</t>
-  </si>
-  <si>
-    <t>5H92476</t>
-  </si>
-  <si>
-    <t>LAB-LRR-029</t>
-  </si>
-  <si>
-    <t>ORTHO</t>
-  </si>
-  <si>
-    <t>WORKSTATION</t>
-  </si>
-  <si>
-    <t>610011795</t>
-  </si>
-  <si>
-    <t>LAB-LRR-032</t>
-  </si>
-  <si>
-    <t>HS-12</t>
-  </si>
-  <si>
-    <t>154845</t>
-  </si>
-  <si>
-    <t>LAB-LRR-033</t>
-  </si>
-  <si>
-    <t>CF25073606</t>
-  </si>
-  <si>
-    <t>Gemmyco</t>
-  </si>
-  <si>
-    <t>YCW-010E(22L)</t>
-  </si>
-  <si>
-    <t>LAB-LRR-048</t>
-  </si>
-  <si>
-    <t>WB25073607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOT PLATE </t>
-  </si>
-  <si>
-    <t>21HP03001</t>
-  </si>
-  <si>
-    <t>LAB-LRR-051</t>
-  </si>
-  <si>
-    <t>LD209A2000294</t>
-  </si>
-  <si>
-    <t>LAB-LRR-052</t>
-  </si>
-  <si>
-    <t>CF25073609</t>
-  </si>
-  <si>
-    <t>L600</t>
-  </si>
-  <si>
-    <t>W20900021030142</t>
-  </si>
-  <si>
-    <t>LAB-LRR-054</t>
-  </si>
-  <si>
-    <t>CF25073610</t>
-  </si>
-  <si>
-    <t>WEIGHT DIGITAL</t>
-  </si>
-  <si>
-    <t>WT2002N</t>
-  </si>
-  <si>
-    <t>LAB-LRR-055</t>
-  </si>
-  <si>
-    <t>CX23</t>
-  </si>
-  <si>
-    <t>2C82750</t>
-  </si>
-  <si>
-    <t>LAB-LRR-058</t>
-  </si>
-  <si>
-    <t>2C82777</t>
-  </si>
-  <si>
-    <t>LAB-LRR-059</t>
-  </si>
-  <si>
-    <t>CH25073602</t>
-  </si>
-  <si>
-    <t>EB25073608</t>
-  </si>
-  <si>
-    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
-  </si>
-  <si>
-    <t>CF25073604</t>
-  </si>
-  <si>
-    <t>DB25073605</t>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A884-306L</t>
+  </si>
+  <si>
+    <t>ST03-01190001</t>
+  </si>
+  <si>
+    <t>WPH1005</t>
+  </si>
+  <si>
+    <t>AC25073747</t>
+  </si>
+  <si>
+    <t>A884-360L</t>
+  </si>
+  <si>
+    <t>1S-220707</t>
+  </si>
+  <si>
+    <t>WPH1537</t>
+  </si>
+  <si>
+    <t>AC25073748</t>
+  </si>
+  <si>
+    <t>HOK COOL</t>
+  </si>
+  <si>
+    <t>SM 61 M</t>
+  </si>
+  <si>
+    <t>NO.005229</t>
+  </si>
+  <si>
+    <t>WPH1607</t>
+  </si>
+  <si>
+    <t>CH25073749</t>
+  </si>
+  <si>
+    <t>LUCKYSTAR</t>
+  </si>
+  <si>
+    <t>CANYON 312N</t>
+  </si>
+  <si>
+    <t>100003662212058</t>
+  </si>
+  <si>
+    <t>WPH1810</t>
+  </si>
+  <si>
+    <t>CH25073750</t>
+  </si>
+  <si>
+    <t>W350</t>
+  </si>
+  <si>
+    <t>WPH0130</t>
+  </si>
+  <si>
+    <t>WB25073751</t>
+  </si>
+  <si>
+    <t>HANIL</t>
+  </si>
+  <si>
+    <t>SEROSPIN</t>
+  </si>
+  <si>
+    <t>SEPH0111151</t>
+  </si>
+  <si>
+    <t>WPH0132</t>
+  </si>
+  <si>
+    <t>CF25073753</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MBR-305GR</t>
+  </si>
+  <si>
+    <t>WPH0133</t>
+  </si>
+  <si>
+    <t>CH25073754</t>
+  </si>
+  <si>
+    <t>DIGISYSTEM</t>
+  </si>
+  <si>
+    <t>DSR-2800D</t>
+  </si>
+  <si>
+    <t>WPH0137</t>
+  </si>
+  <si>
+    <t>CF25073755</t>
+  </si>
+  <si>
+    <t>COLDMASTER</t>
+  </si>
+  <si>
+    <t>FKG 370</t>
+  </si>
+  <si>
+    <t>WPH0139</t>
+  </si>
+  <si>
+    <t>CH25073756</t>
+  </si>
+  <si>
+    <t>MIRAGE</t>
+  </si>
+  <si>
+    <t>FZ-189</t>
+  </si>
+  <si>
+    <t>WPH0143</t>
+  </si>
+  <si>
+    <t>CH25073757</t>
+  </si>
+  <si>
+    <t>WPH0144</t>
+  </si>
+  <si>
+    <t>CH25073758</t>
+  </si>
+  <si>
+    <t>BC-330FN</t>
+  </si>
+  <si>
+    <t>WPH0145</t>
+  </si>
+  <si>
+    <t>CH25073759</t>
+  </si>
+  <si>
+    <t>BOECO</t>
+  </si>
+  <si>
+    <t>HC-240</t>
+  </si>
+  <si>
+    <t>00000213</t>
+  </si>
+  <si>
+    <t>WPH0962</t>
+  </si>
+  <si>
+    <t>CF25073762</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>R-VG400PZ</t>
+  </si>
+  <si>
+    <t>WPH1012</t>
+  </si>
+  <si>
+    <t>DSC-302SMD</t>
+  </si>
+  <si>
+    <t>CMD3-19030013</t>
+  </si>
+  <si>
+    <t>WPH1013</t>
+  </si>
+  <si>
+    <t>CF25073766</t>
+  </si>
+  <si>
+    <t>NOVE</t>
+  </si>
+  <si>
+    <t>NF200</t>
+  </si>
+  <si>
+    <t>03.14937</t>
+  </si>
+  <si>
+    <t>WPH1213</t>
+  </si>
+  <si>
+    <t>CF25073767</t>
+  </si>
+  <si>
+    <t>NUVE</t>
+  </si>
+  <si>
+    <t>04.16225</t>
+  </si>
+  <si>
+    <t>WPH1504</t>
+  </si>
+  <si>
+    <t>CF25073768</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>SC-340BC-V3</t>
+  </si>
+  <si>
+    <t>BWOADJE0000BUN2A0055</t>
+  </si>
+  <si>
+    <t>WPH1571</t>
+  </si>
+  <si>
+    <t>CH25073769</t>
+  </si>
+  <si>
+    <t>Dia-Med</t>
+  </si>
+  <si>
+    <t>ID-Incubator 37SI</t>
+  </si>
+  <si>
+    <t>WPH1659</t>
+  </si>
+  <si>
+    <t>DB25073770</t>
+  </si>
+  <si>
+    <t>ID-Centrifuge 12SII</t>
+  </si>
+  <si>
+    <t>WPH1660</t>
+  </si>
+  <si>
+    <t>CF25073771</t>
+  </si>
+  <si>
+    <t>SBC-2DA</t>
+  </si>
+  <si>
+    <t>WPH0330</t>
+  </si>
+  <si>
+    <t>CH25073772</t>
+  </si>
+  <si>
+    <t>100000011811026</t>
+  </si>
+  <si>
+    <t>WPH1606</t>
+  </si>
+  <si>
+    <t>CH25073775</t>
+  </si>
+  <si>
+    <t>SM-HA2-110C</t>
+  </si>
+  <si>
+    <t>WPT0178</t>
+  </si>
+  <si>
+    <t>CH25073776</t>
+  </si>
+  <si>
+    <t>BEVERAGE</t>
+  </si>
+  <si>
+    <t>BC-399M</t>
+  </si>
+  <si>
+    <t>BC399200900319</t>
+  </si>
+  <si>
+    <t>WPT0195</t>
+  </si>
+  <si>
+    <t>CH25073777</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FREEZER</t>
+  </si>
+  <si>
+    <t>TE SONIC</t>
+  </si>
+  <si>
+    <t>TPF-100</t>
+  </si>
+  <si>
+    <t>WPH1974</t>
+  </si>
+  <si>
+    <t>CH25073778</t>
+  </si>
+  <si>
+    <t>CMD3N1-22070066</t>
+  </si>
+  <si>
+    <t>WPH1975</t>
+  </si>
+  <si>
+    <t>CF25073779</t>
+  </si>
+  <si>
+    <t>ORBITAL SHAKER</t>
+  </si>
+  <si>
+    <t>KJ-201BD</t>
+  </si>
+  <si>
+    <t>WPH1747</t>
+  </si>
+  <si>
+    <t>CF25073780</t>
+  </si>
+  <si>
+    <t>DRUKER DIAGNOSTIC</t>
+  </si>
+  <si>
+    <t>642VDF PLUS REGENLAB</t>
+  </si>
+  <si>
+    <t>220788AQ147</t>
+  </si>
+  <si>
+    <t>WPH1749</t>
+  </si>
+  <si>
+    <t>CF25073781</t>
+  </si>
+  <si>
+    <t>MDC-30TM</t>
+  </si>
+  <si>
+    <t>MTM3-514-354</t>
+  </si>
+  <si>
+    <t>WPH0335</t>
+  </si>
+  <si>
+    <t>CH25033773</t>
+  </si>
+  <si>
+    <t>WATTANAPAT HOSPITAL TRANG</t>
+  </si>
+  <si>
+    <t>CH25073764</t>
+  </si>
+  <si>
+    <t>CH25073765</t>
   </si>
 </sst>
 </file>
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -951,25 +951,25 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>134</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="12">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>134</v>
@@ -1006,22 +1006,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F4" s="12">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>134</v>
@@ -1029,25 +1029,25 @@
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" s="12">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>134</v>
@@ -1055,25 +1055,25 @@
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="11">
+        <v>920309</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" s="12">
         <v>45846</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>134</v>
@@ -1081,25 +1081,25 @@
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F7" s="12">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>134</v>
@@ -1107,25 +1107,25 @@
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10120101</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12">
         <v>45846</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>134</v>
@@ -1133,25 +1133,25 @@
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="11">
+        <v>15100397</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F9" s="12">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>134</v>
@@ -1159,25 +1159,25 @@
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="11">
+        <v>53900355</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12">
         <v>45846</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>134</v>
@@ -1185,25 +1185,25 @@
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10800441</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12">
         <v>45846</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>134</v>
@@ -1211,25 +1211,25 @@
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>56</v>
+      <c r="D12" s="11">
+        <v>53900352</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F12" s="12">
         <v>45846</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>134</v>
@@ -1237,25 +1237,25 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="11">
+        <v>430468</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="12">
         <v>45846</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>134</v>
@@ -1263,25 +1263,25 @@
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="12">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>134</v>
@@ -1289,25 +1289,25 @@
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4180600134</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="12">
         <v>45846</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>134</v>
@@ -1315,259 +1315,259 @@
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4180600134</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" s="12">
         <v>45846</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="12">
+        <v>45847</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="12">
+        <v>45847</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="12">
+        <v>45847</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2005888</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2">
         <v>45846</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1100357</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45847</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1">
+        <v>90500840</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2">
         <v>45846</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="G23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="12">
+      <c r="H23" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="2">
         <v>45846</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="H24" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="D25" s="1">
+        <v>20111090</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="F25" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="12">
-        <v>45846</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1902879</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="12">
-        <v>45845</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="12">
-        <v>45846</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>134</v>
@@ -1575,25 +1575,25 @@
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F26" s="2">
         <v>45846</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>123</v>
+      <c r="G26" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>134</v>
@@ -1601,25 +1601,25 @@
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6849</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="2">
         <v>45846</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
+      <c r="G27" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>134</v>
@@ -1627,25 +1627,25 @@
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F28" s="2">
-        <v>45846</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>48</v>
+        <v>45847</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>134</v>
@@ -1653,25 +1653,25 @@
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="D29" s="1">
+        <v>661212019</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="2">
-        <v>45869</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>45847</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>134</v>
@@ -1679,25 +1679,25 @@
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>18715</v>
+        <v>125</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2">
-        <v>45869</v>
+        <v>45847</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>134</v>
@@ -1705,22 +1705,22 @@
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1811018466</v>
+        <v>130</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F31" s="2">
-        <v>45869</v>
+        <v>45846</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>133</v>
@@ -2037,7 +2037,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
       <c r="A63" s="1"/>
@@ -2047,7 +2047,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="11"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
       <c r="A64" s="1"/>
@@ -2057,7 +2057,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
       <c r="A65" s="1"/>
@@ -2067,7 +2067,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="11"/>
+      <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
       <c r="A66" s="1"/>
@@ -2077,7 +2077,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
       <c r="A67" s="1"/>
@@ -2087,7 +2087,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
       <c r="A68" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
       <c r="A69" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
       <c r="A70" s="1"/>
@@ -2189,88 +2189,8 @@
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H85" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H77" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{127A4036-2BD4-4621-B312-0E59723055A9}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF25C818-4892-48C2-8559-75CB32E58CC0}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="127">
   <si>
     <t>ID No.</t>
   </si>
@@ -66,9 +66,6 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>MEDICOOL</t>
-  </si>
-  <si>
     <t>INCUBATOR</t>
   </si>
   <si>
@@ -81,373 +78,346 @@
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>AUTOCLAVE</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A884-306L</t>
-  </si>
-  <si>
-    <t>ST03-01190001</t>
-  </si>
-  <si>
-    <t>WPH1005</t>
-  </si>
-  <si>
-    <t>AC25073747</t>
-  </si>
-  <si>
-    <t>A884-360L</t>
-  </si>
-  <si>
-    <t>1S-220707</t>
-  </si>
-  <si>
-    <t>WPH1537</t>
-  </si>
-  <si>
-    <t>AC25073748</t>
-  </si>
-  <si>
-    <t>HOK COOL</t>
-  </si>
-  <si>
-    <t>SM 61 M</t>
-  </si>
-  <si>
-    <t>NO.005229</t>
-  </si>
-  <si>
-    <t>WPH1607</t>
-  </si>
-  <si>
-    <t>CH25073749</t>
-  </si>
-  <si>
-    <t>LUCKYSTAR</t>
-  </si>
-  <si>
-    <t>CANYON 312N</t>
-  </si>
-  <si>
-    <t>100003662212058</t>
-  </si>
-  <si>
-    <t>WPH1810</t>
-  </si>
-  <si>
-    <t>CH25073750</t>
-  </si>
-  <si>
-    <t>W350</t>
-  </si>
-  <si>
-    <t>WPH0130</t>
-  </si>
-  <si>
-    <t>WB25073751</t>
-  </si>
-  <si>
-    <t>HANIL</t>
-  </si>
-  <si>
-    <t>SEROSPIN</t>
-  </si>
-  <si>
-    <t>SEPH0111151</t>
-  </si>
-  <si>
-    <t>WPH0132</t>
-  </si>
-  <si>
-    <t>CF25073753</t>
-  </si>
-  <si>
     <t>SANYO</t>
   </si>
   <si>
-    <t>MBR-305GR</t>
-  </si>
-  <si>
-    <t>WPH0133</t>
-  </si>
-  <si>
-    <t>CH25073754</t>
-  </si>
-  <si>
-    <t>DIGISYSTEM</t>
-  </si>
-  <si>
-    <t>DSR-2800D</t>
-  </si>
-  <si>
-    <t>WPH0137</t>
-  </si>
-  <si>
-    <t>CF25073755</t>
-  </si>
-  <si>
-    <t>COLDMASTER</t>
-  </si>
-  <si>
-    <t>FKG 370</t>
-  </si>
-  <si>
-    <t>WPH0139</t>
-  </si>
-  <si>
-    <t>CH25073756</t>
-  </si>
-  <si>
-    <t>MIRAGE</t>
-  </si>
-  <si>
-    <t>FZ-189</t>
-  </si>
-  <si>
-    <t>WPH0143</t>
-  </si>
-  <si>
-    <t>CH25073757</t>
-  </si>
-  <si>
-    <t>WPH0144</t>
-  </si>
-  <si>
-    <t>CH25073758</t>
-  </si>
-  <si>
-    <t>BC-330FN</t>
-  </si>
-  <si>
-    <t>WPH0145</t>
-  </si>
-  <si>
-    <t>CH25073759</t>
-  </si>
-  <si>
-    <t>BOECO</t>
-  </si>
-  <si>
-    <t>HC-240</t>
-  </si>
-  <si>
-    <t>00000213</t>
-  </si>
-  <si>
-    <t>WPH0962</t>
-  </si>
-  <si>
-    <t>CF25073762</t>
-  </si>
-  <si>
     <t>HITACHI</t>
   </si>
   <si>
-    <t>R-VG400PZ</t>
-  </si>
-  <si>
-    <t>WPH1012</t>
-  </si>
-  <si>
-    <t>DSC-302SMD</t>
-  </si>
-  <si>
-    <t>CMD3-19030013</t>
-  </si>
-  <si>
-    <t>WPH1013</t>
-  </si>
-  <si>
-    <t>CF25073766</t>
-  </si>
-  <si>
-    <t>NOVE</t>
-  </si>
-  <si>
-    <t>NF200</t>
-  </si>
-  <si>
-    <t>03.14937</t>
-  </si>
-  <si>
-    <t>WPH1213</t>
-  </si>
-  <si>
-    <t>CF25073767</t>
-  </si>
-  <si>
-    <t>NUVE</t>
-  </si>
-  <si>
-    <t>04.16225</t>
-  </si>
-  <si>
-    <t>WPH1504</t>
-  </si>
-  <si>
-    <t>CF25073768</t>
-  </si>
-  <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>SC-340BC-V3</t>
-  </si>
-  <si>
-    <t>BWOADJE0000BUN2A0055</t>
-  </si>
-  <si>
-    <t>WPH1571</t>
-  </si>
-  <si>
-    <t>CH25073769</t>
-  </si>
-  <si>
-    <t>Dia-Med</t>
-  </si>
-  <si>
-    <t>ID-Incubator 37SI</t>
-  </si>
-  <si>
-    <t>WPH1659</t>
-  </si>
-  <si>
-    <t>DB25073770</t>
-  </si>
-  <si>
-    <t>ID-Centrifuge 12SII</t>
-  </si>
-  <si>
-    <t>WPH1660</t>
-  </si>
-  <si>
-    <t>CF25073771</t>
-  </si>
-  <si>
-    <t>SBC-2DA</t>
-  </si>
-  <si>
-    <t>WPH0330</t>
-  </si>
-  <si>
-    <t>CH25073772</t>
-  </si>
-  <si>
-    <t>100000011811026</t>
-  </si>
-  <si>
-    <t>WPH1606</t>
-  </si>
-  <si>
-    <t>CH25073775</t>
-  </si>
-  <si>
-    <t>SM-HA2-110C</t>
-  </si>
-  <si>
-    <t>WPT0178</t>
-  </si>
-  <si>
-    <t>CH25073776</t>
-  </si>
-  <si>
-    <t>BEVERAGE</t>
-  </si>
-  <si>
-    <t>BC-399M</t>
-  </si>
-  <si>
-    <t>BC399200900319</t>
-  </si>
-  <si>
-    <t>WPT0195</t>
-  </si>
-  <si>
-    <t>CH25073777</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FREEZER</t>
-  </si>
-  <si>
-    <t>TE SONIC</t>
-  </si>
-  <si>
-    <t>TPF-100</t>
-  </si>
-  <si>
-    <t>WPH1974</t>
-  </si>
-  <si>
-    <t>CH25073778</t>
-  </si>
-  <si>
-    <t>CMD3N1-22070066</t>
-  </si>
-  <si>
-    <t>WPH1975</t>
-  </si>
-  <si>
-    <t>CF25073779</t>
-  </si>
-  <si>
-    <t>ORBITAL SHAKER</t>
-  </si>
-  <si>
-    <t>KJ-201BD</t>
-  </si>
-  <si>
-    <t>WPH1747</t>
-  </si>
-  <si>
-    <t>CF25073780</t>
-  </si>
-  <si>
-    <t>DRUKER DIAGNOSTIC</t>
-  </si>
-  <si>
-    <t>642VDF PLUS REGENLAB</t>
-  </si>
-  <si>
-    <t>220788AQ147</t>
-  </si>
-  <si>
-    <t>WPH1749</t>
-  </si>
-  <si>
-    <t>CF25073781</t>
-  </si>
-  <si>
-    <t>MDC-30TM</t>
-  </si>
-  <si>
-    <t>MTM3-514-354</t>
-  </si>
-  <si>
-    <t>WPH0335</t>
-  </si>
-  <si>
-    <t>CH25033773</t>
-  </si>
-  <si>
-    <t>WATTANAPAT HOSPITAL TRANG</t>
-  </si>
-  <si>
-    <t>CH25073764</t>
-  </si>
-  <si>
-    <t>CH25073765</t>
+    <t>R-WB400PY</t>
+  </si>
+  <si>
+    <t>4150200023</t>
+  </si>
+  <si>
+    <t>BIC-PGT-011</t>
+  </si>
+  <si>
+    <t>4171000066</t>
+  </si>
+  <si>
+    <t>BIC-PGT-010</t>
+  </si>
+  <si>
+    <t>Haier</t>
+  </si>
+  <si>
+    <t>BD-226WL</t>
+  </si>
+  <si>
+    <t>B30H80E1T00BLK4D0071</t>
+  </si>
+  <si>
+    <t>BIC-PRT-012</t>
+  </si>
+  <si>
+    <t>CH25084671</t>
+  </si>
+  <si>
+    <t>Vestfrost</t>
+  </si>
+  <si>
+    <t>AKG377</t>
+  </si>
+  <si>
+    <t>BIC-EMB-018</t>
+  </si>
+  <si>
+    <t>ยกเลิก มีเครื่องทดแทน</t>
+  </si>
+  <si>
+    <t>INB200</t>
+  </si>
+  <si>
+    <t>E2120095</t>
+  </si>
+  <si>
+    <t>BIC-EMB-019</t>
+  </si>
+  <si>
+    <t>CH25084672</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>CO48S-230</t>
+  </si>
+  <si>
+    <t>BIC-EMB-020</t>
+  </si>
+  <si>
+    <t>CH25084673</t>
+  </si>
+  <si>
+    <t>BIC-EMB-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยกเลิก </t>
+  </si>
+  <si>
+    <t>WARMING PLATE</t>
+  </si>
+  <si>
+    <t>BIC-EMB-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ยกเลิก มีเครื่องทดแทน</t>
+  </si>
+  <si>
+    <t>DRY BATH</t>
+  </si>
+  <si>
+    <t>Major Science</t>
+  </si>
+  <si>
+    <t>EL-02</t>
+  </si>
+  <si>
+    <t>BIC-EMB-023</t>
+  </si>
+  <si>
+    <t>DB25084675</t>
+  </si>
+  <si>
+    <t>BIC-EMB-024</t>
+  </si>
+  <si>
+    <t>BIC-EMB-035</t>
+  </si>
+  <si>
+    <t>STAGE WARMER</t>
+  </si>
+  <si>
+    <t>TOKAI HIT</t>
+  </si>
+  <si>
+    <t>TP-UW</t>
+  </si>
+  <si>
+    <t>BIC-EMB-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAL&amp;PM</t>
+  </si>
+  <si>
+    <t>TP-108RH26</t>
+  </si>
+  <si>
+    <t>BIC-EMB-027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAL&amp;PM </t>
+  </si>
+  <si>
+    <t>TP-108R05</t>
+  </si>
+  <si>
+    <t>BIC-EMB-029</t>
+  </si>
+  <si>
+    <t>MINI INCABATOR</t>
+  </si>
+  <si>
+    <t>K-SYSTEMS</t>
+  </si>
+  <si>
+    <t>G95</t>
+  </si>
+  <si>
+    <t>16030G95A010509</t>
+  </si>
+  <si>
+    <t>BIC-EMB-030</t>
+  </si>
+  <si>
+    <t>SBC-339K</t>
+  </si>
+  <si>
+    <t>01101400</t>
+  </si>
+  <si>
+    <t>BIC-EMB-038</t>
+  </si>
+  <si>
+    <t>CH25084678</t>
+  </si>
+  <si>
+    <t>Hettich</t>
+  </si>
+  <si>
+    <t>ROTOFIX 32</t>
+  </si>
+  <si>
+    <t>0006005-01-00</t>
+  </si>
+  <si>
+    <t>BIC-EMB-039</t>
+  </si>
+  <si>
+    <t>CF25084679</t>
+  </si>
+  <si>
+    <t>BIC-EMB-040</t>
+  </si>
+  <si>
+    <t>R-VG550PDX</t>
+  </si>
+  <si>
+    <t>BIC-HML-001</t>
+  </si>
+  <si>
+    <t>CH25084681</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LAB-REF-01</t>
+  </si>
+  <si>
+    <t>BIC-HML-002</t>
+  </si>
+  <si>
+    <t>CH25084682</t>
+  </si>
+  <si>
+    <t>LABNET</t>
+  </si>
+  <si>
+    <t>Spectrafuge 6C</t>
+  </si>
+  <si>
+    <t>C210842</t>
+  </si>
+  <si>
+    <t>BIC-HML-005</t>
+  </si>
+  <si>
+    <t>CF25084683</t>
+  </si>
+  <si>
+    <t>Suranaree Medical Equipments</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>BIC-HML-006</t>
+  </si>
+  <si>
+    <t>CF25084684</t>
+  </si>
+  <si>
+    <t>MICROSCOPE</t>
+  </si>
+  <si>
+    <t>Nikon</t>
+  </si>
+  <si>
+    <t>ECLIPSE Ci-L</t>
+  </si>
+  <si>
+    <t>BIC-HML-013</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Z-COOL</t>
+  </si>
+  <si>
+    <t>ZDD-1DU</t>
+  </si>
+  <si>
+    <t>SPA0403-231100063</t>
+  </si>
+  <si>
+    <t>BIC-EMB-106</t>
+  </si>
+  <si>
+    <t>BIC-EMB-104</t>
+  </si>
+  <si>
+    <t>170718A010</t>
+  </si>
+  <si>
+    <t>BIC-EMB-105</t>
+  </si>
+  <si>
+    <t>DIGITAL THERMOMETER</t>
+  </si>
+  <si>
+    <t>Meditech</t>
+  </si>
+  <si>
+    <t>BIC-PGT-006 (NGS1)</t>
+  </si>
+  <si>
+    <t>เพิ่ม CAL/PM</t>
+  </si>
+  <si>
+    <t>BIC-PGT-009 (WGA1)</t>
+  </si>
+  <si>
+    <t>BIC-PGT-002 (NGS2)</t>
+  </si>
+  <si>
+    <t>S/N : 1307150923</t>
+  </si>
+  <si>
+    <t>Labotect</t>
+  </si>
+  <si>
+    <t>Hot Plate A4</t>
+  </si>
+  <si>
+    <t>16481-0021</t>
+  </si>
+  <si>
+    <t>BIC-EMB-116</t>
+  </si>
+  <si>
+    <t>KITAZATO</t>
+  </si>
+  <si>
+    <t>MP-3000</t>
+  </si>
+  <si>
+    <t>09C04060</t>
+  </si>
+  <si>
+    <t>BIC-EMB-028</t>
+  </si>
+  <si>
+    <t>BANGKOK INFERTILITY CENTER</t>
+  </si>
+  <si>
+    <t>CH25084667</t>
+  </si>
+  <si>
+    <t>CH25084668</t>
+  </si>
+  <si>
+    <t>CH25084669</t>
+  </si>
+  <si>
+    <t>CH25084670</t>
+  </si>
+  <si>
+    <t>CH25084710</t>
+  </si>
+  <si>
+    <t>DB25084676</t>
+  </si>
+  <si>
+    <t>DB25084677</t>
+  </si>
+  <si>
+    <t>DB25084680</t>
   </si>
 </sst>
 </file>
@@ -904,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -951,54 +921,54 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="12">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="12">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
@@ -1006,467 +976,425 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" s="12">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11">
-        <v>920309</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12">
-        <v>45846</v>
+        <v>45874</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="11">
+        <v>20133985424</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12">
-        <v>45847</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="11">
-        <v>10120101</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12">
-        <v>45846</v>
+        <v>45874</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11">
-        <v>15100397</v>
+        <v>31916</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F9" s="12">
-        <v>45847</v>
+        <v>45874</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11">
-        <v>53900355</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="12">
-        <v>45846</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="11">
-        <v>10800441</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="12">
-        <v>45846</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11">
-        <v>53900352</v>
+        <v>100526081</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F12" s="12">
-        <v>45846</v>
+        <v>45874</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="11">
-        <v>430468</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45846</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="11" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>68</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="12">
-        <v>45847</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="11" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11">
-        <v>4180600134</v>
+        <v>131511</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12">
-        <v>45846</v>
+        <v>45874</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D16" s="11">
-        <v>4180600134</v>
+        <v>131913</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12">
-        <v>45846</v>
+        <v>45874</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="32.4" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="D17" s="11">
+        <v>141871</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F17" s="12">
-        <v>45847</v>
+        <v>45874</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="32.4" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F18" s="12">
-        <v>45847</v>
+        <v>45875</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F19" s="12">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45846</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
+      <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45874</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2005888</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45846</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>95</v>
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
@@ -1474,25 +1402,25 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1">
-        <v>1100357</v>
+        <v>2400023701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
@@ -1500,274 +1428,338 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1">
-        <v>90500840</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F24" s="2">
-        <v>45846</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>104</v>
+        <v>45873</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
-        <v>20111090</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>6103004001</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="2">
-        <v>45846</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>107</v>
+        <v>45873</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>701081</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6849</v>
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>45</v>
+      </c>
+      <c r="D28" s="1">
+        <v>130422320</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2">
-        <v>45847</v>
+        <v>45874</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="1">
-        <v>661212019</v>
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
-        <v>45846</v>
+        <v>45873</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45874</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="11"/>
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1307150923</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45874</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="11"/>
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45874</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45874</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
       <c r="A36" s="1"/>
@@ -2037,7 +2029,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
       <c r="A63" s="1"/>
@@ -2047,7 +2039,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
       <c r="A64" s="1"/>
@@ -2189,8 +2181,28 @@
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
+    <row r="78" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H77" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H79" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F325736-7705-4D48-81C1-DC0AB9B896D1}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7D6D2F8-35F0-45C5-803D-8CCD845F3C81}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>ID No.</t>
   </si>
@@ -78,121 +78,373 @@
     <t>-</t>
   </si>
   <si>
-    <t>MELING</t>
-  </si>
-  <si>
-    <t>DW-YW358A</t>
-  </si>
-  <si>
-    <t>RTAF-0001</t>
-  </si>
-  <si>
-    <t>CH25084656</t>
-  </si>
-  <si>
     <t>PANASONIC</t>
   </si>
   <si>
-    <t>MBR-305GR-PE</t>
-  </si>
-  <si>
-    <t>RTAF-0005</t>
-  </si>
-  <si>
-    <t>CH25084657</t>
-  </si>
-  <si>
-    <t>SIAMATIC</t>
-  </si>
-  <si>
-    <t>HURR PLUS</t>
-  </si>
-  <si>
-    <t>HUP-02-L0364-1064-001</t>
-  </si>
-  <si>
-    <t>CH25084658</t>
-  </si>
-  <si>
-    <t>MPR-S313-PK</t>
-  </si>
-  <si>
-    <t>RTAF-0036</t>
-  </si>
-  <si>
-    <t>CH25084659</t>
-  </si>
-  <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
-    <t>RTAF-0012</t>
-  </si>
-  <si>
-    <t>CH25084660</t>
-  </si>
-  <si>
-    <t>M-LAB</t>
-  </si>
-  <si>
-    <t>EWB8-V01</t>
-  </si>
-  <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <t>RTAF-0014</t>
-  </si>
-  <si>
-    <t>WB25084661</t>
-  </si>
-  <si>
     <t>KOKUSAN</t>
   </si>
   <si>
-    <t>H-36α</t>
-  </si>
-  <si>
-    <t>RTAF-0025</t>
-  </si>
-  <si>
-    <t>CF25084662</t>
-  </si>
-  <si>
-    <t>SENOVA</t>
-  </si>
-  <si>
-    <t>TD5B</t>
-  </si>
-  <si>
-    <t>E2004142 LS</t>
-  </si>
-  <si>
-    <t>CF25084663</t>
-  </si>
-  <si>
     <t>ยกเลิก</t>
   </si>
   <si>
-    <t>DRY BATH INCUBATOR</t>
-  </si>
-  <si>
-    <t>BIO RAD</t>
-  </si>
-  <si>
-    <t>ID-INCUBATOR L</t>
-  </si>
-  <si>
-    <t>0100668</t>
-  </si>
-  <si>
-    <t>RTAF-0015</t>
-  </si>
-  <si>
-    <t>DB25084664</t>
-  </si>
-  <si>
-    <t>Royal Thai Air Force</t>
+    <t>HANIL</t>
+  </si>
+  <si>
+    <t>SEROSPIN</t>
+  </si>
+  <si>
+    <t>SELM20220099</t>
+  </si>
+  <si>
+    <t>LAB-BUD-001</t>
+  </si>
+  <si>
+    <t>DIGISYSTEM</t>
+  </si>
+  <si>
+    <t>DSB-1000E</t>
+  </si>
+  <si>
+    <t>LAB-BUD-002</t>
+  </si>
+  <si>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>MPR-414F</t>
+  </si>
+  <si>
+    <t>LAB-BUD-003</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>LAB-BUD-004</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>H-1200F</t>
+  </si>
+  <si>
+    <t>LAB-BUD-005</t>
+  </si>
+  <si>
+    <t>H-11NC</t>
+  </si>
+  <si>
+    <t>LAB-BUD-006</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>VRN-200</t>
+  </si>
+  <si>
+    <t>LAB-BUD-007</t>
+  </si>
+  <si>
+    <t>MDF-U334-PE</t>
+  </si>
+  <si>
+    <t>LAB-BUD-009</t>
+  </si>
+  <si>
+    <t>LAB-BUD-047</t>
+  </si>
+  <si>
+    <t>ACCUPLUS</t>
+  </si>
+  <si>
+    <t>P1000</t>
+  </si>
+  <si>
+    <t>0915-0003</t>
+  </si>
+  <si>
+    <t>LAB-BUD-072</t>
+  </si>
+  <si>
+    <t>LAB-BUD-075</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>POL.EKO-APARATURA</t>
+  </si>
+  <si>
+    <t>CLW 240 STD</t>
+  </si>
+  <si>
+    <t>CW2SF 160009</t>
+  </si>
+  <si>
+    <t>LAB-BUD-078</t>
+  </si>
+  <si>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>WISD</t>
+  </si>
+  <si>
+    <t>WAC-47</t>
+  </si>
+  <si>
+    <t>1000136142A009</t>
+  </si>
+  <si>
+    <t>LAB-BUD-080</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC 330</t>
+  </si>
+  <si>
+    <t>SDC1000-180801247</t>
+  </si>
+  <si>
+    <t>LAB-BUD-084</t>
+  </si>
+  <si>
+    <t>CENCE</t>
+  </si>
+  <si>
+    <t>TG16-WS</t>
+  </si>
+  <si>
+    <t>W15800019030292</t>
+  </si>
+  <si>
+    <t>LAB-BUD-085</t>
+  </si>
+  <si>
+    <t>MDC330</t>
+  </si>
+  <si>
+    <t>MDC330-202001001</t>
+  </si>
+  <si>
+    <t>LAB-BUD-106</t>
+  </si>
+  <si>
+    <t>LAB-BUD-107</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PLR1006</t>
+  </si>
+  <si>
+    <t>10062013000078</t>
+  </si>
+  <si>
+    <t>LAB-BUD-046</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>HXC-429</t>
+  </si>
+  <si>
+    <t>BE0HB WEAP0 0QJP8 F0001</t>
+  </si>
+  <si>
+    <t>LAB-BUD-121</t>
+  </si>
+  <si>
+    <t>PLATELET INCUBATOR</t>
+  </si>
+  <si>
+    <t>PROMED</t>
+  </si>
+  <si>
+    <t>MDC-5</t>
+  </si>
+  <si>
+    <t>2331000108MDC-5</t>
+  </si>
+  <si>
+    <t>LAB-BUD-122</t>
+  </si>
+  <si>
+    <t>CENTRIFUGE AND DRY BATH</t>
+  </si>
+  <si>
+    <t>ORTHO WORKSTATION</t>
+  </si>
+  <si>
+    <t>C-BUD-017</t>
+  </si>
+  <si>
+    <t>HOT AIR OVEN</t>
+  </si>
+  <si>
+    <t>RAYPA</t>
+  </si>
+  <si>
+    <t>LAB-BUD-024</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SNH-0103D41C</t>
+  </si>
+  <si>
+    <t>SNH0103-141201936</t>
+  </si>
+  <si>
+    <t>LAB-BUD-068</t>
+  </si>
+  <si>
+    <t>PORTABLE SEALER</t>
+  </si>
+  <si>
+    <t>FRESENIUS KABI AG</t>
+  </si>
+  <si>
+    <t>COMPOSEAL MOBILEA ll</t>
+  </si>
+  <si>
+    <t>8NKF6418</t>
+  </si>
+  <si>
+    <t>LAB-BUD-090</t>
+  </si>
+  <si>
+    <t>DIGI COUNT</t>
+  </si>
+  <si>
+    <t>PCL HOLDING</t>
+  </si>
+  <si>
+    <t>DC-10</t>
+  </si>
+  <si>
+    <t>LAB-BUD-110</t>
+  </si>
+  <si>
+    <t>LAB-BUD-120</t>
+  </si>
+  <si>
+    <t>FREEZER AND FREEZER</t>
+  </si>
+  <si>
+    <t>MEDFUTURE</t>
+  </si>
+  <si>
+    <t>BDF-40V528</t>
+  </si>
+  <si>
+    <t>DF40V52825230017C</t>
+  </si>
+  <si>
+    <t>LAB-BUD-123</t>
+  </si>
+  <si>
+    <t>HS-12</t>
+  </si>
+  <si>
+    <t>LAB-BUD-124</t>
+  </si>
+  <si>
+    <t>WB25073644</t>
+  </si>
+  <si>
+    <t>CF25073647</t>
+  </si>
+  <si>
+    <t>CF25073648</t>
+  </si>
+  <si>
+    <t>CF25073649</t>
+  </si>
+  <si>
+    <t>CF25073650</t>
+  </si>
+  <si>
+    <t>CH25073651</t>
+  </si>
+  <si>
+    <t>CF25073652</t>
+  </si>
+  <si>
+    <t>CH25073653</t>
+  </si>
+  <si>
+    <t>CF25073654</t>
+  </si>
+  <si>
+    <t>CH25073655</t>
+  </si>
+  <si>
+    <t>AC25073656</t>
+  </si>
+  <si>
+    <t>CH25073657</t>
+  </si>
+  <si>
+    <t>CF25073658</t>
+  </si>
+  <si>
+    <t>CH25073659</t>
+  </si>
+  <si>
+    <t>CF25073660</t>
+  </si>
+  <si>
+    <t>CH25073661</t>
+  </si>
+  <si>
+    <t>CH25073662</t>
+  </si>
+  <si>
+    <t>CH25073663</t>
+  </si>
+  <si>
+    <t>CH25073666</t>
+  </si>
+  <si>
+    <t>CH25073667</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PM</t>
+  </si>
+  <si>
+    <t>CF25073670</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD</t>
+  </si>
+  <si>
+    <t>CH25073645</t>
+  </si>
+  <si>
+    <t>CH25073646</t>
+  </si>
+  <si>
+    <t>CF25073664</t>
+  </si>
+  <si>
+    <t>DB25073665</t>
+  </si>
+  <si>
+    <t>CH25073668</t>
+  </si>
+  <si>
+    <t>CH25073669</t>
   </si>
 </sst>
 </file>
@@ -643,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -690,54 +942,54 @@
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10">
-        <v>180831924</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11">
-        <v>45870</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10">
-        <v>16080074</v>
+        <v>1206012</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="11">
-        <v>45870</v>
+        <v>45845</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -745,103 +997,103 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="10">
+        <v>12030347</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10">
+        <v>12030347</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
-        <v>17070228</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10">
-        <v>18080273</v>
+        <v>144101</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="10">
+        <v>144011</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -849,314 +1101,650 @@
         <v>10</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10">
-        <v>150679</v>
+        <v>144081</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9413291</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11">
-        <v>45870</v>
+        <v>45846</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="10">
+        <v>13030087</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45846</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="10">
+        <v>144766</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45846</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45846</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>147991</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="11">
-        <v>45870</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="F14" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>153009</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>610010875</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>610010875</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1910024</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2201065</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="10"/>
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>157951</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45845</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
       <c r="A33" s="1"/>
@@ -1236,7 +1824,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
       <c r="A41" s="1"/>
@@ -1246,7 +1834,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
       <c r="A42" s="1"/>
@@ -1256,7 +1844,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
       <c r="A43" s="1"/>
@@ -1388,8 +1976,38 @@
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
     </row>
+    <row r="56" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H58" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07AF9979-0BD1-4F0F-9772-8D4A1AD120D8}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F77EE8-A048-44A7-A6D3-4B0EBD4AA831}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>ID No.</t>
   </si>
@@ -75,109 +76,280 @@
     <t>-</t>
   </si>
   <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>SANDEN INTERCOOL</t>
-  </si>
-  <si>
-    <t>SPB-0500</t>
-  </si>
-  <si>
-    <t>SPB0500-250100076</t>
-  </si>
-  <si>
-    <t>CH25074488</t>
-  </si>
-  <si>
-    <t>SBC-P2DBA</t>
-  </si>
-  <si>
-    <t>CH25074489</t>
-  </si>
-  <si>
-    <t>030725</t>
-  </si>
-  <si>
-    <t>CH25074490</t>
-  </si>
-  <si>
-    <t>ESSTELL</t>
-  </si>
-  <si>
-    <t>LBB-103GTi</t>
-  </si>
-  <si>
-    <t>2022042303BQ</t>
-  </si>
-  <si>
-    <t>CH25074491</t>
-  </si>
-  <si>
-    <t>SD-332DP</t>
-  </si>
-  <si>
-    <t>BY0JQ LE000 29AQA W0005</t>
-  </si>
-  <si>
-    <t>CH25074492</t>
-  </si>
-  <si>
-    <t>SNC-0515</t>
-  </si>
-  <si>
-    <t>SNC0515-210702673</t>
-  </si>
-  <si>
-    <t>CH25074493</t>
-  </si>
-  <si>
-    <t>SNH-0105</t>
-  </si>
-  <si>
-    <t>SNH0105-171102531</t>
-  </si>
-  <si>
-    <t>CH25074494</t>
-  </si>
-  <si>
-    <t>BY0JQ LE000 29AQC R0117</t>
-  </si>
-  <si>
-    <t>CH25074495</t>
-  </si>
-  <si>
     <t>DRY BATH</t>
   </si>
   <si>
-    <t>ALLSHENG</t>
-  </si>
-  <si>
-    <t>MK2000-1</t>
-  </si>
-  <si>
-    <t>101-16315-24100001</t>
-  </si>
-  <si>
-    <t>DB25074496</t>
-  </si>
-  <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
     <t>EBA 200</t>
   </si>
   <si>
-    <t>0036309-06</t>
-  </si>
-  <si>
-    <t>CF25074497</t>
-  </si>
-  <si>
-    <t>Kosumphisai Hospital</t>
+    <t>MRC</t>
+  </si>
+  <si>
+    <t>DBD-001</t>
+  </si>
+  <si>
+    <t>PSV0843</t>
+  </si>
+  <si>
+    <t>DB25073534</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>SK-0180-S</t>
+  </si>
+  <si>
+    <t>194AH000130</t>
+  </si>
+  <si>
+    <t>PSV2386</t>
+  </si>
+  <si>
+    <t>CF25073535</t>
+  </si>
+  <si>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>BESTER THAILAND</t>
+  </si>
+  <si>
+    <t>LM-60-VL-D-P</t>
+  </si>
+  <si>
+    <t>PSV2229</t>
+  </si>
+  <si>
+    <t>AC25073536</t>
+  </si>
+  <si>
+    <t>BOECO</t>
+  </si>
+  <si>
+    <t>C-28A</t>
+  </si>
+  <si>
+    <t>0001619-05</t>
+  </si>
+  <si>
+    <t>PSV1947</t>
+  </si>
+  <si>
+    <t>CF25073537</t>
+  </si>
+  <si>
+    <t>0001719-05</t>
+  </si>
+  <si>
+    <t>PSV2092</t>
+  </si>
+  <si>
+    <t>CF25073538</t>
+  </si>
+  <si>
+    <t>Hanil</t>
+  </si>
+  <si>
+    <t>Sero Spin II</t>
+  </si>
+  <si>
+    <t>HICME219052605009</t>
+  </si>
+  <si>
+    <t>PSV2467</t>
+  </si>
+  <si>
+    <t>CF25073539</t>
+  </si>
+  <si>
+    <t>0002325-06</t>
+  </si>
+  <si>
+    <t>PSV2701</t>
+  </si>
+  <si>
+    <t>CF25073540</t>
+  </si>
+  <si>
+    <t>DM0424</t>
+  </si>
+  <si>
+    <t>IA236AM0000806</t>
+  </si>
+  <si>
+    <t>PSV2824</t>
+  </si>
+  <si>
+    <t>CF25073541</t>
+  </si>
+  <si>
+    <t>Hettich</t>
+  </si>
+  <si>
+    <t>0043777</t>
+  </si>
+  <si>
+    <t>PSV3110</t>
+  </si>
+  <si>
+    <t>CF25073542</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>HC-240</t>
+  </si>
+  <si>
+    <t>0000559-01</t>
+  </si>
+  <si>
+    <t>PSV1862</t>
+  </si>
+  <si>
+    <t>CF25073543</t>
+  </si>
+  <si>
+    <t>BIOBASE</t>
+  </si>
+  <si>
+    <t>BKC-MH12-B</t>
+  </si>
+  <si>
+    <t>LXJTG12W24040108K</t>
+  </si>
+  <si>
+    <t>PSV3109</t>
+  </si>
+  <si>
+    <t>CF25073544</t>
+  </si>
+  <si>
+    <t>Q.nic</t>
+  </si>
+  <si>
+    <t>BBR-11sd</t>
+  </si>
+  <si>
+    <t>PSV1654</t>
+  </si>
+  <si>
+    <t>CH25073545</t>
+  </si>
+  <si>
+    <t>HITACHI</t>
+  </si>
+  <si>
+    <t>R-64W-1</t>
+  </si>
+  <si>
+    <t>4220901304</t>
+  </si>
+  <si>
+    <t>PSV0239</t>
+  </si>
+  <si>
+    <t>CH25073546</t>
+  </si>
+  <si>
+    <t>ANTECH</t>
+  </si>
+  <si>
+    <t>MPR-110</t>
+  </si>
+  <si>
+    <t>MPR-1101902001</t>
+  </si>
+  <si>
+    <t>PSV2306</t>
+  </si>
+  <si>
+    <t>CH25073547</t>
+  </si>
+  <si>
+    <t>MDF-25U400</t>
+  </si>
+  <si>
+    <t>D214QD0101J2R100</t>
+  </si>
+  <si>
+    <t>PSV2307</t>
+  </si>
+  <si>
+    <t>CH25073548</t>
+  </si>
+  <si>
+    <t>Haier</t>
+  </si>
+  <si>
+    <t>BD-276B</t>
+  </si>
+  <si>
+    <t>B30MB7E0000BLR2T0033</t>
+  </si>
+  <si>
+    <t>PSV3210</t>
+  </si>
+  <si>
+    <t>CH25073549</t>
+  </si>
+  <si>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>BC-330(F)</t>
+  </si>
+  <si>
+    <t>PSV0241</t>
+  </si>
+  <si>
+    <t>CH25073550</t>
+  </si>
+  <si>
+    <t>Beverage fresh&amp;cool</t>
+  </si>
+  <si>
+    <t>MCD-20TM</t>
+  </si>
+  <si>
+    <t>106-MCD2-553-064</t>
+  </si>
+  <si>
+    <t>PSV1195</t>
+  </si>
+  <si>
+    <t>CH25073551</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>SH Scintific</t>
+  </si>
+  <si>
+    <t>SH-CH-54G</t>
+  </si>
+  <si>
+    <t>220630CH-546-2</t>
+  </si>
+  <si>
+    <t>PSV2822</t>
+  </si>
+  <si>
+    <t>CH25073552</t>
+  </si>
+  <si>
+    <t>PSV0238</t>
+  </si>
+  <si>
+    <t>CH25073553</t>
+  </si>
+  <si>
+    <t>PITSANUVEJ HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -628,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -675,7 +847,7 @@
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>14</v>
@@ -683,355 +855,515 @@
       <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="10">
+        <v>101214112</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="11">
-        <v>45868</v>
+        <v>45841</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10">
-        <v>130481</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F3" s="11">
-        <v>45867</v>
+        <v>45841</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="10">
+        <v>18091203</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F4" s="11">
-        <v>45867</v>
+        <v>45840</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F5" s="11">
-        <v>45867</v>
+        <v>45841</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11">
-        <v>45867</v>
+        <v>45841</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F7" s="11">
-        <v>45868</v>
+        <v>45841</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F8" s="11">
-        <v>45868</v>
+        <v>45841</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11">
-        <v>45867</v>
+        <v>45841</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F10" s="11">
-        <v>45868</v>
+        <v>45841</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45841</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11115001</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45840</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1">
+        <v>70300179</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
-        <v>45868</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45841</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1"/>
@@ -1173,32 +1505,24 @@
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H35" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555283F-2A6D-4C5D-9193-C71C5FEFC8B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F77EE8-A048-44A7-A6D3-4B0EBD4AA831}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F701C30-06B4-4F0F-B298-984D9CCF3186}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>ID No.</t>
   </si>
@@ -76,280 +76,139 @@
     <t>-</t>
   </si>
   <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
-    <t>EBA 200</t>
-  </si>
-  <si>
-    <t>MRC</t>
-  </si>
-  <si>
-    <t>DBD-001</t>
-  </si>
-  <si>
-    <t>PSV0843</t>
-  </si>
-  <si>
-    <t>DB25073534</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>DLAB</t>
-  </si>
-  <si>
-    <t>SK-0180-S</t>
-  </si>
-  <si>
-    <t>194AH000130</t>
-  </si>
-  <si>
-    <t>PSV2386</t>
-  </si>
-  <si>
-    <t>CF25073535</t>
-  </si>
-  <si>
-    <t>AUTOCLAVE</t>
-  </si>
-  <si>
-    <t>BESTER THAILAND</t>
-  </si>
-  <si>
-    <t>LM-60-VL-D-P</t>
-  </si>
-  <si>
-    <t>PSV2229</t>
-  </si>
-  <si>
-    <t>AC25073536</t>
-  </si>
-  <si>
     <t>BOECO</t>
   </si>
   <si>
-    <t>C-28A</t>
-  </si>
-  <si>
-    <t>0001619-05</t>
-  </si>
-  <si>
-    <t>PSV1947</t>
-  </si>
-  <si>
-    <t>CF25073537</t>
-  </si>
-  <si>
-    <t>0001719-05</t>
-  </si>
-  <si>
-    <t>PSV2092</t>
-  </si>
-  <si>
-    <t>CF25073538</t>
-  </si>
-  <si>
-    <t>Hanil</t>
-  </si>
-  <si>
-    <t>Sero Spin II</t>
-  </si>
-  <si>
-    <t>HICME219052605009</t>
-  </si>
-  <si>
-    <t>PSV2467</t>
-  </si>
-  <si>
-    <t>CF25073539</t>
-  </si>
-  <si>
-    <t>0002325-06</t>
-  </si>
-  <si>
-    <t>PSV2701</t>
-  </si>
-  <si>
-    <t>CF25073540</t>
-  </si>
-  <si>
-    <t>DM0424</t>
-  </si>
-  <si>
-    <t>IA236AM0000806</t>
-  </si>
-  <si>
-    <t>PSV2824</t>
-  </si>
-  <si>
-    <t>CF25073541</t>
-  </si>
-  <si>
-    <t>Hettich</t>
-  </si>
-  <si>
-    <t>0043777</t>
-  </si>
-  <si>
-    <t>PSV3110</t>
-  </si>
-  <si>
-    <t>CF25073542</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>HC-240</t>
-  </si>
-  <si>
-    <t>0000559-01</t>
-  </si>
-  <si>
-    <t>PSV1862</t>
-  </si>
-  <si>
-    <t>CF25073543</t>
-  </si>
-  <si>
-    <t>BIOBASE</t>
-  </si>
-  <si>
-    <t>BKC-MH12-B</t>
-  </si>
-  <si>
-    <t>LXJTG12W24040108K</t>
-  </si>
-  <si>
-    <t>PSV3109</t>
-  </si>
-  <si>
-    <t>CF25073544</t>
-  </si>
-  <si>
-    <t>Q.nic</t>
-  </si>
-  <si>
-    <t>BBR-11sd</t>
-  </si>
-  <si>
-    <t>PSV1654</t>
-  </si>
-  <si>
-    <t>CH25073545</t>
-  </si>
-  <si>
-    <t>HITACHI</t>
-  </si>
-  <si>
-    <t>R-64W-1</t>
-  </si>
-  <si>
-    <t>4220901304</t>
-  </si>
-  <si>
-    <t>PSV0239</t>
-  </si>
-  <si>
-    <t>CH25073546</t>
-  </si>
-  <si>
-    <t>ANTECH</t>
-  </si>
-  <si>
-    <t>MPR-110</t>
-  </si>
-  <si>
-    <t>MPR-1101902001</t>
-  </si>
-  <si>
-    <t>PSV2306</t>
-  </si>
-  <si>
-    <t>CH25073547</t>
-  </si>
-  <si>
-    <t>MDF-25U400</t>
-  </si>
-  <si>
-    <t>D214QD0101J2R100</t>
-  </si>
-  <si>
-    <t>PSV2307</t>
-  </si>
-  <si>
-    <t>CH25073548</t>
-  </si>
-  <si>
-    <t>Haier</t>
-  </si>
-  <si>
-    <t>BD-276B</t>
-  </si>
-  <si>
-    <t>B30MB7E0000BLR2T0033</t>
-  </si>
-  <si>
-    <t>PSV3210</t>
-  </si>
-  <si>
-    <t>CH25073549</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>BC-330(F)</t>
-  </si>
-  <si>
-    <t>PSV0241</t>
-  </si>
-  <si>
-    <t>CH25073550</t>
-  </si>
-  <si>
-    <t>Beverage fresh&amp;cool</t>
-  </si>
-  <si>
-    <t>MCD-20TM</t>
-  </si>
-  <si>
-    <t>106-MCD2-553-064</t>
-  </si>
-  <si>
-    <t>PSV1195</t>
-  </si>
-  <si>
-    <t>CH25073551</t>
-  </si>
-  <si>
-    <t>INCUBATOR</t>
-  </si>
-  <si>
-    <t>SH Scintific</t>
-  </si>
-  <si>
-    <t>SH-CH-54G</t>
-  </si>
-  <si>
-    <t>220630CH-546-2</t>
-  </si>
-  <si>
-    <t>PSV2822</t>
-  </si>
-  <si>
-    <t>CH25073552</t>
-  </si>
-  <si>
-    <t>PSV0238</t>
-  </si>
-  <si>
-    <t>CH25073553</t>
-  </si>
-  <si>
-    <t>PITSANUVEJ HOSPITAL</t>
+    <t>PHANGKHON HOSPITAL</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MBR-705GR-PE</t>
+  </si>
+  <si>
+    <t>CH25073980</t>
+  </si>
+  <si>
+    <t>CENTURION SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PRO-HOSPITAL.GP</t>
+  </si>
+  <si>
+    <t>209198-7</t>
+  </si>
+  <si>
+    <t>CF25073981</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>CF25073982</t>
+  </si>
+  <si>
+    <t>METHERBIOMEDICAL</t>
+  </si>
+  <si>
+    <t>MDF-25V278W</t>
+  </si>
+  <si>
+    <t>2236000212MDF-25V278W</t>
+  </si>
+  <si>
+    <t>CH25073983</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>YR-10</t>
+  </si>
+  <si>
+    <t>6515-038-2151/2</t>
+  </si>
+  <si>
+    <t>CH25073984</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>VRN-200</t>
+  </si>
+  <si>
+    <t>CF25073985</t>
+  </si>
+  <si>
+    <t>LICC</t>
+  </si>
+  <si>
+    <t>BB-C12</t>
+  </si>
+  <si>
+    <t>CF25073986</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>GN-M492CLN</t>
+  </si>
+  <si>
+    <t>210INAR2V384</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>HAEMATOKRIT 200</t>
+  </si>
+  <si>
+    <t>0005028-04</t>
+  </si>
+  <si>
+    <t>CF25073990</t>
+  </si>
+  <si>
+    <t>HC - 240</t>
+  </si>
+  <si>
+    <t>0001444-03</t>
+  </si>
+  <si>
+    <t>CF25073991</t>
+  </si>
+  <si>
+    <t>THE COOL INSPIRED</t>
+  </si>
+  <si>
+    <t>ALEX2PRPRO</t>
+  </si>
+  <si>
+    <t>100005712206024</t>
+  </si>
+  <si>
+    <t>CH25073992</t>
+  </si>
+  <si>
+    <t>CH25073987</t>
+  </si>
+  <si>
+    <t>CH25073988</t>
+  </si>
+  <si>
+    <t>CF25073989</t>
   </si>
 </sst>
 </file>
@@ -800,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -847,33 +706,33 @@
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10">
+        <v>22070028</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45848</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="10">
-        <v>101214112</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="11">
-        <v>45841</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>19</v>
@@ -885,120 +744,120 @@
         <v>21</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45848</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11">
-        <v>45841</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10">
+        <v>157186</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45848</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10">
-        <v>18091203</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45840</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45848</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45841</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="11">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1315330</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F7" s="11">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -1006,129 +865,129 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2022061536</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F8" s="11">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F9" s="11">
-        <v>45841</v>
+        <v>45849</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11">
-        <v>45841</v>
+        <v>45849</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45841</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45848</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
@@ -1136,234 +995,122 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1">
-        <v>11115001</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>45840</v>
+        <v>45848</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>157725</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2">
-        <v>45840</v>
+        <v>45848</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45840</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="1">
-        <v>70300179</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45841</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1"/>
@@ -1435,78 +1182,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
+  <autoFilter ref="A1:H28" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdmsgroup-my.sharepoint.com/personal/nhbmecallab_bdms_co_th/Documents/11 ใบขอรับบริการ CAL-LAB/0. ตรวจ Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F701C30-06B4-4F0F-B298-984D9CCF3186}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{C07A9161-E07A-4EF4-81F4-C80AF93AFD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8D7760D-8018-4F26-8A18-0DBCE00890DD}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ใบขอรับบริการสอบเทียบ!$A$1:$H$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>ID No.</t>
   </si>
@@ -73,142 +73,223 @@
     <t>FREEZER</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>BOECO</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>PHANGKHON HOSPITAL</t>
-  </si>
-  <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
-    <t>MBR-705GR-PE</t>
-  </si>
-  <si>
-    <t>CH25073980</t>
-  </si>
-  <si>
     <t>CENTURION SCIENTIFIC</t>
   </si>
   <si>
-    <t>PRO-HOSPITAL.GP</t>
-  </si>
-  <si>
-    <t>209198-7</t>
-  </si>
-  <si>
-    <t>CF25073981</t>
-  </si>
-  <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>CF25073982</t>
-  </si>
-  <si>
-    <t>METHERBIOMEDICAL</t>
-  </si>
-  <si>
-    <t>MDF-25V278W</t>
-  </si>
-  <si>
-    <t>2236000212MDF-25V278W</t>
-  </si>
-  <si>
-    <t>CH25073983</t>
-  </si>
-  <si>
-    <t>MIT</t>
-  </si>
-  <si>
-    <t>YR-10</t>
-  </si>
-  <si>
-    <t>6515-038-2151/2</t>
-  </si>
-  <si>
-    <t>CH25073984</t>
-  </si>
-  <si>
     <t>GEMMY</t>
   </si>
   <si>
-    <t>VRN-200</t>
-  </si>
-  <si>
-    <t>CF25073985</t>
-  </si>
-  <si>
     <t>LICC</t>
   </si>
   <si>
-    <t>BB-C12</t>
-  </si>
-  <si>
-    <t>CF25073986</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>GN-M492CLN</t>
-  </si>
-  <si>
-    <t>210INAR2V384</t>
-  </si>
-  <si>
     <t>HETTICH</t>
   </si>
   <si>
     <t>HAEMATOKRIT 200</t>
   </si>
   <si>
-    <t>0005028-04</t>
-  </si>
-  <si>
-    <t>CF25073990</t>
-  </si>
-  <si>
-    <t>HC - 240</t>
-  </si>
-  <si>
-    <t>0001444-03</t>
-  </si>
-  <si>
-    <t>CF25073991</t>
-  </si>
-  <si>
-    <t>THE COOL INSPIRED</t>
-  </si>
-  <si>
-    <t>ALEX2PRPRO</t>
-  </si>
-  <si>
-    <t>100005712206024</t>
-  </si>
-  <si>
-    <t>CH25073992</t>
-  </si>
-  <si>
-    <t>CH25073987</t>
-  </si>
-  <si>
-    <t>CH25073988</t>
-  </si>
-  <si>
-    <t>CF25073989</t>
+    <t>0004194-04</t>
+  </si>
+  <si>
+    <t>6515-006-0002/6/63</t>
+  </si>
+  <si>
+    <t>CF25084695</t>
+  </si>
+  <si>
+    <t>PREMIERE</t>
+  </si>
+  <si>
+    <t>XC-2008</t>
+  </si>
+  <si>
+    <t>YDX296-3</t>
+  </si>
+  <si>
+    <t>6515-006-0001/6/67</t>
+  </si>
+  <si>
+    <t>CF25084696</t>
+  </si>
+  <si>
+    <t>JOANLAB</t>
+  </si>
+  <si>
+    <t>LC5000H</t>
+  </si>
+  <si>
+    <t>202401246401</t>
+  </si>
+  <si>
+    <t>6515-006-0002/8/67</t>
+  </si>
+  <si>
+    <t>CF25084697</t>
+  </si>
+  <si>
+    <t>NUVE</t>
+  </si>
+  <si>
+    <t>NF 200</t>
+  </si>
+  <si>
+    <t>02-8191</t>
+  </si>
+  <si>
+    <t>6515-006-0001/2/57</t>
+  </si>
+  <si>
+    <t>CF25084698</t>
+  </si>
+  <si>
+    <t>SHUKE</t>
+  </si>
+  <si>
+    <t>TD-5M</t>
+  </si>
+  <si>
+    <t>6515-006-0001/5/64</t>
+  </si>
+  <si>
+    <t>CF25084699</t>
+  </si>
+  <si>
+    <t>C2004</t>
+  </si>
+  <si>
+    <t>214262-11</t>
+  </si>
+  <si>
+    <t>6515-006-0001/1/57</t>
+  </si>
+  <si>
+    <t>CF25084700</t>
+  </si>
+  <si>
+    <t>BIO RAD</t>
+  </si>
+  <si>
+    <t>DIACENT-12</t>
+  </si>
+  <si>
+    <t>6515-006-0001/4/63</t>
+  </si>
+  <si>
+    <t>CF25084701</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>HYC-360</t>
+  </si>
+  <si>
+    <t>BE032KE1T00QEFBR0003</t>
+  </si>
+  <si>
+    <t>6515-038-5300/1/59</t>
+  </si>
+  <si>
+    <t>CH25084702</t>
+  </si>
+  <si>
+    <t>SIAMATIC</t>
+  </si>
+  <si>
+    <t>HURR PLUS 3 DS</t>
+  </si>
+  <si>
+    <t>HUP-03-L0265-0665-019</t>
+  </si>
+  <si>
+    <t>6515-038-5300/2/66</t>
+  </si>
+  <si>
+    <t>CH25084703</t>
+  </si>
+  <si>
+    <t>BXC-160</t>
+  </si>
+  <si>
+    <t>1701001909BXC-160</t>
+  </si>
+  <si>
+    <t>6515-038-2501/2/63</t>
+  </si>
+  <si>
+    <t>CH25084704</t>
+  </si>
+  <si>
+    <t>VESTFROST</t>
+  </si>
+  <si>
+    <t>VT306</t>
+  </si>
+  <si>
+    <t>6515-038-3091/2/63</t>
+  </si>
+  <si>
+    <t>CH25084705</t>
+  </si>
+  <si>
+    <t>DW-40L92</t>
+  </si>
+  <si>
+    <t>BE02M8E0N00QEG1T0003</t>
+  </si>
+  <si>
+    <t>6515-038-3091/1/59</t>
+  </si>
+  <si>
+    <t>CH25084706</t>
+  </si>
+  <si>
+    <t>HELMER</t>
+  </si>
+  <si>
+    <t>IBR120-GX</t>
+  </si>
+  <si>
+    <t>6515-038-2501/3/65</t>
+  </si>
+  <si>
+    <t>CH25084707</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>6515-024-0004/1/57</t>
+  </si>
+  <si>
+    <t>CF25084708</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>DAIHAN SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>WB-11</t>
+  </si>
+  <si>
+    <t>0400701158C011</t>
+  </si>
+  <si>
+    <t>6515-038-5003/2/59</t>
+  </si>
+  <si>
+    <t>WB25084709</t>
+  </si>
+  <si>
+    <t>KOHCHAN HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -342,7 +423,17 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -662,7 +753,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -706,7 +797,7 @@
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>16</v>
@@ -714,20 +805,20 @@
       <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10">
-        <v>22070028</v>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F2" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -735,25 +826,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -761,103 +852,103 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10">
-        <v>157186</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F4" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F5" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="10">
+        <v>20040321</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1315330</v>
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F7" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -865,25 +956,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10">
-        <v>2022061536</v>
+        <v>2002531</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
@@ -891,176 +982,208 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11">
-        <v>45849</v>
+        <v>45873</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="32.4" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F10" s="11">
-        <v>45849</v>
+        <v>45873</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20183227545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2">
-        <v>45848</v>
+        <v>45873</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1">
-        <v>157725</v>
+        <v>2120096</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45873</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2">
-        <v>45848</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1303370</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45873</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45873</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1"/>
@@ -1185,6 +1308,9 @@
   </sheetData>
   <autoFilter ref="A1:H28" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}"/>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
